--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/15/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>08/21/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/21/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/27/24</t>
+          <t>08/28/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8088,7 +8088,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.01345659199182418</v>
       </c>
     </row>
     <row r="3">
@@ -8129,7 +8129,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.04113467738898002</v>
       </c>
     </row>
     <row r="4">
@@ -8158,7 +8158,7 @@
         <v>0.03998633213334121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J4" t="n">
         <v>0.08783965823576868</v>
@@ -8170,7 +8170,7 @@
         <v>0.0826615984671545</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01723069782825861</v>
+        <v>0.02981408017802946</v>
       </c>
     </row>
     <row r="5">
@@ -8199,7 +8199,7 @@
         <v>0.03310970176646088</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J5" t="n">
         <v>0.08423597994917305</v>
@@ -8211,7 +8211,7 @@
         <v>0.08489569572302354</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.0276897188787301</v>
       </c>
     </row>
     <row r="6">
@@ -8252,7 +8252,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03844334022693523</v>
       </c>
     </row>
     <row r="7">
@@ -8281,7 +8281,7 @@
         <v>0.04189650723525242</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J7" t="n">
         <v>0.08483959606217782</v>
@@ -8293,7 +8293,7 @@
         <v>0.0826615984671545</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.05480089095874037</v>
       </c>
     </row>
     <row r="8">
@@ -8322,7 +8322,7 @@
         <v>0.03501987686837209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J8" t="n">
         <v>0.08123591777558217</v>
@@ -8334,7 +8334,7 @@
         <v>0.08489569572302354</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.05267652965944101</v>
       </c>
     </row>
     <row r="9">
@@ -8363,7 +8363,7 @@
         <v>0.04813641256816235</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J9" t="n">
         <v>0.0855873593066464</v>
@@ -8375,7 +8375,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01723069782825861</v>
+        <v>0.02712274301598467</v>
       </c>
     </row>
     <row r="10">
@@ -8404,7 +8404,7 @@
         <v>0.04125978220128202</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J10" t="n">
         <v>0.08198368102005078</v>
@@ -8416,7 +8416,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.04135593244849044</v>
       </c>
     </row>
     <row r="11">
@@ -8445,7 +8445,7 @@
         <v>0.03438315183440168</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J11" t="n">
         <v>0.07838000273345513</v>
@@ -8457,7 +8457,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.0249983817166853</v>
       </c>
     </row>
     <row r="12">
@@ -8498,7 +8498,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03844334022693523</v>
       </c>
     </row>
     <row r="13">
@@ -8527,7 +8527,7 @@
         <v>0.05004658767007356</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J13" t="n">
         <v>0.08258729713305554</v>
@@ -8539,7 +8539,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.05480089095874037</v>
       </c>
     </row>
     <row r="14">
@@ -8568,7 +8568,7 @@
         <v>0.03629332693631288</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J14" t="n">
         <v>0.07537994055986427</v>
@@ -8580,7 +8580,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.05267652965944101</v>
       </c>
     </row>
     <row r="15">
@@ -8609,7 +8609,7 @@
         <v>0.0562864930029835</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J15" t="n">
         <v>0.08333506037752414</v>
@@ -8621,7 +8621,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03446139565651723</v>
+        <v>0.04348029374778981</v>
       </c>
     </row>
     <row r="16">
@@ -8650,7 +8650,7 @@
         <v>0.04253323226922282</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J16" t="n">
         <v>0.07612770380433286</v>
@@ -8662,7 +8662,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.04135593244849044</v>
       </c>
     </row>
     <row r="17">
@@ -8691,7 +8691,7 @@
         <v>0.03565660190234249</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J17" t="n">
         <v>0.07252402551773723</v>
@@ -8703,7 +8703,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.0249983817166853</v>
       </c>
     </row>
     <row r="18">
@@ -8744,7 +8744,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03575200306489043</v>
       </c>
     </row>
     <row r="19">
@@ -8773,7 +8773,7 @@
         <v>0.05195676277198476</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J19" t="n">
         <v>0.07958723495946467</v>
@@ -8785,7 +8785,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.05210955379669557</v>
       </c>
     </row>
     <row r="20">
@@ -8814,7 +8814,7 @@
         <v>0.04508013240510442</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J20" t="n">
         <v>0.07598355667286905</v>
@@ -8826,7 +8826,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06634274322920135</v>
       </c>
     </row>
     <row r="21">
@@ -8855,7 +8855,7 @@
         <v>0.03820350203822409</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J21" t="n">
         <v>0.0723798783862734</v>
@@ -8867,7 +8867,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04998519249739621</v>
       </c>
     </row>
     <row r="22">
@@ -8896,7 +8896,7 @@
         <v>0.0581966681048947</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J22" t="n">
         <v>0.08033499820393328</v>
@@ -8908,7 +8908,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06846710452850072</v>
       </c>
     </row>
     <row r="23">
@@ -8937,7 +8937,7 @@
         <v>0.04444340737113402</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J23" t="n">
         <v>0.07312764163074199</v>
@@ -8949,7 +8949,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06634274322920135</v>
       </c>
     </row>
     <row r="24">
@@ -8978,7 +8978,7 @@
         <v>0.03756677700425369</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J24" t="n">
         <v>0.06952396334414636</v>
@@ -8990,7 +8990,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04998519249739621</v>
       </c>
     </row>
     <row r="25">
@@ -9019,7 +9019,7 @@
         <v>0.06443657343780464</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J25" t="n">
         <v>0.08108276144840186</v>
@@ -9031,7 +9031,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03446139565651723</v>
+        <v>0.04078895658574501</v>
       </c>
     </row>
     <row r="26">
@@ -9060,7 +9060,7 @@
         <v>0.05068331270404396</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J26" t="n">
         <v>0.07387540487521058</v>
@@ -9072,7 +9072,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03866459528644565</v>
       </c>
     </row>
     <row r="27">
@@ -9101,7 +9101,7 @@
         <v>0.04380668233716362</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J27" t="n">
         <v>0.07027172658861496</v>
@@ -9113,7 +9113,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03866459528644565</v>
       </c>
     </row>
     <row r="28">
@@ -9142,7 +9142,7 @@
         <v>0.03693005197028328</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J28" t="n">
         <v>0.06666804830201931</v>
@@ -9154,7 +9154,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.02230704455464051</v>
       </c>
     </row>
     <row r="29">
@@ -9195,7 +9195,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03575200306489043</v>
       </c>
     </row>
     <row r="30">
@@ -9224,7 +9224,7 @@
         <v>0.04762703254098603</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J30" t="n">
         <v>0.07583940954140521</v>
@@ -9236,7 +9236,7 @@
         <v>0.0826615984671545</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.05210955379669557</v>
       </c>
     </row>
     <row r="31">
@@ -9265,7 +9265,7 @@
         <v>0.0407504021741057</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J31" t="n">
         <v>0.07223573125480957</v>
@@ -9277,7 +9277,7 @@
         <v>0.08489569572302354</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04998519249739621</v>
       </c>
     </row>
     <row r="32">
@@ -9306,7 +9306,7 @@
         <v>0.05386693787389597</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J32" t="n">
         <v>0.07658717278587381</v>
@@ -9318,7 +9318,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.05210955379669557</v>
       </c>
     </row>
     <row r="33">
@@ -9347,7 +9347,7 @@
         <v>0.04699030750701563</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J33" t="n">
         <v>0.07298349449927817</v>
@@ -9359,7 +9359,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06634274322920135</v>
       </c>
     </row>
     <row r="34">
@@ -9388,7 +9388,7 @@
         <v>0.04011367714013529</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J34" t="n">
         <v>0.06937981621268254</v>
@@ -9400,7 +9400,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04998519249739621</v>
       </c>
     </row>
     <row r="35">
@@ -9429,7 +9429,7 @@
         <v>0.0601068432068059</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J35" t="n">
         <v>0.0773349360303424</v>
@@ -9441,7 +9441,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06846710452850072</v>
       </c>
     </row>
     <row r="36">
@@ -9470,7 +9470,7 @@
         <v>0.04635358247304523</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J36" t="n">
         <v>0.07012757945715112</v>
@@ -9482,7 +9482,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06634274322920135</v>
       </c>
     </row>
     <row r="37">
@@ -9511,7 +9511,7 @@
         <v>0.03947695210616489</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J37" t="n">
         <v>0.06652390117055548</v>
@@ -9523,7 +9523,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04998519249739621</v>
       </c>
     </row>
     <row r="38">
@@ -9552,7 +9552,7 @@
         <v>0.06634674853971584</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J38" t="n">
         <v>0.078082699274811</v>
@@ -9564,7 +9564,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06846710452850072</v>
       </c>
     </row>
     <row r="39">
@@ -9593,7 +9593,7 @@
         <v>0.05259348780595516</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J39" t="n">
         <v>0.07087534270161971</v>
@@ -9605,7 +9605,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06634274322920135</v>
       </c>
     </row>
     <row r="40">
@@ -9634,7 +9634,7 @@
         <v>0.04571685743907482</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J40" t="n">
         <v>0.06727166441502408</v>
@@ -9646,7 +9646,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06634274322920135</v>
       </c>
     </row>
     <row r="41">
@@ -9675,7 +9675,7 @@
         <v>0.03884022707219449</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J41" t="n">
         <v>0.06366798612842844</v>
@@ -9687,7 +9687,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04998519249739621</v>
       </c>
     </row>
     <row r="42">
@@ -9716,7 +9716,7 @@
         <v>0.07258665387262576</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J42" t="n">
         <v>0.0788304625192796</v>
@@ -9728,7 +9728,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05169209348477585</v>
+        <v>0.05714650731755015</v>
       </c>
     </row>
     <row r="43">
@@ -9757,7 +9757,7 @@
         <v>0.06571002350574544</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J43" t="n">
         <v>0.07522678423268395</v>
@@ -9769,7 +9769,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.05502214601825079</v>
       </c>
     </row>
     <row r="44">
@@ -9798,7 +9798,7 @@
         <v>0.0588333931388651</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J44" t="n">
         <v>0.07162310594608831</v>
@@ -9810,7 +9810,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.05502214601825079</v>
       </c>
     </row>
     <row r="45">
@@ -9839,7 +9839,7 @@
         <v>0.05195676277198476</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J45" t="n">
         <v>0.06801942765949268</v>
@@ -9851,7 +9851,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03866459528644565</v>
       </c>
     </row>
     <row r="46">
@@ -9880,7 +9880,7 @@
         <v>0.04508013240510442</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J46" t="n">
         <v>0.06441574937289703</v>
@@ -9892,7 +9892,7 @@
         <v>0.06478882042020218</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03866459528644565</v>
       </c>
     </row>
     <row r="47">
@@ -9921,7 +9921,7 @@
         <v>0.03820350203822409</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J47" t="n">
         <v>0.0608120710863014</v>
@@ -9933,7 +9933,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.02230704455464051</v>
       </c>
     </row>
     <row r="48">
@@ -9974,7 +9974,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03306066590284563</v>
       </c>
     </row>
     <row r="49">
@@ -10003,7 +10003,7 @@
         <v>0.04953720764289724</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J49" t="n">
         <v>0.07283934736781435</v>
@@ -10015,7 +10015,7 @@
         <v>0.0826615984671545</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04941821663465078</v>
       </c>
     </row>
     <row r="50">
@@ -10044,7 +10044,7 @@
         <v>0.0426605772760169</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J50" t="n">
         <v>0.0692356690812187</v>
@@ -10056,7 +10056,7 @@
         <v>0.08489569572302354</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="51">
@@ -10085,7 +10085,7 @@
         <v>0.05577711297580717</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J51" t="n">
         <v>0.07358711061228293</v>
@@ -10097,7 +10097,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04941821663465078</v>
       </c>
     </row>
     <row r="52">
@@ -10126,7 +10126,7 @@
         <v>0.04890048260892683</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J52" t="n">
         <v>0.06998343232568731</v>
@@ -10138,7 +10138,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="53">
@@ -10167,7 +10167,7 @@
         <v>0.0420238522420465</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J53" t="n">
         <v>0.06637975403909166</v>
@@ -10179,7 +10179,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="54">
@@ -10208,7 +10208,7 @@
         <v>0.06201701830871711</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J54" t="n">
         <v>0.07433487385675153</v>
@@ -10220,7 +10220,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06577576736645591</v>
       </c>
     </row>
     <row r="55">
@@ -10249,7 +10249,7 @@
         <v>0.04826375757495643</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J55" t="n">
         <v>0.06712751728356026</v>
@@ -10261,7 +10261,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="56">
@@ -10290,7 +10290,7 @@
         <v>0.0413871272080761</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J56" t="n">
         <v>0.06352383899696461</v>
@@ -10302,7 +10302,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="57">
@@ -10331,7 +10331,7 @@
         <v>0.06825692364162704</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J57" t="n">
         <v>0.07508263710122012</v>
@@ -10343,7 +10343,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06577576736645591</v>
       </c>
     </row>
     <row r="58">
@@ -10372,7 +10372,7 @@
         <v>0.05450366290786637</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J58" t="n">
         <v>0.06787528052802884</v>
@@ -10384,7 +10384,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="59">
@@ -10413,7 +10413,7 @@
         <v>0.04762703254098603</v>
       </c>
       <c r="I59" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J59" t="n">
         <v>0.06427160224143322</v>
@@ -10425,7 +10425,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="60">
@@ -10454,7 +10454,7 @@
         <v>0.0407504021741057</v>
       </c>
       <c r="I60" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J60" t="n">
         <v>0.06066792395483758</v>
@@ -10466,7 +10466,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="61">
@@ -10495,7 +10495,7 @@
         <v>0.07449682897453697</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J61" t="n">
         <v>0.07583040034568872</v>
@@ -10507,7 +10507,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M61" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.08213331809826105</v>
       </c>
     </row>
     <row r="62">
@@ -10536,7 +10536,7 @@
         <v>0.06762019860765664</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J62" t="n">
         <v>0.07222672205909308</v>
@@ -10548,7 +10548,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M62" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.08000895679896169</v>
       </c>
     </row>
     <row r="63">
@@ -10577,7 +10577,7 @@
         <v>0.0607435682407763</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J63" t="n">
         <v>0.06862304377249745</v>
@@ -10589,7 +10589,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M63" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.08000895679896169</v>
       </c>
     </row>
     <row r="64">
@@ -10618,7 +10618,7 @@
         <v>0.05386693787389597</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J64" t="n">
         <v>0.0650193654859018</v>
@@ -10630,7 +10630,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M64" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="65">
@@ -10659,7 +10659,7 @@
         <v>0.04699030750701563</v>
       </c>
       <c r="I65" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J65" t="n">
         <v>0.06141568719930617</v>
@@ -10671,7 +10671,7 @@
         <v>0.06478882042020218</v>
       </c>
       <c r="M65" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="66">
@@ -10700,7 +10700,7 @@
         <v>0.04011367714013529</v>
       </c>
       <c r="I66" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J66" t="n">
         <v>0.05781200891271053</v>
@@ -10712,7 +10712,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="67">
@@ -10741,7 +10741,7 @@
         <v>0.08073673430744691</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J67" t="n">
         <v>0.07657816359015732</v>
@@ -10753,7 +10753,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M67" t="n">
-        <v>0.05169209348477585</v>
+        <v>0.05445517015550536</v>
       </c>
     </row>
     <row r="68">
@@ -10782,7 +10782,7 @@
         <v>0.07386010394056657</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J68" t="n">
         <v>0.07297448530356168</v>
@@ -10794,7 +10794,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06868835958801113</v>
       </c>
     </row>
     <row r="69">
@@ -10823,7 +10823,7 @@
         <v>0.06698347357368624</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J69" t="n">
         <v>0.06937080701696605</v>
@@ -10835,7 +10835,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.05233080885620599</v>
       </c>
     </row>
     <row r="70">
@@ -10864,7 +10864,7 @@
         <v>0.0601068432068059</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J70" t="n">
         <v>0.0657671287303704</v>
@@ -10876,7 +10876,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.05233080885620599</v>
       </c>
     </row>
     <row r="71">
@@ -10905,7 +10905,7 @@
         <v>0.05323021283992557</v>
       </c>
       <c r="I71" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J71" t="n">
         <v>0.06216345044377476</v>
@@ -10917,7 +10917,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03597325812440085</v>
       </c>
     </row>
     <row r="72">
@@ -10946,7 +10946,7 @@
         <v>0.04635358247304523</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J72" t="n">
         <v>0.05855977215717913</v>
@@ -10958,7 +10958,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03597325812440085</v>
       </c>
     </row>
     <row r="73">
@@ -10987,7 +10987,7 @@
         <v>0.03947695210616489</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J73" t="n">
         <v>0.05495609387058348</v>
@@ -10999,7 +10999,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.01961570739259572</v>
       </c>
     </row>
     <row r="74">
@@ -11040,7 +11040,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03306066590284563</v>
       </c>
     </row>
     <row r="75">
@@ -11069,7 +11069,7 @@
         <v>0.05768728807771838</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J75" t="n">
         <v>0.07058704843869207</v>
@@ -11081,7 +11081,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04941821663465078</v>
       </c>
     </row>
     <row r="76">
@@ -11110,7 +11110,7 @@
         <v>0.05081065771083804</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J76" t="n">
         <v>0.06698337015209643</v>
@@ -11122,7 +11122,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M76" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="77">
@@ -11151,7 +11151,7 @@
         <v>0.0439340273439577</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J77" t="n">
         <v>0.0633796918655008</v>
@@ -11163,7 +11163,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="78">
@@ -11192,7 +11192,7 @@
         <v>0.06392719341062832</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J78" t="n">
         <v>0.07133481168316065</v>
@@ -11204,7 +11204,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M78" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06577576736645591</v>
       </c>
     </row>
     <row r="79">
@@ -11233,7 +11233,7 @@
         <v>0.05017393267686764</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J79" t="n">
         <v>0.06412745510996938</v>
@@ -11245,7 +11245,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M79" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="80">
@@ -11274,7 +11274,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J80" t="n">
         <v>0.06052377682337375</v>
@@ -11286,7 +11286,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="81">
@@ -11315,7 +11315,7 @@
         <v>0.07016709874353826</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J81" t="n">
         <v>0.07208257492762926</v>
@@ -11327,7 +11327,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M81" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06577576736645591</v>
       </c>
     </row>
     <row r="82">
@@ -11356,7 +11356,7 @@
         <v>0.05641383800977758</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J82" t="n">
         <v>0.06487521835443798</v>
@@ -11368,7 +11368,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M82" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="83">
@@ -11397,7 +11397,7 @@
         <v>0.04953720764289724</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J83" t="n">
         <v>0.06127154006784234</v>
@@ -11409,7 +11409,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M83" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="84">
@@ -11438,7 +11438,7 @@
         <v>0.0426605772760169</v>
       </c>
       <c r="I84" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J84" t="n">
         <v>0.05766786178124671</v>
@@ -11450,7 +11450,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="85">
@@ -11479,7 +11479,7 @@
         <v>0.07640700407644818</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J85" t="n">
         <v>0.07283033817209786</v>
@@ -11491,7 +11491,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M85" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.08213331809826105</v>
       </c>
     </row>
     <row r="86">
@@ -11520,7 +11520,7 @@
         <v>0.06953037370956786</v>
       </c>
       <c r="I86" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J86" t="n">
         <v>0.06922665988550221</v>
@@ -11532,7 +11532,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M86" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.08000895679896169</v>
       </c>
     </row>
     <row r="87">
@@ -11561,7 +11561,7 @@
         <v>0.0626537433426875</v>
       </c>
       <c r="I87" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J87" t="n">
         <v>0.06562298159890657</v>
@@ -11573,7 +11573,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M87" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.08000895679896169</v>
       </c>
     </row>
     <row r="88">
@@ -11602,7 +11602,7 @@
         <v>0.05577711297580717</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J88" t="n">
         <v>0.06201930331231094</v>
@@ -11614,7 +11614,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="89">
@@ -11643,7 +11643,7 @@
         <v>0.04890048260892683</v>
       </c>
       <c r="I89" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J89" t="n">
         <v>0.0584156250257153</v>
@@ -11655,7 +11655,7 @@
         <v>0.06478882042020218</v>
       </c>
       <c r="M89" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="90">
@@ -11684,7 +11684,7 @@
         <v>0.0420238522420465</v>
       </c>
       <c r="I90" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J90" t="n">
         <v>0.05481194673911966</v>
@@ -11696,7 +11696,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="91">
@@ -11725,7 +11725,7 @@
         <v>0.08264690940935812</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J91" t="n">
         <v>0.07357810141656644</v>
@@ -11737,7 +11737,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.08213331809826105</v>
       </c>
     </row>
     <row r="92">
@@ -11766,7 +11766,7 @@
         <v>0.07577027904247778</v>
       </c>
       <c r="I92" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J92" t="n">
         <v>0.06997442312997081</v>
@@ -11778,7 +11778,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M92" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09636650753076684</v>
       </c>
     </row>
     <row r="93">
@@ -11807,7 +11807,7 @@
         <v>0.06889364867559745</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J93" t="n">
         <v>0.06637074484337517</v>
@@ -11819,7 +11819,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M93" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.08000895679896169</v>
       </c>
     </row>
     <row r="94">
@@ -11848,7 +11848,7 @@
         <v>0.06201701830871711</v>
       </c>
       <c r="I94" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J94" t="n">
         <v>0.06276706655677954</v>
@@ -11860,7 +11860,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M94" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.08000895679896169</v>
       </c>
     </row>
     <row r="95">
@@ -11889,7 +11889,7 @@
         <v>0.05514038794183677</v>
       </c>
       <c r="I95" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J95" t="n">
         <v>0.05916338827018389</v>
@@ -11901,7 +11901,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M95" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="96">
@@ -11930,7 +11930,7 @@
         <v>0.04826375757495643</v>
       </c>
       <c r="I96" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J96" t="n">
         <v>0.05555970998358826</v>
@@ -11942,7 +11942,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M96" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06365140606715655</v>
       </c>
     </row>
     <row r="97">
@@ -11971,7 +11971,7 @@
         <v>0.0413871272080761</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J97" t="n">
         <v>0.05195603169699262</v>
@@ -11983,7 +11983,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M97" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04729385533535142</v>
       </c>
     </row>
     <row r="98">
@@ -12012,7 +12012,7 @@
         <v>0.08888681474226805</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J98" t="n">
         <v>0.07432586466103504</v>
@@ -12024,7 +12024,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M98" t="n">
-        <v>0.06892279131303446</v>
+        <v>0.0708127208873105</v>
       </c>
     </row>
     <row r="99">
@@ -12053,7 +12053,7 @@
         <v>0.07513355400850738</v>
       </c>
       <c r="I99" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J99" t="n">
         <v>0.06711850808784377</v>
@@ -12065,7 +12065,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06868835958801113</v>
       </c>
     </row>
     <row r="100">
@@ -12094,7 +12094,7 @@
         <v>0.06825692364162704</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J100" t="n">
         <v>0.06351482980124812</v>
@@ -12106,7 +12106,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M100" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.05233080885620599</v>
       </c>
     </row>
     <row r="101">
@@ -12135,7 +12135,7 @@
         <v>0.0613802932747467</v>
       </c>
       <c r="I101" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J101" t="n">
         <v>0.05991115151465249</v>
@@ -12147,7 +12147,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M101" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.05233080885620599</v>
       </c>
     </row>
     <row r="102">
@@ -12176,7 +12176,7 @@
         <v>0.05450366290786637</v>
       </c>
       <c r="I102" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J102" t="n">
         <v>0.05630747322805685</v>
@@ -12188,7 +12188,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03597325812440085</v>
       </c>
     </row>
     <row r="103">
@@ -12217,7 +12217,7 @@
         <v>0.04762703254098603</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J103" t="n">
         <v>0.05270379494146121</v>
@@ -12229,7 +12229,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03597325812440085</v>
       </c>
     </row>
     <row r="104">
@@ -12258,7 +12258,7 @@
         <v>0.0407504021741057</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J104" t="n">
         <v>0.04910011665486558</v>
@@ -12270,7 +12270,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.01961570739259572</v>
       </c>
     </row>
     <row r="105">
@@ -12311,7 +12311,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03036932874080085</v>
       </c>
     </row>
     <row r="106">
@@ -12340,7 +12340,7 @@
         <v>0.05959746317962959</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J106" t="n">
         <v>0.06758698626510119</v>
@@ -12352,7 +12352,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M106" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04672687947260598</v>
       </c>
     </row>
     <row r="107">
@@ -12381,7 +12381,7 @@
         <v>0.05272083281274925</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J107" t="n">
         <v>0.06398330797850557</v>
@@ -12393,7 +12393,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="108">
@@ -12422,7 +12422,7 @@
         <v>0.0458442024458689</v>
       </c>
       <c r="I108" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J108" t="n">
         <v>0.06037962969190992</v>
@@ -12434,7 +12434,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M108" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="109">
@@ -12463,7 +12463,7 @@
         <v>0.06583736851253952</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J109" t="n">
         <v>0.06833474950956979</v>
@@ -12475,7 +12475,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M109" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06308443020441112</v>
       </c>
     </row>
     <row r="110">
@@ -12504,7 +12504,7 @@
         <v>0.05208410777877884</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J110" t="n">
         <v>0.06112739293637852</v>
@@ -12516,7 +12516,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M110" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="111">
@@ -12545,7 +12545,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I111" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J111" t="n">
         <v>0.05752371464978288</v>
@@ -12557,7 +12557,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="112">
@@ -12586,7 +12586,7 @@
         <v>0.07207727384544944</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J112" t="n">
         <v>0.06908251275403839</v>
@@ -12598,7 +12598,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M112" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06308443020441112</v>
       </c>
     </row>
     <row r="113">
@@ -12627,7 +12627,7 @@
         <v>0.05832401311168878</v>
       </c>
       <c r="I113" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J113" t="n">
         <v>0.06187515618084711</v>
@@ -12639,7 +12639,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M113" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="114">
@@ -12668,7 +12668,7 @@
         <v>0.05144738274480844</v>
       </c>
       <c r="I114" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J114" t="n">
         <v>0.05827147789425147</v>
@@ -12680,7 +12680,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M114" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="115">
@@ -12709,7 +12709,7 @@
         <v>0.0445707523779281</v>
       </c>
       <c r="I115" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J115" t="n">
         <v>0.05466779960765584</v>
@@ -12721,7 +12721,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="116">
@@ -12750,7 +12750,7 @@
         <v>0.07831717917835938</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J116" t="n">
         <v>0.06983027599850698</v>
@@ -12762,7 +12762,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.07944198093621627</v>
       </c>
     </row>
     <row r="117">
@@ -12791,7 +12791,7 @@
         <v>0.07144054881147906</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J117" t="n">
         <v>0.06622659771191135</v>
@@ -12803,7 +12803,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M117" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="118">
@@ -12832,7 +12832,7 @@
         <v>0.06456391844459872</v>
       </c>
       <c r="I118" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J118" t="n">
         <v>0.06262291942531571</v>
@@ -12844,7 +12844,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M118" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="119">
@@ -12873,7 +12873,7 @@
         <v>0.05768728807771838</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J119" t="n">
         <v>0.05901924113872007</v>
@@ -12885,7 +12885,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M119" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="120">
@@ -12914,7 +12914,7 @@
         <v>0.05081065771083804</v>
       </c>
       <c r="I120" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J120" t="n">
         <v>0.05541556285212443</v>
@@ -12926,7 +12926,7 @@
         <v>0.06478882042020218</v>
       </c>
       <c r="M120" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="121">
@@ -12955,7 +12955,7 @@
         <v>0.0439340273439577</v>
       </c>
       <c r="I121" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J121" t="n">
         <v>0.05181188456552879</v>
@@ -12967,7 +12967,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="122">
@@ -12996,7 +12996,7 @@
         <v>0.08455708451126932</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J122" t="n">
         <v>0.07057803924297558</v>
@@ -13008,7 +13008,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M122" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.07944198093621627</v>
       </c>
     </row>
     <row r="123">
@@ -13037,7 +13037,7 @@
         <v>0.07768045414438898</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J123" t="n">
         <v>0.06697436095637993</v>
@@ -13049,7 +13049,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M123" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="124">
@@ -13078,7 +13078,7 @@
         <v>0.07080382377750866</v>
       </c>
       <c r="I124" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J124" t="n">
         <v>0.06337068266978431</v>
@@ -13090,7 +13090,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M124" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="125">
@@ -13119,7 +13119,7 @@
         <v>0.06392719341062832</v>
       </c>
       <c r="I125" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J125" t="n">
         <v>0.05976700438318866</v>
@@ -13131,7 +13131,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M125" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="126">
@@ -13160,7 +13160,7 @@
         <v>0.05705056304374798</v>
       </c>
       <c r="I126" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J126" t="n">
         <v>0.05616332609659302</v>
@@ -13172,7 +13172,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M126" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="127">
@@ -13201,7 +13201,7 @@
         <v>0.05017393267686764</v>
       </c>
       <c r="I127" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J127" t="n">
         <v>0.05255964780999739</v>
@@ -13213,7 +13213,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M127" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="128">
@@ -13242,7 +13242,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J128" t="n">
         <v>0.04895596952340175</v>
@@ -13254,7 +13254,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="129">
@@ -13283,7 +13283,7 @@
         <v>0.09079698984417925</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J129" t="n">
         <v>0.07132580248744418</v>
@@ -13295,7 +13295,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M129" t="n">
-        <v>0.09807820199804247</v>
+        <v>0.0957995316680214</v>
       </c>
     </row>
     <row r="130">
@@ -13324,7 +13324,7 @@
         <v>0.08392035947729892</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J130" t="n">
         <v>0.06772212420084854</v>
@@ -13336,7 +13336,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M130" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="131">
@@ -13365,7 +13365,7 @@
         <v>0.07704372911041858</v>
       </c>
       <c r="I131" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J131" t="n">
         <v>0.06411844591425289</v>
@@ -13377,7 +13377,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M131" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="132">
@@ -13406,7 +13406,7 @@
         <v>0.07016709874353826</v>
       </c>
       <c r="I132" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J132" t="n">
         <v>0.06051476762765726</v>
@@ -13418,7 +13418,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M132" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="133">
@@ -13447,7 +13447,7 @@
         <v>0.06329046837665792</v>
       </c>
       <c r="I133" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J133" t="n">
         <v>0.05691108934106162</v>
@@ -13459,7 +13459,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M133" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="134">
@@ -13488,7 +13488,7 @@
         <v>0.05641383800977758</v>
       </c>
       <c r="I134" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J134" t="n">
         <v>0.05330741105446598</v>
@@ -13500,7 +13500,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="135">
@@ -13529,7 +13529,7 @@
         <v>0.04953720764289724</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J135" t="n">
         <v>0.04970373276787034</v>
@@ -13541,7 +13541,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="136">
@@ -13570,7 +13570,7 @@
         <v>0.0426605772760169</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J136" t="n">
         <v>0.04610005448127471</v>
@@ -13582,7 +13582,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="137">
@@ -13611,7 +13611,7 @@
         <v>0.09703689517708919</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J137" t="n">
         <v>0.07207356573191277</v>
@@ -13623,7 +13623,7 @@
         <v>0.03574555609390465</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06892279131303446</v>
+        <v>0.06812138372526569</v>
       </c>
     </row>
     <row r="138">
@@ -13652,7 +13652,7 @@
         <v>0.08328363444332852</v>
       </c>
       <c r="I138" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J138" t="n">
         <v>0.06486620915872149</v>
@@ -13664,7 +13664,7 @@
         <v>0.04021375060564273</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06599702242596633</v>
       </c>
     </row>
     <row r="139">
@@ -13693,7 +13693,7 @@
         <v>0.07640700407644818</v>
       </c>
       <c r="I139" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J139" t="n">
         <v>0.06126253087212586</v>
@@ -13705,7 +13705,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06599702242596633</v>
       </c>
     </row>
     <row r="140">
@@ -13734,7 +13734,7 @@
         <v>0.06953037370956786</v>
       </c>
       <c r="I140" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J140" t="n">
         <v>0.05765885258553022</v>
@@ -13746,7 +13746,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M140" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.0496394716941612</v>
       </c>
     </row>
     <row r="141">
@@ -13775,7 +13775,7 @@
         <v>0.0626537433426875</v>
       </c>
       <c r="I141" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J141" t="n">
         <v>0.05405517429893458</v>
@@ -13787,7 +13787,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M141" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.0496394716941612</v>
       </c>
     </row>
     <row r="142">
@@ -13816,7 +13816,7 @@
         <v>0.05577711297580717</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J142" t="n">
         <v>0.05045149601233894</v>
@@ -13828,7 +13828,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M142" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03328192096235606</v>
       </c>
     </row>
     <row r="143">
@@ -13857,7 +13857,7 @@
         <v>0.04890048260892683</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J143" t="n">
         <v>0.0468478177257433</v>
@@ -13869,7 +13869,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M143" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03328192096235606</v>
       </c>
     </row>
     <row r="144">
@@ -13898,7 +13898,7 @@
         <v>0.0420238522420465</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1400494637018471</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J144" t="n">
         <v>0.04324413943914766</v>
@@ -13910,7 +13910,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.01692437023055092</v>
       </c>
     </row>
     <row r="145">
@@ -13951,7 +13951,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M145" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.03036932874080085</v>
       </c>
     </row>
     <row r="146">
@@ -13980,7 +13980,7 @@
         <v>0.05526773294863085</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J146" t="n">
         <v>0.06383916084704173</v>
@@ -13992,7 +13992,7 @@
         <v>0.0826615984671545</v>
       </c>
       <c r="M146" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04672687947260598</v>
       </c>
     </row>
     <row r="147">
@@ -14021,7 +14021,7 @@
         <v>0.04839110258175051</v>
       </c>
       <c r="I147" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J147" t="n">
         <v>0.06023548256044609</v>
@@ -14033,7 +14033,7 @@
         <v>0.08489569572302354</v>
       </c>
       <c r="M147" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="148">
@@ -14062,7 +14062,7 @@
         <v>0.06150763828154079</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J148" t="n">
         <v>0.06458692409151033</v>
@@ -14074,7 +14074,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M148" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04672687947260598</v>
       </c>
     </row>
     <row r="149">
@@ -14103,7 +14103,7 @@
         <v>0.04775437754778011</v>
       </c>
       <c r="I149" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J149" t="n">
         <v>0.05737956751831905</v>
@@ -14115,7 +14115,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M149" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="150">
@@ -14144,7 +14144,7 @@
         <v>0.06774754361445072</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J150" t="n">
         <v>0.06533468733597891</v>
@@ -14156,7 +14156,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06308443020441112</v>
       </c>
     </row>
     <row r="151">
@@ -14185,7 +14185,7 @@
         <v>0.05399428288069005</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J151" t="n">
         <v>0.05812733076278765</v>
@@ -14197,7 +14197,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="152">
@@ -14226,7 +14226,7 @@
         <v>0.04711765251380971</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J152" t="n">
         <v>0.05452365247619201</v>
@@ -14238,7 +14238,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M152" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="153">
@@ -14267,7 +14267,7 @@
         <v>0.07398744894736065</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J153" t="n">
         <v>0.06608245058044752</v>
@@ -14279,7 +14279,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06308443020441112</v>
       </c>
     </row>
     <row r="154">
@@ -14308,7 +14308,7 @@
         <v>0.06023418821359998</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J154" t="n">
         <v>0.05887509400725624</v>
@@ -14320,7 +14320,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="155">
@@ -14349,7 +14349,7 @@
         <v>0.05335755784671965</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J155" t="n">
         <v>0.0552714157206606</v>
@@ -14361,7 +14361,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="156">
@@ -14390,7 +14390,7 @@
         <v>0.04648092747983931</v>
       </c>
       <c r="I156" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J156" t="n">
         <v>0.05166773743406497</v>
@@ -14402,7 +14402,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M156" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="157">
@@ -14431,7 +14431,7 @@
         <v>0.08022735428027059</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J157" t="n">
         <v>0.06683021382491612</v>
@@ -14443,7 +14443,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M157" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.07944198093621627</v>
       </c>
     </row>
     <row r="158">
@@ -14472,7 +14472,7 @@
         <v>0.07335072391339025</v>
       </c>
       <c r="I158" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J158" t="n">
         <v>0.06322653553832047</v>
@@ -14484,7 +14484,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="159">
@@ -14513,7 +14513,7 @@
         <v>0.06647409354650992</v>
       </c>
       <c r="I159" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J159" t="n">
         <v>0.05962285725172484</v>
@@ -14525,7 +14525,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="160">
@@ -14554,7 +14554,7 @@
         <v>0.05959746317962959</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J160" t="n">
         <v>0.0560191789651292</v>
@@ -14566,7 +14566,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="161">
@@ -14595,7 +14595,7 @@
         <v>0.05272083281274925</v>
       </c>
       <c r="I161" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J161" t="n">
         <v>0.05241550067853356</v>
@@ -14607,7 +14607,7 @@
         <v>0.06478882042020218</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="162">
@@ -14636,7 +14636,7 @@
         <v>0.0458442024458689</v>
       </c>
       <c r="I162" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J162" t="n">
         <v>0.04881182239193792</v>
@@ -14648,7 +14648,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M162" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="163">
@@ -14677,7 +14677,7 @@
         <v>0.08646725961318052</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J163" t="n">
         <v>0.0675779770693847</v>
@@ -14689,7 +14689,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.07944198093621627</v>
       </c>
     </row>
     <row r="164">
@@ -14718,7 +14718,7 @@
         <v>0.07959062924630018</v>
       </c>
       <c r="I164" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J164" t="n">
         <v>0.06397429878278907</v>
@@ -14730,7 +14730,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M164" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="165">
@@ -14759,7 +14759,7 @@
         <v>0.07271399887941984</v>
       </c>
       <c r="I165" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J165" t="n">
         <v>0.06037062049619343</v>
@@ -14771,7 +14771,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="166">
@@ -14800,7 +14800,7 @@
         <v>0.06583736851253952</v>
       </c>
       <c r="I166" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J166" t="n">
         <v>0.05676694220959779</v>
@@ -14812,7 +14812,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="167">
@@ -14841,7 +14841,7 @@
         <v>0.05896073814565918</v>
       </c>
       <c r="I167" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J167" t="n">
         <v>0.05316326392300215</v>
@@ -14853,7 +14853,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M167" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="168">
@@ -14882,7 +14882,7 @@
         <v>0.05208410777877884</v>
       </c>
       <c r="I168" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J168" t="n">
         <v>0.04955958563640652</v>
@@ -14894,7 +14894,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M168" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="169">
@@ -14923,7 +14923,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I169" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J169" t="n">
         <v>0.04595590734981088</v>
@@ -14935,7 +14935,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M169" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="170">
@@ -14964,7 +14964,7 @@
         <v>0.09270716494609045</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J170" t="n">
         <v>0.0683257403138533</v>
@@ -14976,7 +14976,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09807820199804247</v>
+        <v>0.0957995316680214</v>
       </c>
     </row>
     <row r="171">
@@ -15005,7 +15005,7 @@
         <v>0.08583053457921012</v>
       </c>
       <c r="I171" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J171" t="n">
         <v>0.06472206202725767</v>
@@ -15017,7 +15017,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M171" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="172">
@@ -15046,7 +15046,7 @@
         <v>0.07895390421232978</v>
       </c>
       <c r="I172" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J172" t="n">
         <v>0.06111838374066203</v>
@@ -15058,7 +15058,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M172" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="173">
@@ -15087,7 +15087,7 @@
         <v>0.07207727384544944</v>
       </c>
       <c r="I173" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J173" t="n">
         <v>0.05751470545406639</v>
@@ -15099,7 +15099,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="174">
@@ -15128,7 +15128,7 @@
         <v>0.06520064347856912</v>
       </c>
       <c r="I174" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J174" t="n">
         <v>0.05391102716747075</v>
@@ -15140,7 +15140,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="175">
@@ -15169,7 +15169,7 @@
         <v>0.05832401311168878</v>
       </c>
       <c r="I175" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J175" t="n">
         <v>0.05030734888087511</v>
@@ -15181,7 +15181,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M175" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="176">
@@ -15210,7 +15210,7 @@
         <v>0.05144738274480844</v>
       </c>
       <c r="I176" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J176" t="n">
         <v>0.04670367059427947</v>
@@ -15222,7 +15222,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M176" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="177">
@@ -15251,7 +15251,7 @@
         <v>0.0445707523779281</v>
       </c>
       <c r="I177" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J177" t="n">
         <v>0.04309999230768383</v>
@@ -15263,7 +15263,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M177" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="178">
@@ -15292,7 +15292,7 @@
         <v>0.0989470702790004</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J178" t="n">
         <v>0.0690735035583219</v>
@@ -15304,7 +15304,7 @@
         <v>0.03574555609390465</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09807820199804247</v>
+        <v>0.0957995316680214</v>
       </c>
     </row>
     <row r="179">
@@ -15333,7 +15333,7 @@
         <v>0.08519380954523972</v>
       </c>
       <c r="I179" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J179" t="n">
         <v>0.06186614698513062</v>
@@ -15345,7 +15345,7 @@
         <v>0.04021375060564273</v>
       </c>
       <c r="M179" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="180">
@@ -15374,7 +15374,7 @@
         <v>0.07831717917835938</v>
       </c>
       <c r="I180" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J180" t="n">
         <v>0.05826246869853499</v>
@@ -15386,7 +15386,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M180" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09367517036872204</v>
       </c>
     </row>
     <row r="181">
@@ -15415,7 +15415,7 @@
         <v>0.07144054881147906</v>
       </c>
       <c r="I181" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J181" t="n">
         <v>0.05465879041193935</v>
@@ -15427,7 +15427,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="182">
@@ -15456,7 +15456,7 @@
         <v>0.06456391844459872</v>
       </c>
       <c r="I182" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J182" t="n">
         <v>0.05105511212534371</v>
@@ -15468,7 +15468,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M182" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.07731761963691691</v>
       </c>
     </row>
     <row r="183">
@@ -15497,7 +15497,7 @@
         <v>0.05768728807771838</v>
       </c>
       <c r="I183" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J183" t="n">
         <v>0.04745143383874807</v>
@@ -15509,7 +15509,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M183" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="184">
@@ -15538,7 +15538,7 @@
         <v>0.05081065771083804</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J184" t="n">
         <v>0.04384775555215243</v>
@@ -15550,7 +15550,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M184" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.06096006890511176</v>
       </c>
     </row>
     <row r="185">
@@ -15579,7 +15579,7 @@
         <v>0.0439340273439577</v>
       </c>
       <c r="I185" t="n">
-        <v>0.1400494637018471</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J185" t="n">
         <v>0.04024407726555679</v>
@@ -15591,7 +15591,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M185" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04460251817330662</v>
       </c>
     </row>
     <row r="186">
@@ -15620,7 +15620,7 @@
         <v>0.1051869756119103</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J186" t="n">
         <v>0.06982126680279049</v>
@@ -15632,7 +15632,7 @@
         <v>0.02904326432629753</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08615348914129307</v>
+        <v>0.08447893445707083</v>
       </c>
     </row>
     <row r="187">
@@ -15661,7 +15661,7 @@
         <v>0.09831034524502999</v>
       </c>
       <c r="I187" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J187" t="n">
         <v>0.06621758851619486</v>
@@ -15673,7 +15673,7 @@
         <v>0.03127736158216657</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08391556718785992</v>
+        <v>0.08235457315777148</v>
       </c>
     </row>
     <row r="188">
@@ -15702,7 +15702,7 @@
         <v>0.09143371487814965</v>
       </c>
       <c r="I188" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J188" t="n">
         <v>0.06261391022959921</v>
@@ -15714,7 +15714,7 @@
         <v>0.03351145883803561</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08391556718785992</v>
+        <v>0.08235457315777148</v>
       </c>
     </row>
     <row r="189">
@@ -15743,7 +15743,7 @@
         <v>0.08455708451126932</v>
       </c>
       <c r="I189" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J189" t="n">
         <v>0.05901023194300358</v>
@@ -15755,7 +15755,7 @@
         <v>0.03574555609390465</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06599702242596633</v>
       </c>
     </row>
     <row r="190">
@@ -15784,7 +15784,7 @@
         <v>0.07768045414438898</v>
       </c>
       <c r="I190" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J190" t="n">
         <v>0.05540655365640794</v>
@@ -15796,7 +15796,7 @@
         <v>0.03797965334977369</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06599702242596633</v>
       </c>
     </row>
     <row r="191">
@@ -15825,7 +15825,7 @@
         <v>0.07080382377750866</v>
       </c>
       <c r="I191" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J191" t="n">
         <v>0.0518028753698123</v>
@@ -15837,7 +15837,7 @@
         <v>0.04021375060564273</v>
       </c>
       <c r="M191" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.0496394716941612</v>
       </c>
     </row>
     <row r="192">
@@ -15866,7 +15866,7 @@
         <v>0.06392719341062832</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J192" t="n">
         <v>0.04819919708321667</v>
@@ -15878,7 +15878,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M192" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.0496394716941612</v>
       </c>
     </row>
     <row r="193">
@@ -15907,7 +15907,7 @@
         <v>0.05705056304374798</v>
       </c>
       <c r="I193" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J193" t="n">
         <v>0.04459551879662103</v>
@@ -15919,7 +15919,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M193" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03328192096235606</v>
       </c>
     </row>
     <row r="194">
@@ -15948,7 +15948,7 @@
         <v>0.05017393267686764</v>
       </c>
       <c r="I194" t="n">
-        <v>0.1400494637018471</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J194" t="n">
         <v>0.04099184051002539</v>
@@ -15960,7 +15960,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M194" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03328192096235606</v>
       </c>
     </row>
     <row r="195">
@@ -15989,7 +15989,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I195" t="n">
-        <v>0.157555646664578</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J195" t="n">
         <v>0.03738816222342975</v>
@@ -16001,7 +16001,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.01692437023055092</v>
       </c>
     </row>
     <row r="196">
@@ -16042,7 +16042,7 @@
         <v>0.08936389023476163</v>
       </c>
       <c r="M196" t="n">
-        <v>0.02915557539553671</v>
+        <v>0.0276781479427557</v>
       </c>
     </row>
     <row r="197">
@@ -16071,7 +16071,7 @@
         <v>0.05717790805054206</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J197" t="n">
         <v>0.06083909867345087</v>
@@ -16083,7 +16083,7 @@
         <v>0.0826615984671545</v>
       </c>
       <c r="M197" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04403554231056118</v>
       </c>
     </row>
     <row r="198">
@@ -16112,7 +16112,7 @@
         <v>0.05030127768366172</v>
       </c>
       <c r="I198" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.01074461628141577</v>
       </c>
       <c r="J198" t="n">
         <v>0.05723542038685522</v>
@@ -16124,7 +16124,7 @@
         <v>0.08489569572302354</v>
       </c>
       <c r="M198" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="199">
@@ -16153,7 +16153,7 @@
         <v>0.063417813383452</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J199" t="n">
         <v>0.06158686191791946</v>
@@ -16165,7 +16165,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M199" t="n">
-        <v>0.04638610851326662</v>
+        <v>0.04403554231056118</v>
       </c>
     </row>
     <row r="200">
@@ -16194,7 +16194,7 @@
         <v>0.05654118301657166</v>
       </c>
       <c r="I200" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J200" t="n">
         <v>0.05798318363132382</v>
@@ -16206,7 +16206,7 @@
         <v>0.07819340395541642</v>
       </c>
       <c r="M200" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="201">
@@ -16235,7 +16235,7 @@
         <v>0.04966455264969132</v>
       </c>
       <c r="I201" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.02148923256283155</v>
       </c>
       <c r="J201" t="n">
         <v>0.05437950534472819</v>
@@ -16247,7 +16247,7 @@
         <v>0.08042750121128546</v>
       </c>
       <c r="M201" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="202">
@@ -16276,7 +16276,7 @@
         <v>0.06965771871636194</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J202" t="n">
         <v>0.06233462516238805</v>
@@ -16288,7 +16288,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M202" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06039309304236633</v>
       </c>
     </row>
     <row r="203">
@@ -16317,7 +16317,7 @@
         <v>0.05590445798260125</v>
       </c>
       <c r="I203" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J203" t="n">
         <v>0.05512726858919678</v>
@@ -16329,7 +16329,7 @@
         <v>0.07372520944367833</v>
       </c>
       <c r="M203" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="204">
@@ -16358,7 +16358,7 @@
         <v>0.04902782761572091</v>
       </c>
       <c r="I204" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.03223384884424732</v>
       </c>
       <c r="J204" t="n">
         <v>0.05152359030260114</v>
@@ -16370,7 +16370,7 @@
         <v>0.07595930669954738</v>
       </c>
       <c r="M204" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="205">
@@ -16399,7 +16399,7 @@
         <v>0.07589762404927186</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J205" t="n">
         <v>0.06308238840685665</v>
@@ -16411,7 +16411,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M205" t="n">
-        <v>0.06361680634152524</v>
+        <v>0.06039309304236633</v>
       </c>
     </row>
     <row r="206">
@@ -16440,7 +16440,7 @@
         <v>0.06214436331551119</v>
       </c>
       <c r="I206" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J206" t="n">
         <v>0.05587503183366537</v>
@@ -16452,7 +16452,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M206" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="207">
@@ -16481,7 +16481,7 @@
         <v>0.05526773294863085</v>
       </c>
       <c r="I207" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J207" t="n">
         <v>0.05227135354706974</v>
@@ -16493,7 +16493,7 @@
         <v>0.06925701493194025</v>
       </c>
       <c r="M207" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="208">
@@ -16522,7 +16522,7 @@
         <v>0.04839110258175051</v>
       </c>
       <c r="I208" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0429784651256631</v>
       </c>
       <c r="J208" t="n">
         <v>0.0486676752604741</v>
@@ -16534,7 +16534,7 @@
         <v>0.07149111218780931</v>
       </c>
       <c r="M208" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="209">
@@ -16563,7 +16563,7 @@
         <v>0.0821375293821818</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J209" t="n">
         <v>0.06383015165132525</v>
@@ -16575,7 +16575,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M209" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.07675064377417147</v>
       </c>
     </row>
     <row r="210">
@@ -16604,7 +16604,7 @@
         <v>0.07526089901530146</v>
       </c>
       <c r="I210" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J210" t="n">
         <v>0.0602264733647296</v>
@@ -16616,7 +16616,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M210" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="211">
@@ -16645,7 +16645,7 @@
         <v>0.06838426864842112</v>
       </c>
       <c r="I211" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J211" t="n">
         <v>0.05662279507813396</v>
@@ -16657,7 +16657,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M211" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="212">
@@ -16686,7 +16686,7 @@
         <v>0.06150763828154079</v>
       </c>
       <c r="I212" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J212" t="n">
         <v>0.05301911679153833</v>
@@ -16698,7 +16698,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M212" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="213">
@@ -16727,7 +16727,7 @@
         <v>0.05463100791466045</v>
       </c>
       <c r="I213" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J213" t="n">
         <v>0.04941543850494269</v>
@@ -16739,7 +16739,7 @@
         <v>0.06478882042020218</v>
       </c>
       <c r="M213" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="214">
@@ -16768,7 +16768,7 @@
         <v>0.04775437754778011</v>
       </c>
       <c r="I214" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.05372308140707887</v>
       </c>
       <c r="J214" t="n">
         <v>0.04581176021834705</v>
@@ -16780,7 +16780,7 @@
         <v>0.06702291767607121</v>
       </c>
       <c r="M214" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="215">
@@ -16809,7 +16809,7 @@
         <v>0.08837743471509173</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J215" t="n">
         <v>0.06457791489579384</v>
@@ -16821,7 +16821,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M215" t="n">
-        <v>0.08084750416978385</v>
+        <v>0.07675064377417147</v>
       </c>
     </row>
     <row r="216">
@@ -16850,7 +16850,7 @@
         <v>0.0815008043482114</v>
       </c>
       <c r="I216" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J216" t="n">
         <v>0.0609742366091982</v>
@@ -16862,7 +16862,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M216" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09098383320667724</v>
       </c>
     </row>
     <row r="217">
@@ -16891,7 +16891,7 @@
         <v>0.07462417398133105</v>
       </c>
       <c r="I217" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J217" t="n">
         <v>0.05737055832260256</v>
@@ -16903,7 +16903,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M217" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="218">
@@ -16932,7 +16932,7 @@
         <v>0.06774754361445072</v>
       </c>
       <c r="I218" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J218" t="n">
         <v>0.05376688003600692</v>
@@ -16944,7 +16944,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M218" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="219">
@@ -16973,7 +16973,7 @@
         <v>0.06087091324757038</v>
       </c>
       <c r="I219" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J219" t="n">
         <v>0.05016320174941128</v>
@@ -16985,7 +16985,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M219" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="220">
@@ -17014,7 +17014,7 @@
         <v>0.05399428288069005</v>
       </c>
       <c r="I220" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J220" t="n">
         <v>0.04655952346281565</v>
@@ -17026,7 +17026,7 @@
         <v>0.0603206259084641</v>
       </c>
       <c r="M220" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="221">
@@ -17055,7 +17055,7 @@
         <v>0.04711765251380971</v>
       </c>
       <c r="I221" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.06446769768849464</v>
       </c>
       <c r="J221" t="n">
         <v>0.04295584517622001</v>
@@ -17067,7 +17067,7 @@
         <v>0.06255472316433314</v>
       </c>
       <c r="M221" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="222">
@@ -17096,7 +17096,7 @@
         <v>0.09461734004800167</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J222" t="n">
         <v>0.06532567814026244</v>
@@ -17108,7 +17108,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M222" t="n">
-        <v>0.09807820199804247</v>
+        <v>0.0931081945059766</v>
       </c>
     </row>
     <row r="223">
@@ -17137,7 +17137,7 @@
         <v>0.08086407931424099</v>
       </c>
       <c r="I223" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J223" t="n">
         <v>0.05811832156707116</v>
@@ -17149,7 +17149,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M223" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09098383320667724</v>
       </c>
     </row>
     <row r="224">
@@ -17178,7 +17178,7 @@
         <v>0.07398744894736065</v>
       </c>
       <c r="I224" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J224" t="n">
         <v>0.05451464328047552</v>
@@ -17190,7 +17190,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M224" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="225">
@@ -17219,7 +17219,7 @@
         <v>0.06711081858048032</v>
       </c>
       <c r="I225" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J225" t="n">
         <v>0.05091096499387988</v>
@@ -17231,7 +17231,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M225" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="226">
@@ -17260,7 +17260,7 @@
         <v>0.06023418821359998</v>
       </c>
       <c r="I226" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J226" t="n">
         <v>0.04730728670728424</v>
@@ -17272,7 +17272,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M226" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="227">
@@ -17301,7 +17301,7 @@
         <v>0.05335755784671965</v>
       </c>
       <c r="I227" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J227" t="n">
         <v>0.0437036084206886</v>
@@ -17313,7 +17313,7 @@
         <v>0.05585243139672601</v>
       </c>
       <c r="M227" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="228">
@@ -17342,7 +17342,7 @@
         <v>0.04648092747983931</v>
       </c>
       <c r="I228" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0752123139699104</v>
       </c>
       <c r="J228" t="n">
         <v>0.04009993013409296</v>
@@ -17354,7 +17354,7 @@
         <v>0.05808652865259506</v>
       </c>
       <c r="M228" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="229">
@@ -17383,7 +17383,7 @@
         <v>0.1008572453809116</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J229" t="n">
         <v>0.06607344138473104</v>
@@ -17395,7 +17395,7 @@
         <v>0.03574555609390465</v>
       </c>
       <c r="M229" t="n">
-        <v>0.09807820199804247</v>
+        <v>0.0931081945059766</v>
       </c>
     </row>
     <row r="230">
@@ -17424,7 +17424,7 @@
         <v>0.08710398464715094</v>
       </c>
       <c r="I230" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J230" t="n">
         <v>0.05886608481153975</v>
@@ -17436,7 +17436,7 @@
         <v>0.04021375060564273</v>
       </c>
       <c r="M230" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09098383320667724</v>
       </c>
     </row>
     <row r="231">
@@ -17465,7 +17465,7 @@
         <v>0.08022735428027059</v>
       </c>
       <c r="I231" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J231" t="n">
         <v>0.05526240652494411</v>
@@ -17477,7 +17477,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M231" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09098383320667724</v>
       </c>
     </row>
     <row r="232">
@@ -17506,7 +17506,7 @@
         <v>0.07335072391339025</v>
       </c>
       <c r="I232" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J232" t="n">
         <v>0.05165872823834848</v>
@@ -17518,7 +17518,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M232" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="233">
@@ -17547,7 +17547,7 @@
         <v>0.06647409354650992</v>
       </c>
       <c r="I233" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J233" t="n">
         <v>0.04805504995175284</v>
@@ -17559,7 +17559,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M233" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="234">
@@ -17588,7 +17588,7 @@
         <v>0.05959746317962959</v>
       </c>
       <c r="I234" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J234" t="n">
         <v>0.0444513716651572</v>
@@ -17600,7 +17600,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M234" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="235">
@@ -17629,7 +17629,7 @@
         <v>0.05272083281274925</v>
       </c>
       <c r="I235" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J235" t="n">
         <v>0.04084769337856156</v>
@@ -17641,7 +17641,7 @@
         <v>0.05138423688498793</v>
       </c>
       <c r="M235" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="236">
@@ -17670,7 +17670,7 @@
         <v>0.0458442024458689</v>
       </c>
       <c r="I236" t="n">
-        <v>0.1400494637018471</v>
+        <v>0.0859569302513262</v>
       </c>
       <c r="J236" t="n">
         <v>0.03724401509196592</v>
@@ -17682,7 +17682,7 @@
         <v>0.05361833414085697</v>
       </c>
       <c r="M236" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="237">
@@ -17711,7 +17711,7 @@
         <v>0.1070971507138215</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J237" t="n">
         <v>0.06682120462919963</v>
@@ -17723,7 +17723,7 @@
         <v>0.02904326432629753</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1153088998263011</v>
+        <v>0.1094657452377817</v>
       </c>
     </row>
     <row r="238">
@@ -17752,7 +17752,7 @@
         <v>0.1002205203469412</v>
       </c>
       <c r="I238" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J238" t="n">
         <v>0.06321752634260398</v>
@@ -17764,7 +17764,7 @@
         <v>0.03127736158216657</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1130711425833966</v>
+        <v>0.1073413839384824</v>
       </c>
     </row>
     <row r="239">
@@ -17793,7 +17793,7 @@
         <v>0.09334388998006087</v>
       </c>
       <c r="I239" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J239" t="n">
         <v>0.05961384805600835</v>
@@ -17805,7 +17805,7 @@
         <v>0.03351145883803561</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1130711425833966</v>
+        <v>0.1073413839384824</v>
       </c>
     </row>
     <row r="240">
@@ -17834,7 +17834,7 @@
         <v>0.08646725961318052</v>
       </c>
       <c r="I240" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J240" t="n">
         <v>0.05601016976941271</v>
@@ -17846,7 +17846,7 @@
         <v>0.03574555609390465</v>
       </c>
       <c r="M240" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09098383320667724</v>
       </c>
     </row>
     <row r="241">
@@ -17875,7 +17875,7 @@
         <v>0.07959062924630018</v>
       </c>
       <c r="I241" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J241" t="n">
         <v>0.05240649148281707</v>
@@ -17887,7 +17887,7 @@
         <v>0.03797965334977369</v>
       </c>
       <c r="M241" t="n">
-        <v>0.095840444755138</v>
+        <v>0.09098383320667724</v>
       </c>
     </row>
     <row r="242">
@@ -17916,7 +17916,7 @@
         <v>0.07271399887941984</v>
       </c>
       <c r="I242" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J242" t="n">
         <v>0.04880281319622143</v>
@@ -17928,7 +17928,7 @@
         <v>0.04021375060564273</v>
       </c>
       <c r="M242" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="243">
@@ -17957,7 +17957,7 @@
         <v>0.06583736851253952</v>
       </c>
       <c r="I243" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J243" t="n">
         <v>0.0451991349096258</v>
@@ -17969,7 +17969,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M243" t="n">
-        <v>0.07860974692687939</v>
+        <v>0.0746262824748721</v>
       </c>
     </row>
     <row r="244">
@@ -17998,7 +17998,7 @@
         <v>0.05896073814565918</v>
       </c>
       <c r="I244" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J244" t="n">
         <v>0.04159545662303016</v>
@@ -18010,7 +18010,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M244" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="245">
@@ -18039,7 +18039,7 @@
         <v>0.05208410777877884</v>
       </c>
       <c r="I245" t="n">
-        <v>0.1400494637018471</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J245" t="n">
         <v>0.03799177833643452</v>
@@ -18051,7 +18051,7 @@
         <v>0.04691604237324985</v>
       </c>
       <c r="M245" t="n">
-        <v>0.06137904909862078</v>
+        <v>0.05826873174306697</v>
       </c>
     </row>
     <row r="246">
@@ -18080,7 +18080,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I246" t="n">
-        <v>0.157555646664578</v>
+        <v>0.09670154653274196</v>
       </c>
       <c r="J246" t="n">
         <v>0.03438810004983888</v>
@@ -18092,7 +18092,7 @@
         <v>0.0491501396291189</v>
       </c>
       <c r="M246" t="n">
-        <v>0.04414835127036216</v>
+        <v>0.04191118101126182</v>
       </c>
     </row>
     <row r="247">
@@ -18121,7 +18121,7 @@
         <v>0.1133370560467315</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J247" t="n">
         <v>0.06756896787366821</v>
@@ -18133,7 +18133,7 @@
         <v>0.02234097255869041</v>
       </c>
       <c r="M247" t="n">
-        <v>0.08615348914129307</v>
+        <v>0.0817877536590257</v>
       </c>
     </row>
     <row r="248">
@@ -18162,7 +18162,7 @@
         <v>0.1064604256798511</v>
       </c>
       <c r="I248" t="n">
-        <v>0.01750618296273089</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J248" t="n">
         <v>0.06396528958707258</v>
@@ -18174,7 +18174,7 @@
         <v>0.02457506981455945</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1011462650161185</v>
+        <v>0.09602078672753182</v>
       </c>
     </row>
     <row r="249">
@@ -18203,7 +18203,7 @@
         <v>0.0995837953129708</v>
       </c>
       <c r="I249" t="n">
-        <v>0.03501236592546178</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J249" t="n">
         <v>0.06036161130047694</v>
@@ -18215,7 +18215,7 @@
         <v>0.02680916707042848</v>
       </c>
       <c r="M249" t="n">
-        <v>0.08391556718785992</v>
+        <v>0.07966323599572668</v>
       </c>
     </row>
     <row r="250">
@@ -18244,7 +18244,7 @@
         <v>0.09270716494609045</v>
       </c>
       <c r="I250" t="n">
-        <v>0.05251854888819266</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J250" t="n">
         <v>0.0567579330138813</v>
@@ -18256,7 +18256,7 @@
         <v>0.02904326432629753</v>
       </c>
       <c r="M250" t="n">
-        <v>0.08391556718785992</v>
+        <v>0.07966323599572668</v>
       </c>
     </row>
     <row r="251">
@@ -18285,7 +18285,7 @@
         <v>0.08583053457921012</v>
       </c>
       <c r="I251" t="n">
-        <v>0.07002473185092356</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J251" t="n">
         <v>0.05315425472728567</v>
@@ -18297,7 +18297,7 @@
         <v>0.03127736158216657</v>
       </c>
       <c r="M251" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06330568526392155</v>
       </c>
     </row>
     <row r="252">
@@ -18326,7 +18326,7 @@
         <v>0.07895390421232978</v>
       </c>
       <c r="I252" t="n">
-        <v>0.08753091481365445</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J252" t="n">
         <v>0.04955057644069003</v>
@@ -18338,7 +18338,7 @@
         <v>0.03351145883803561</v>
       </c>
       <c r="M252" t="n">
-        <v>0.0666848693596013</v>
+        <v>0.06330568526392155</v>
       </c>
     </row>
     <row r="253">
@@ -18367,7 +18367,7 @@
         <v>0.07207727384544944</v>
       </c>
       <c r="I253" t="n">
-        <v>0.1050370977763853</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J253" t="n">
         <v>0.04594689815409439</v>
@@ -18379,7 +18379,7 @@
         <v>0.03574555609390465</v>
       </c>
       <c r="M253" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.0469481345321164</v>
       </c>
     </row>
     <row r="254">
@@ -18408,7 +18408,7 @@
         <v>0.06520064347856912</v>
       </c>
       <c r="I254" t="n">
-        <v>0.1225432807391162</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J254" t="n">
         <v>0.04234321986749875</v>
@@ -18420,7 +18420,7 @@
         <v>0.03797965334977369</v>
       </c>
       <c r="M254" t="n">
-        <v>0.04945417153134268</v>
+        <v>0.0469481345321164</v>
       </c>
     </row>
     <row r="255">
@@ -18449,7 +18449,7 @@
         <v>0.05832401311168878</v>
       </c>
       <c r="I255" t="n">
-        <v>0.1400494637018471</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J255" t="n">
         <v>0.03873954158090311</v>
@@ -18461,7 +18461,7 @@
         <v>0.04021375060564273</v>
       </c>
       <c r="M255" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03059058380031126</v>
       </c>
     </row>
     <row r="256">
@@ -18490,7 +18490,7 @@
         <v>0.05144738274480844</v>
       </c>
       <c r="I256" t="n">
-        <v>0.157555646664578</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J256" t="n">
         <v>0.03513586329430748</v>
@@ -18502,7 +18502,7 @@
         <v>0.04244784786151177</v>
       </c>
       <c r="M256" t="n">
-        <v>0.03222347370308407</v>
+        <v>0.03059058380031126</v>
       </c>
     </row>
     <row r="257">
@@ -18531,7 +18531,7 @@
         <v>0.0445707523779281</v>
       </c>
       <c r="I257" t="n">
-        <v>0.1750618296273089</v>
+        <v>0.1074461628141577</v>
       </c>
       <c r="J257" t="n">
         <v>0.03153218500771184</v>
@@ -18543,7 +18543,7 @@
         <v>0.04468194511738081</v>
       </c>
       <c r="M257" t="n">
-        <v>0.0149928582300898</v>
+        <v>0.01423311125050595</v>
       </c>
     </row>
   </sheetData>
@@ -18697,39 +18697,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7183992602790374</v>
+        <v>0.7467116784382021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7143061700542311</v>
+        <v>0.7382942204155214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7141914648981739</v>
+        <v>0.7348339368992338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7112772452730397</v>
+        <v>0.731364556564709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7102411938035434</v>
+        <v>0.7263496081583648</v>
       </c>
     </row>
     <row r="7">
@@ -18737,87 +18737,87 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7038779134894907</v>
+        <v>0.7257745338445938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7037804677528676</v>
+        <v>0.7237309639947854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>0.694641589761239</v>
+        <v>0.7114787707148026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6942186076389921</v>
+        <v>0.7016264257290691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6850993045559082</v>
+        <v>0.6873928229285259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
-        <v>0.680669602001604</v>
+        <v>0.6849463631541395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6675738511131597</v>
+        <v>0.6831636758648811</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6556833341732408</v>
+        <v>0.6806158868995006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.655111304757774</v>
+        <v>0.6765045618575667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6529139834924239</v>
+        <v>0.6730081407912073</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6528834890434856</v>
+        <v>0.6709870715122298</v>
       </c>
     </row>
     <row r="18">
@@ -18825,191 +18825,191 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.650497746368124</v>
+        <v>0.6707437486518132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6503368547184382</v>
+        <v>0.6700126072805532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6483333749897051</v>
+        <v>0.66911274178577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6452696610893637</v>
+        <v>0.6663732182844799</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6405400729093457</v>
+        <v>0.6662907373937845</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6402373428131396</v>
+        <v>0.6659737704748112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>0.639200871498591</v>
+        <v>0.6631043858053774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6369649103145125</v>
+        <v>0.6622707259789161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6336563802007721</v>
+        <v>0.6594382100813129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6332602317752667</v>
+        <v>0.657731282938386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6318755890835797</v>
+        <v>0.6548839735924684</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6276530393417056</v>
+        <v>0.6533488520536893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" t="n">
-        <v>0.626522693883675</v>
+        <v>0.6489365371976419</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6219061409927108</v>
+        <v>0.6456681264193364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6209882790424986</v>
+        <v>0.6419746817844268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6198249713108256</v>
+        <v>0.6414733992137899</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6190096163488883</v>
+        <v>0.6401297294838443</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6131825043522191</v>
+        <v>0.6374677671643268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6105419576174017</v>
+        <v>0.6347273594046261</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6092371989856991</v>
+        <v>0.630585948983177</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6056992310652018</v>
+        <v>0.626370769072535</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6047274034064951</v>
+        <v>0.6250312051101574</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6041428595754851</v>
+        <v>0.6229274777864144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6039312532946285</v>
+        <v>0.6226278275237249</v>
       </c>
     </row>
     <row r="42">
@@ -19017,71 +19017,71 @@
         <v>22</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6031223745682106</v>
+        <v>0.6217595798119002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6004141752250708</v>
+        <v>0.6200886694813742</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5998824645864578</v>
+        <v>0.6194618004461117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5983928282914729</v>
+        <v>0.6188868530966126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>0.597052215490064</v>
+        <v>0.6185775438576659</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5970243368633232</v>
+        <v>0.6164958477564852</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5950949264589483</v>
+        <v>0.6164076998555834</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5934860052932748</v>
+        <v>0.6163206336697984</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5931940387107926</v>
+        <v>0.6156830293809749</v>
       </c>
     </row>
     <row r="51">
@@ -19089,335 +19089,335 @@
         <v>32</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5921839071825618</v>
+        <v>0.6146292371560681</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5896414937244572</v>
+        <v>0.6145038554685167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5890779146619228</v>
+        <v>0.6143448119899256</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5885561902219004</v>
+        <v>0.6143227160394616</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5863611646183343</v>
+        <v>0.6140888010461021</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5862309988703733</v>
+        <v>0.6138570983656969</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B57" t="n">
-        <v>0.584756470656569</v>
+        <v>0.6131409168945959</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5845650478557558</v>
+        <v>0.6131399843713076</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5826741109204554</v>
+        <v>0.6113451389798367</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5812066297687962</v>
+        <v>0.6099560160928434</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5805749038755306</v>
+        <v>0.6096809224760794</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5803056636249051</v>
+        <v>0.6082749656370819</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B63" t="n">
-        <v>0.578950128746936</v>
+        <v>0.6077459942024089</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5789406794776277</v>
+        <v>0.6074397427861918</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5779064433212348</v>
+        <v>0.6071880408320651</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5778212270276617</v>
+        <v>0.6070670659057406</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5768345533267336</v>
+        <v>0.6069944888968027</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5742094091039535</v>
+        <v>0.6065100069354147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5741645953631895</v>
+        <v>0.6056493600082489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B70" t="n">
-        <v>0.573974438188653</v>
+        <v>0.6046596794660898</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5738255975061779</v>
+        <v>0.6038627383902612</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5729507388904145</v>
+        <v>0.6031825203460559</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5724678821521016</v>
+        <v>0.6023309056637931</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5715248291273252</v>
+        <v>0.6017728949815767</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5704020865004403</v>
+        <v>0.5992473595138267</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5695325573295593</v>
+        <v>0.597898737663332</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5674916350696353</v>
+        <v>0.5977845309059157</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5667312666808567</v>
+        <v>0.5970604519217402</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5651191546261358</v>
+        <v>0.5967451866454274</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5648868829984137</v>
+        <v>0.596464211038406</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5641745112654188</v>
+        <v>0.5960090532787795</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5634370763453077</v>
+        <v>0.5959602076233266</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5622440553436215</v>
+        <v>0.5953398943209109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5622121719188659</v>
+        <v>0.5949353926295975</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5620972244858904</v>
+        <v>0.594854537532602</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5608639734740489</v>
+        <v>0.5938186030851601</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5573769214951667</v>
+        <v>0.592916740415235</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5572740677940597</v>
+        <v>0.5925560378137357</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5553251516998674</v>
+        <v>0.591013985582838</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5541922629575667</v>
+        <v>0.5890892621700986</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B91" t="n">
-        <v>0.553252625890196</v>
+        <v>0.5887213656223422</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5528348346374388</v>
+        <v>0.5860440176348927</v>
       </c>
     </row>
     <row r="93">
@@ -19425,87 +19425,87 @@
         <v>68</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5501845649058634</v>
+        <v>0.5857973901043992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5500950035410621</v>
+        <v>0.5829830115837374</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5487797060599244</v>
+        <v>0.5828460127247242</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5482754641930613</v>
+        <v>0.5766087834447965</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B97" t="n">
-        <v>0.544280995018964</v>
+        <v>0.5763411998718628</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5431873456168719</v>
+        <v>0.5760856842884834</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5389909227296716</v>
+        <v>0.5755221291364655</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5386861196159443</v>
+        <v>0.5702860551794218</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5384466201128362</v>
+        <v>0.5684881966809654</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5344656438607047</v>
+        <v>0.5680996593507031</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5321287829898305</v>
+        <v>0.5671368451524207</v>
       </c>
     </row>
     <row r="104">
@@ -19513,23 +19513,23 @@
         <v>98</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5287791807256017</v>
+        <v>0.5610117775707294</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5267296882316106</v>
+        <v>0.5591391552426639</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5265606970092669</v>
+        <v>0.557536256887444</v>
       </c>
     </row>
     <row r="107">
@@ -19537,63 +19537,63 @@
         <v>18</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5243747445582411</v>
+        <v>0.556072467929554</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5239151149705064</v>
+        <v>0.5534903290829057</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5224262248685564</v>
+        <v>0.5523579445142701</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5216877745298513</v>
+        <v>0.5520187450079911</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="B111" t="n">
-        <v>0.519900793937376</v>
+        <v>0.5498213780526165</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5179035732685345</v>
+        <v>0.5497381802728746</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5175787398155794</v>
+        <v>0.5478213623716339</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5166498263538326</v>
+        <v>0.5468378697994097</v>
       </c>
     </row>
     <row r="115">
@@ -19601,207 +19601,207 @@
         <v>57</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5151842336358102</v>
+        <v>0.5463680593401826</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B116" t="n">
-        <v>0.513515841911575</v>
+        <v>0.545175678180834</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5128844386171445</v>
+        <v>0.544789030794384</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5117478677774412</v>
+        <v>0.5437935068610723</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5106963787083771</v>
+        <v>0.5431540401568924</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B120" t="n">
-        <v>0.509444146482581</v>
+        <v>0.5420203134002904</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="B121" t="n">
-        <v>0.508040220008613</v>
+        <v>0.5417871007911127</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5069221549900443</v>
+        <v>0.5417113966924847</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5065675516009306</v>
+        <v>0.5415471747992918</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5052031988621051</v>
+        <v>0.5410023075625462</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5051076794788886</v>
+        <v>0.5407088805679316</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B126" t="n">
-        <v>0.504581465398515</v>
+        <v>0.5401108567811547</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5040178841360943</v>
+        <v>0.5390952826723359</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5027428015147954</v>
+        <v>0.5377191487874442</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5015298385872327</v>
+        <v>0.537674493511223</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5014494916962385</v>
+        <v>0.5373054960690661</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5002723950901853</v>
+        <v>0.5367986589221703</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5002079168598016</v>
+        <v>0.536260749012675</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4994308032725543</v>
+        <v>0.535380578287091</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4991591980174364</v>
+        <v>0.5333474031122394</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4990749409800717</v>
+        <v>0.533117981439632</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4978772760037328</v>
+        <v>0.533052119720953</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4965815603979142</v>
+        <v>0.5329867978959323</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4953722094477738</v>
+        <v>0.5328644049135921</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4953449771559704</v>
+        <v>0.5326846793817862</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4942967609725952</v>
+        <v>0.5325357058483476</v>
       </c>
     </row>
     <row r="141">
@@ -19809,55 +19809,55 @@
         <v>153</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4942345312136849</v>
+        <v>0.5321761041938807</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4941492157967886</v>
+        <v>0.5314910070162973</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4932996852926694</v>
+        <v>0.5291456605792622</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4930754106485776</v>
+        <v>0.5285472186227349</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4928261634513659</v>
+        <v>0.5283860321747487</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4928172035342818</v>
+        <v>0.5281609672177298</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4913665274799675</v>
+        <v>0.5281576651918599</v>
       </c>
     </row>
     <row r="148">
@@ -19865,111 +19865,111 @@
         <v>218</v>
       </c>
       <c r="B148" t="n">
-        <v>0.490029777258592</v>
+        <v>0.5280639132261729</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B149" t="n">
-        <v>0.489849375933667</v>
+        <v>0.5277398327354857</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4888850010806383</v>
+        <v>0.5275572367150201</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4884983110054059</v>
+        <v>0.5271747431722253</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4879887211979724</v>
+        <v>0.5240849362617763</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4875572388181578</v>
+        <v>0.5240451468749263</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4873715139385852</v>
+        <v>0.523817013171947</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="B155" t="n">
-        <v>0.487367231469935</v>
+        <v>0.5237752601698492</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4870161179863226</v>
+        <v>0.5235034779375042</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4865233524750798</v>
+        <v>0.5232706524842111</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4839257450628759</v>
+        <v>0.5230821151653715</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4822874984090542</v>
+        <v>0.5230597358310662</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B160" t="n">
-        <v>0.480981546409317</v>
+        <v>0.5204133439858375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4809473522092257</v>
+        <v>0.5192000380542736</v>
       </c>
     </row>
     <row r="162">
@@ -19977,135 +19977,135 @@
         <v>158</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4799844174420034</v>
+        <v>0.5188739981152081</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4798613133296511</v>
+        <v>0.5187623882499429</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4794345131073759</v>
+        <v>0.5187041604169064</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4793907225913002</v>
+        <v>0.5186392339539883</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4773714941132572</v>
+        <v>0.5184707154552455</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4762928922682525</v>
+        <v>0.5178797007870862</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4756722210956531</v>
+        <v>0.5170268731270977</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4744488347704142</v>
+        <v>0.51487684679845</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4744087893075872</v>
+        <v>0.514194316007264</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4736520387785527</v>
+        <v>0.5138877248510428</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4734149072075687</v>
+        <v>0.5133498890764028</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4700325668902611</v>
+        <v>0.5127458289979713</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4676968305719922</v>
+        <v>0.5111995541896209</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4663460645212692</v>
+        <v>0.5092786951477907</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4629717985824394</v>
+        <v>0.5089250958424685</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B177" t="n">
-        <v>0.45661356013076</v>
+        <v>0.5044068455032672</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4530304505307406</v>
+        <v>0.5041432822832992</v>
       </c>
     </row>
     <row r="179">
@@ -20113,31 +20113,31 @@
         <v>66</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4490621860352424</v>
+        <v>0.4932652092234266</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4421570852245139</v>
+        <v>0.4805071004987226</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4374616906948954</v>
+        <v>0.4796582428872823</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4322957520482129</v>
+        <v>0.4719156861701247</v>
       </c>
     </row>
     <row r="183">
@@ -20145,87 +20145,87 @@
         <v>250</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4301254119469775</v>
+        <v>0.4705663457483091</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4240051996740096</v>
+        <v>0.4683101020975023</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4198192818131651</v>
+        <v>0.4644453422482001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4185880990613163</v>
+        <v>0.4628369363174373</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4183391285858208</v>
+        <v>0.4601489723722816</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4164027708680756</v>
+        <v>0.4589248613221159</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4120516146101329</v>
+        <v>0.4562196847962725</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4118913797235815</v>
+        <v>0.4506312088651825</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4061826599227661</v>
+        <v>0.4469247958415185</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4061482270575508</v>
+        <v>0.4468270685442595</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4056482295669633</v>
+        <v>0.4465626447211702</v>
       </c>
     </row>
     <row r="194">
@@ -20233,31 +20233,31 @@
         <v>123</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4050164699106776</v>
+        <v>0.4457388753091546</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4037857579155336</v>
+        <v>0.4426005031261167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4008132316847008</v>
+        <v>0.44224804704419</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="B197" t="n">
-        <v>0.398572407139558</v>
+        <v>0.4418734251423593</v>
       </c>
     </row>
     <row r="198">
@@ -20265,303 +20265,303 @@
         <v>157</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3985181433846556</v>
+        <v>0.4416375315956847</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B199" t="n">
-        <v>0.3985173108546379</v>
+        <v>0.4414768746937348</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="B200" t="n">
-        <v>0.3981096685352817</v>
+        <v>0.4410864040627331</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3973374181649123</v>
+        <v>0.4384657654199988</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3972765833778865</v>
+        <v>0.4378720827535551</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3972043577464545</v>
+        <v>0.4375592684578439</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3943096680825402</v>
+        <v>0.4366341415920196</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B205" t="n">
-        <v>0.393322538901431</v>
+        <v>0.4364025421766182</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3923692695000188</v>
+        <v>0.4363683425594284</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3919132709231231</v>
+        <v>0.4363319732185361</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3915946916576931</v>
+        <v>0.433747480787148</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3907669872786199</v>
+        <v>0.4334501422938741</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B210" t="n">
-        <v>0.3905420595783568</v>
+        <v>0.4327463007204947</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="B211" t="n">
-        <v>0.390059218443133</v>
+        <v>0.4326968200314416</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B212" t="n">
-        <v>0.3855536533823729</v>
+        <v>0.4323697024866603</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3853521701315072</v>
+        <v>0.4322592374091422</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3847226084769547</v>
+        <v>0.4320828204945013</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3830599517842992</v>
+        <v>0.4316333393413808</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3827473893963239</v>
+        <v>0.430278962092499</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3821577672390815</v>
+        <v>0.429517459357069</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3807936102404429</v>
+        <v>0.4274497248919292</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B219" t="n">
-        <v>0.379119113673396</v>
+        <v>0.427114030303787</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3783261034821585</v>
+        <v>0.425665116702321</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3776730336003647</v>
+        <v>0.4242406883524577</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3769631774236987</v>
+        <v>0.4236326114590662</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3767924003808935</v>
+        <v>0.4228383001424881</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3760587655771253</v>
+        <v>0.4225616529652226</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3720954439661299</v>
+        <v>0.4210883110024147</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3656336209149174</v>
+        <v>0.4200995989530319</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3625608736937482</v>
+        <v>0.417421312893684</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3410852178388437</v>
+        <v>0.3949947665751073</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3395111267980357</v>
+        <v>0.3905809689461924</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3319707840043635</v>
+        <v>0.3896696530578092</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="B231" t="n">
-        <v>0.329669552492022</v>
+        <v>0.386537750647968</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3296383496834435</v>
+        <v>0.3850339785172927</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3288652602721718</v>
+        <v>0.384892719753559</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="B234" t="n">
-        <v>0.322737966571202</v>
+        <v>0.3707070066219154</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3223519536559522</v>
+        <v>0.3697741646871632</v>
       </c>
     </row>
     <row r="236">
@@ -20569,143 +20569,143 @@
         <v>129</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3204280132476591</v>
+        <v>0.367126260907445</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3151279485591119</v>
+        <v>0.3653699285908669</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3131024209781781</v>
+        <v>0.3622777685163702</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3122871733300122</v>
+        <v>0.3613167558364959</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3106715504107475</v>
+        <v>0.3604356069506882</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3105473257568807</v>
+        <v>0.3596809156665495</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3091190521058792</v>
+        <v>0.3582659998825973</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3083195884719003</v>
+        <v>0.3580497862612594</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3068313176530192</v>
+        <v>0.3580250698101241</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3068108256534028</v>
+        <v>0.357173956688302</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3015103079504456</v>
+        <v>0.3563643119660888</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3014169243435393</v>
+        <v>0.3535395068350886</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3004284503846201</v>
+        <v>0.3512143649662695</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2983593636056984</v>
+        <v>0.3511667956916301</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2968789265386126</v>
+        <v>0.3510162350742829</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B251" t="n">
-        <v>0.2946349585113199</v>
+        <v>0.3505323884533634</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B252" t="n">
-        <v>0.2927597355764989</v>
+        <v>0.3490883933398277</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2894581337723662</v>
+        <v>0.347191887167506</v>
       </c>
     </row>
     <row r="254">
@@ -20713,7 +20713,7 @@
         <v>246</v>
       </c>
       <c r="B254" t="n">
-        <v>0.2750515553919009</v>
+        <v>0.3392795426384513</v>
       </c>
     </row>
     <row r="255">
@@ -20721,7 +20721,7 @@
         <v>235</v>
       </c>
       <c r="B255" t="n">
-        <v>0.2552162443637462</v>
+        <v>0.3150936992584505</v>
       </c>
     </row>
     <row r="256">
@@ -20729,7 +20729,7 @@
         <v>237</v>
       </c>
       <c r="B256" t="n">
-        <v>0.253560376341569</v>
+        <v>0.3106826106477447</v>
       </c>
     </row>
     <row r="257">
@@ -20737,7 +20737,7 @@
         <v>236</v>
       </c>
       <c r="B257" t="n">
-        <v>0.2468608348102112</v>
+        <v>0.3073766621474342</v>
       </c>
     </row>
   </sheetData>

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/28/24</t>
+          <t>08/29/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7991,12 +7991,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Reducción de emisiones de CO2</t>
+          <t>Generación de emisiones de CO2 - Life Cycle Emissions (LCE)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ocupación del terreno</t>
+          <t>Ocupación del terreno -  Land use intensity of electricity (LUIE)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -8055,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0168914144550476</v>
+        <v>0.08214212729566159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01441478246944775</v>
+        <v>0.03322505795995895</v>
       </c>
       <c r="D2" t="n">
         <v>0.0001252687398253716</v>
@@ -8096,10 +8096,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02232000309400928</v>
+        <v>0.07042120984338274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01983124618524024</v>
+        <v>0.08447912147817653</v>
       </c>
       <c r="D3" t="n">
         <v>0.0001010319945814383</v>
@@ -8137,10 +8137,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03485774877132788</v>
+        <v>0.06625507576386858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01306066654049963</v>
+        <v>0.03978805141529308</v>
       </c>
       <c r="D4" t="n">
         <v>7.83351779561784e-05</v>
@@ -8178,10 +8178,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04815720130588345</v>
+        <v>0.08808921731186749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.063270935736624</v>
+        <v>0.03471866067426761</v>
       </c>
       <c r="D5" t="n">
         <v>0.06724701545053563</v>
@@ -8219,10 +8219,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01894172555112585</v>
+        <v>0.0682037544628059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02524770990103272</v>
+        <v>0.07783415395826247</v>
       </c>
       <c r="D6" t="n">
         <v>9.644653236013062e-05</v>
@@ -8260,10 +8260,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03690795290488447</v>
+        <v>0.05794993360966816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01847713025629211</v>
+        <v>0.08439714741359659</v>
       </c>
       <c r="D7" t="n">
         <v>6.164462159932553e-05</v>
@@ -8301,10 +8301,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05020740543944005</v>
+        <v>0.07858460907094739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06868739945241649</v>
+        <v>0.07932753631218248</v>
       </c>
       <c r="D8" t="n">
         <v>0.06481103953589144</v>
@@ -8342,10 +8342,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03147933752529238</v>
+        <v>0.06399807754526803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01170655061155151</v>
+        <v>0.03314308389537902</v>
       </c>
       <c r="D9" t="n">
         <v>7.166737347275351e-05</v>
@@ -8383,10 +8383,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06274501741360658</v>
+        <v>0.07364767619227511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06191681980767588</v>
+        <v>0.03463668660968768</v>
       </c>
       <c r="D10" t="n">
         <v>0.05307461130165239</v>
@@ -8424,10 +8424,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04477879005984795</v>
+        <v>0.08898437547118719</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06182945748967923</v>
+        <v>0.02807369315435355</v>
       </c>
       <c r="D11" t="n">
         <v>0.0773491877050129</v>
@@ -8465,10 +8465,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01894172555112585</v>
+        <v>0.0682037544628059</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03066417361682521</v>
+        <v>0.07783415395826247</v>
       </c>
       <c r="D12" t="n">
         <v>9.644653236013062e-05</v>
@@ -8506,10 +8506,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03690795290488447</v>
+        <v>0.05794993360966816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01712301432734399</v>
+        <v>0.08439714741359659</v>
       </c>
       <c r="D13" t="n">
         <v>6.164462159932553e-05</v>
@@ -8547,10 +8547,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05020740543944005</v>
+        <v>0.07858460907094739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06724592120547171</v>
+        <v>0.07932753631218248</v>
       </c>
       <c r="D14" t="n">
         <v>0.06481103953589144</v>
@@ -8588,10 +8588,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04944556487905101</v>
+        <v>0.05679650531987466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01035243468260338</v>
+        <v>0.03970607735071314</v>
       </c>
       <c r="D15" t="n">
         <v>5.039260758199119e-05</v>
@@ -8629,10 +8629,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06274501741360658</v>
+        <v>0.07364767619227511</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0604753415607311</v>
+        <v>0.03463668660968768</v>
       </c>
       <c r="D16" t="n">
         <v>0.05307461130165239</v>
@@ -8670,10 +8670,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04477879005984795</v>
+        <v>0.08898437547118719</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06038797924273445</v>
+        <v>0.02807369315435355</v>
       </c>
       <c r="D17" t="n">
         <v>0.0773491877050129</v>
@@ -8711,10 +8711,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.015563421267612</v>
+        <v>0.06495130827830373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0360806373326177</v>
+        <v>0.07118896607795976</v>
       </c>
       <c r="D18" t="n">
         <v>8.972110425638607e-05</v>
@@ -8752,10 +8752,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03352954165884899</v>
+        <v>0.05464705597957051</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02253947804313648</v>
+        <v>0.07775195953329388</v>
       </c>
       <c r="D19" t="n">
         <v>5.29581113736148e-05</v>
@@ -8793,10 +8793,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06479548895346729</v>
+        <v>0.06650073803294351</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07274974723926085</v>
+        <v>0.07924556224760253</v>
       </c>
       <c r="D20" t="n">
         <v>0.05154269988232792</v>
@@ -8834,10 +8834,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04682926159970865</v>
+        <v>0.07807131628945101</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0726623849212642</v>
+        <v>0.07268256879226841</v>
       </c>
       <c r="D21" t="n">
         <v>0.07414543968397902</v>
@@ -8875,10 +8875,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05149576901260761</v>
+        <v>0.05038598088315882</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01576889839839587</v>
+        <v>0.084314952988628</v>
       </c>
       <c r="D22" t="n">
         <v>3.775574764588735e-05</v>
@@ -8916,10 +8916,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06479548895346729</v>
+        <v>0.06650073803294351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06589180527652359</v>
+        <v>0.07924556224760253</v>
       </c>
       <c r="D23" t="n">
         <v>0.05154269988232792</v>
@@ -8957,10 +8957,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04682926159970865</v>
+        <v>0.07807131628945101</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06580444295852694</v>
+        <v>0.07268256879226841</v>
       </c>
       <c r="D24" t="n">
         <v>0.07414543968397902</v>
@@ -8998,10 +8998,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04606742103931962</v>
+        <v>0.05400443710463421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008998318753655261</v>
+        <v>0.03306110983079908</v>
       </c>
       <c r="D25" t="n">
         <v>4.214441267692942e-05</v>
@@ -9039,10 +9039,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0593668735738752</v>
+        <v>0.07266942076464469</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05912122563178298</v>
+        <v>0.02799149872938496</v>
       </c>
       <c r="D26" t="n">
         <v>0.05917244301887183</v>
@@ -9080,10 +9080,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0593668735738752</v>
+        <v>0.07266942076464469</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05903386331378633</v>
+        <v>0.02799149872938496</v>
       </c>
       <c r="D27" t="n">
         <v>0.05917244301887183</v>
@@ -9121,10 +9121,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04140064622011657</v>
+        <v>0.09019664044750873</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05894650099578967</v>
+        <v>0.0214285934182063</v>
       </c>
       <c r="D28" t="n">
         <v>0.09103103946873999</v>
@@ -9162,10 +9162,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.015563421267612</v>
+        <v>0.06495130827830373</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04149710104841018</v>
+        <v>0.07118896607795976</v>
       </c>
       <c r="D29" t="n">
         <v>8.972110425638607e-05</v>
@@ -9203,10 +9203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03352954165884899</v>
+        <v>0.05464705597957051</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03472652140366958</v>
+        <v>0.07775195953329388</v>
       </c>
       <c r="D30" t="n">
         <v>5.29581113736148e-05</v>
@@ -9244,10 +9244,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04682926159970865</v>
+        <v>0.07807131628945101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08493679059979395</v>
+        <v>0.07268256879226841</v>
       </c>
       <c r="D31" t="n">
         <v>0.07414543968397902</v>
@@ -9285,10 +9285,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03352954165884899</v>
+        <v>0.05464705597957051</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02795594175892897</v>
+        <v>0.07775195953329388</v>
       </c>
       <c r="D32" t="n">
         <v>5.29581113736148e-05</v>
@@ -9326,10 +9326,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06479548895346729</v>
+        <v>0.06650073803294351</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07816621095505334</v>
+        <v>0.07924556224760253</v>
       </c>
       <c r="D33" t="n">
         <v>0.05154269988232792</v>
@@ -9367,10 +9367,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04682926159970865</v>
+        <v>0.07807131628945101</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07807884863705668</v>
+        <v>0.07268256879226841</v>
       </c>
       <c r="D34" t="n">
         <v>0.07414543968397902</v>
@@ -9408,10 +9408,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05149576901260761</v>
+        <v>0.05038598088315882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02118536211418836</v>
+        <v>0.084314952988628</v>
       </c>
       <c r="D35" t="n">
         <v>3.775574764588735e-05</v>
@@ -9449,10 +9449,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06479548895346729</v>
+        <v>0.06650073803294351</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07130826899231607</v>
+        <v>0.07924556224760253</v>
       </c>
       <c r="D36" t="n">
         <v>0.05154269988232792</v>
@@ -9490,10 +9490,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04682926159970865</v>
+        <v>0.07807131628945101</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07122090667431942</v>
+        <v>0.07268256879226841</v>
       </c>
       <c r="D37" t="n">
         <v>0.07414543968397902</v>
@@ -9531,10 +9531,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05149576901260761</v>
+        <v>0.05038598088315882</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01441478246944775</v>
+        <v>0.084314952988628</v>
       </c>
       <c r="D38" t="n">
         <v>3.775574764588735e-05</v>
@@ -9572,10 +9572,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06479548895346729</v>
+        <v>0.06650073803294351</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06453768934757546</v>
+        <v>0.07924556224760253</v>
       </c>
       <c r="D39" t="n">
         <v>0.05154269988232792</v>
@@ -9613,10 +9613,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06479548895346729</v>
+        <v>0.06650073803294351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06445032702957881</v>
+        <v>0.07924556224760253</v>
       </c>
       <c r="D40" t="n">
         <v>0.05154269988232792</v>
@@ -9654,10 +9654,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04682926159970865</v>
+        <v>0.07807131628945101</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06436296471158215</v>
+        <v>0.07268256879226841</v>
       </c>
       <c r="D41" t="n">
         <v>0.07414543968397902</v>
@@ -9695,10 +9695,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06403364839307825</v>
+        <v>0.05052122885089214</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007644202824707139</v>
+        <v>0.0396241032861332</v>
       </c>
       <c r="D42" t="n">
         <v>3.185408677523444e-05</v>
@@ -9736,10 +9736,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07733310092763382</v>
+        <v>0.064229985783726</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05785447202083151</v>
+        <v>0.03455449218471908</v>
       </c>
       <c r="D43" t="n">
         <v>0.0438324089460763</v>
@@ -9777,10 +9777,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07733310092763382</v>
+        <v>0.064229985783726</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05776710970283486</v>
+        <v>0.03455449218471908</v>
       </c>
       <c r="D44" t="n">
         <v>0.0438324089460763</v>
@@ -9818,10 +9818,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0593668735738752</v>
+        <v>0.07266942076464469</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05767974738483821</v>
+        <v>0.02799149872938496</v>
       </c>
       <c r="D45" t="n">
         <v>0.05917244301887183</v>
@@ -9859,10 +9859,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0593668735738752</v>
+        <v>0.07266942076464469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05759238506684156</v>
+        <v>0.02799149872938496</v>
       </c>
       <c r="D46" t="n">
         <v>0.05917244301887183</v>
@@ -9900,10 +9900,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04140064622011657</v>
+        <v>0.09019664044750873</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0575050227488449</v>
+        <v>0.0214285934182063</v>
       </c>
       <c r="D47" t="n">
         <v>0.09103103946873999</v>
@@ -9941,10 +9941,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01218514372472856</v>
+        <v>0.0597190457977731</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04691356476420268</v>
+        <v>0.0645439985580457</v>
       </c>
       <c r="D48" t="n">
         <v>7.890164319766872e-05</v>
@@ -9982,10 +9982,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03015139781911759</v>
+        <v>0.05029963613539686</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04014298511946206</v>
+        <v>0.07110699201337982</v>
       </c>
       <c r="D49" t="n">
         <v>4.152470822101331e-05</v>
@@ -10023,10 +10023,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09035360376485843</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D50" t="n">
         <v>0.08662821907009766</v>
@@ -10064,10 +10064,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03015139781911759</v>
+        <v>0.05029963613539686</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03337240547472146</v>
+        <v>0.07110699201337982</v>
       </c>
       <c r="D51" t="n">
         <v>4.152470822101331e-05</v>
@@ -10105,10 +10105,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08358267467084583</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D52" t="n">
         <v>0.05727562376043605</v>
@@ -10146,10 +10146,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08349531235284917</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D53" t="n">
         <v>0.08662821907009766</v>
@@ -10187,10 +10187,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04811762517287622</v>
+        <v>0.04699446616686306</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02660182582998084</v>
+        <v>0.07766998546871394</v>
       </c>
       <c r="D54" t="n">
         <v>2.840944696751638e-05</v>
@@ -10228,10 +10228,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07672473270810856</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D55" t="n">
         <v>0.05727562376043605</v>
@@ -10269,10 +10269,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07663737039011191</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D56" t="n">
         <v>0.08662821907009766</v>
@@ -10310,10 +10310,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04811762517287622</v>
+        <v>0.04699446616686306</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01983124618524024</v>
+        <v>0.07766998546871394</v>
       </c>
       <c r="D57" t="n">
         <v>2.840944696751638e-05</v>
@@ -10351,10 +10351,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06995415306336795</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D58" t="n">
         <v>0.05727562376043605</v>
@@ -10392,10 +10392,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0698667907453713</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D59" t="n">
         <v>0.05727562376043605</v>
@@ -10433,10 +10433,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06977942842737465</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D60" t="n">
         <v>0.08662821907009766</v>
@@ -10474,10 +10474,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06608385252663485</v>
+        <v>0.04530902433167789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01306066654049963</v>
+        <v>0.08423297892404807</v>
       </c>
       <c r="D61" t="n">
         <v>2.172147421697961e-05</v>
@@ -10515,10 +10515,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07938330506119042</v>
+        <v>0.05852053485206848</v>
       </c>
       <c r="C62" t="n">
-        <v>0.063270935736624</v>
+        <v>0.0791635881830226</v>
       </c>
       <c r="D62" t="n">
         <v>0.04278040206902283</v>
@@ -10556,10 +10556,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07938330506119042</v>
+        <v>0.05852053485206848</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06318357341862735</v>
+        <v>0.0791635881830226</v>
       </c>
       <c r="D63" t="n">
         <v>0.04278040206902283</v>
@@ -10597,10 +10597,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06309621110063068</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D64" t="n">
         <v>0.05727562376043605</v>
@@ -10638,10 +10638,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06300884878263403</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D65" t="n">
         <v>0.05727562376043605</v>
@@ -10679,10 +10679,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06292148646463738</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D66" t="n">
         <v>0.08662821907009766</v>
@@ -10720,10 +10720,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06065523714704276</v>
+        <v>0.04767681890802609</v>
       </c>
       <c r="C67" t="n">
-        <v>0.006290086895759017</v>
+        <v>0.03297891540583048</v>
       </c>
       <c r="D67" t="n">
         <v>2.345105970774852e-05</v>
@@ -10761,10 +10761,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09192091703535696</v>
+        <v>0.05760302639299625</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05650035609188338</v>
+        <v>0.03447251812013914</v>
       </c>
       <c r="D68" t="n">
         <v>0.03732908231804213</v>
@@ -10802,10 +10802,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07395468968159834</v>
+        <v>0.06255944414837587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05641299377388673</v>
+        <v>0.02790952466480502</v>
       </c>
       <c r="D69" t="n">
         <v>0.04790877900873372</v>
@@ -10843,10 +10843,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07395468968159834</v>
+        <v>0.06255944414837587</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05632563145589008</v>
+        <v>0.02790952466480502</v>
       </c>
       <c r="D70" t="n">
         <v>0.04790877900873372</v>
@@ -10884,10 +10884,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0559884623278397</v>
+        <v>0.07143652474239771</v>
       </c>
       <c r="C71" t="n">
-        <v>0.05623826913789343</v>
+        <v>0.02134657528154863</v>
       </c>
       <c r="D71" t="n">
         <v>0.06685768020715838</v>
@@ -10925,10 +10925,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0559884623278397</v>
+        <v>0.07143652474239771</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05615090681989678</v>
+        <v>0.02134657528154863</v>
       </c>
       <c r="D72" t="n">
         <v>0.06685768020715838</v>
@@ -10966,10 +10966,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03802223497408107</v>
+        <v>0.09193098550266528</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05606354450190012</v>
+        <v>0.01478358182621451</v>
       </c>
       <c r="D73" t="n">
         <v>0.1106049064101534</v>
@@ -11007,10 +11007,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01218514372472856</v>
+        <v>0.0597190457977731</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05233002847999516</v>
+        <v>0.0645439985580457</v>
       </c>
       <c r="D74" t="n">
         <v>7.890164319766872e-05</v>
@@ -11048,10 +11048,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03015139781911759</v>
+        <v>0.05029963613539686</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03878886919051394</v>
+        <v>0.07110699201337982</v>
       </c>
       <c r="D75" t="n">
         <v>4.152470822101331e-05</v>
@@ -11089,10 +11089,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0889994878359103</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D76" t="n">
         <v>0.05727562376043605</v>
@@ -11130,10 +11130,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08891212551791365</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D77" t="n">
         <v>0.08662821907009766</v>
@@ -11171,10 +11171,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04811762517287622</v>
+        <v>0.04699446616686306</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03201828954577333</v>
+        <v>0.07766998546871394</v>
       </c>
       <c r="D78" t="n">
         <v>2.840944696751638e-05</v>
@@ -11212,10 +11212,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08214119642390105</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D79" t="n">
         <v>0.05727562376043605</v>
@@ -11253,10 +11253,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08205383410590439</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D80" t="n">
         <v>0.08662821907009766</v>
@@ -11294,10 +11294,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04811762517287622</v>
+        <v>0.04699446616686306</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02524770990103272</v>
+        <v>0.07766998546871394</v>
       </c>
       <c r="D81" t="n">
         <v>2.840944696751638e-05</v>
@@ -11335,10 +11335,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07537061677916043</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D82" t="n">
         <v>0.05727562376043605</v>
@@ -11376,10 +11376,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07528325446116378</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D83" t="n">
         <v>0.05727562376043605</v>
@@ -11417,10 +11417,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07519589214316713</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D84" t="n">
         <v>0.08662821907009766</v>
@@ -11458,10 +11458,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.06608385252663485</v>
+        <v>0.04530902433167789</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01847713025629211</v>
+        <v>0.08423297892404807</v>
       </c>
       <c r="D85" t="n">
         <v>2.172147421697961e-05</v>
@@ -11499,10 +11499,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.07938330506119042</v>
+        <v>0.05852053485206848</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06868739945241649</v>
+        <v>0.0791635881830226</v>
       </c>
       <c r="D86" t="n">
         <v>0.04278040206902283</v>
@@ -11540,10 +11540,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.07938330506119042</v>
+        <v>0.05852053485206848</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06860003713441984</v>
+        <v>0.0791635881830226</v>
       </c>
       <c r="D87" t="n">
         <v>0.04278040206902283</v>
@@ -11581,10 +11581,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06851267481642319</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D88" t="n">
         <v>0.05727562376043605</v>
@@ -11622,10 +11622,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C89" t="n">
-        <v>0.06842531249842652</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D89" t="n">
         <v>0.05727562376043605</v>
@@ -11663,10 +11663,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C90" t="n">
-        <v>0.06833795018042987</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D90" t="n">
         <v>0.08662821907009766</v>
@@ -11704,10 +11704,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06608385252663485</v>
+        <v>0.04530902433167789</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01170655061155151</v>
+        <v>0.08423297892404807</v>
       </c>
       <c r="D91" t="n">
         <v>2.172147421697961e-05</v>
@@ -11745,10 +11745,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09734953241494904</v>
+        <v>0.05480331704963528</v>
       </c>
       <c r="C92" t="n">
-        <v>0.06191681980767588</v>
+        <v>0.08572658163835672</v>
       </c>
       <c r="D92" t="n">
         <v>0.0341403665457873</v>
@@ -11786,10 +11786,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.07938330506119042</v>
+        <v>0.05852053485206848</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06182945748967923</v>
+        <v>0.0791635881830226</v>
       </c>
       <c r="D93" t="n">
         <v>0.04278040206902283</v>
@@ -11827,10 +11827,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.07938330506119042</v>
+        <v>0.05852053485206848</v>
       </c>
       <c r="C94" t="n">
-        <v>0.06174209517168257</v>
+        <v>0.0791635881830226</v>
       </c>
       <c r="D94" t="n">
         <v>0.04278040206902283</v>
@@ -11868,10 +11868,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06165473285368592</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D95" t="n">
         <v>0.05727562376043605</v>
@@ -11909,10 +11909,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06141707770743179</v>
+        <v>0.0647566505394333</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06156737053568927</v>
+        <v>0.07260059472768848</v>
       </c>
       <c r="D96" t="n">
         <v>0.05727562376043605</v>
@@ -11950,10 +11950,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04345085035367317</v>
+        <v>0.07738476092782169</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06148000821769261</v>
+        <v>0.06603760127235436</v>
       </c>
       <c r="D97" t="n">
         <v>0.08662821907009766</v>
@@ -11991,10 +11991,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07862146450080137</v>
+        <v>0.04605365226702322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.004935970966810896</v>
+        <v>0.03954190886116461</v>
       </c>
       <c r="D98" t="n">
         <v>1.865602288471294e-05</v>
@@ -12032,10 +12032,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.09192091703535696</v>
+        <v>0.05760302639299625</v>
       </c>
       <c r="C99" t="n">
-        <v>0.05505887784493862</v>
+        <v>0.03447251812013914</v>
       </c>
       <c r="D99" t="n">
         <v>0.03732908231804213</v>
@@ -12073,10 +12073,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07395468968159834</v>
+        <v>0.06255944414837587</v>
       </c>
       <c r="C100" t="n">
-        <v>0.05497151552694196</v>
+        <v>0.02790952466480502</v>
       </c>
       <c r="D100" t="n">
         <v>0.04790877900873372</v>
@@ -12114,10 +12114,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.07395468968159834</v>
+        <v>0.06255944414837587</v>
       </c>
       <c r="C101" t="n">
-        <v>0.05488415320894531</v>
+        <v>0.02790952466480502</v>
       </c>
       <c r="D101" t="n">
         <v>0.04790877900873372</v>
@@ -12155,10 +12155,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0559884623278397</v>
+        <v>0.07143652474239771</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05479679089094865</v>
+        <v>0.02134657528154863</v>
       </c>
       <c r="D102" t="n">
         <v>0.06685768020715838</v>
@@ -12196,10 +12196,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0559884623278397</v>
+        <v>0.07143652474239771</v>
       </c>
       <c r="C103" t="n">
-        <v>0.054709428572952</v>
+        <v>0.02134657528154863</v>
       </c>
       <c r="D103" t="n">
         <v>0.06685768020715838</v>
@@ -12237,10 +12237,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.03802223497408107</v>
+        <v>0.09193098550266528</v>
       </c>
       <c r="C104" t="n">
-        <v>0.05462206625495535</v>
+        <v>0.01478358182621451</v>
       </c>
       <c r="D104" t="n">
         <v>0.1106049064101534</v>
@@ -12278,10 +12278,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.008806866181845121</v>
+        <v>0.04990821934742289</v>
       </c>
       <c r="C105" t="n">
-        <v>0.05774649219578765</v>
+        <v>0.05789903103813163</v>
       </c>
       <c r="D105" t="n">
         <v>5.86143707829498e-05</v>
@@ -12319,10 +12319,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0267729865730821</v>
+        <v>0.04431930721186667</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04420533290630643</v>
+        <v>0.06446202449346576</v>
       </c>
       <c r="D106" t="n">
         <v>2.579646632349895e-05</v>
@@ -12360,10 +12360,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09441595155170279</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D107" t="n">
         <v>0.06444750965291822</v>
@@ -12401,10 +12401,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09432858923370613</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D108" t="n">
         <v>0.1041751125323968</v>
@@ -12442,10 +12442,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.04473921392684073</v>
+        <v>0.0427918457005734</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03743475326156582</v>
+        <v>0.07102501794879988</v>
       </c>
       <c r="D109" t="n">
         <v>1.682810143318112e-05</v>
@@ -12483,10 +12483,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08755800958896552</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D110" t="n">
         <v>0.06444750965291822</v>
@@ -12524,10 +12524,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08747064727096886</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D111" t="n">
         <v>0.1041751125323968</v>
@@ -12565,10 +12565,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04473921392684073</v>
+        <v>0.0427918457005734</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03066417361682521</v>
+        <v>0.07102501794879988</v>
       </c>
       <c r="D112" t="n">
         <v>1.682810143318112e-05</v>
@@ -12606,10 +12606,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08078708049495292</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D113" t="n">
         <v>0.06444750965291822</v>
@@ -12647,10 +12647,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08069971817695627</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D114" t="n">
         <v>0.06444750965291822</v>
@@ -12688,10 +12688,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08061235585895962</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D115" t="n">
         <v>0.1041751125323968</v>
@@ -12729,10 +12729,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.06270544128059936</v>
+        <v>0.04207873741872525</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0238935939720846</v>
+        <v>0.077588011404134</v>
       </c>
       <c r="D116" t="n">
         <v>1.264024219207912e-05</v>
@@ -12770,10 +12770,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07410386316820897</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D117" t="n">
         <v>0.04665546526678088</v>
@@ -12811,10 +12811,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C118" t="n">
-        <v>0.07401650085021232</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D118" t="n">
         <v>0.04665546526678088</v>
@@ -12852,10 +12852,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C119" t="n">
-        <v>0.07392913853221567</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D119" t="n">
         <v>0.06444750965291822</v>
@@ -12893,10 +12893,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07384177621421902</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D120" t="n">
         <v>0.06444750965291822</v>
@@ -12934,10 +12934,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C121" t="n">
-        <v>0.07375441389622236</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D121" t="n">
         <v>0.1041751125323968</v>
@@ -12975,10 +12975,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.06270544128059936</v>
+        <v>0.04207873741872525</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01712301432734399</v>
+        <v>0.077588011404134</v>
       </c>
       <c r="D122" t="n">
         <v>1.264024219207912e-05</v>
@@ -13016,10 +13016,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C123" t="n">
-        <v>0.06733328352346836</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D123" t="n">
         <v>0.03656193655535156</v>
@@ -13057,10 +13057,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C124" t="n">
-        <v>0.06724592120547171</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D124" t="n">
         <v>0.04665546526678088</v>
@@ -13098,10 +13098,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C125" t="n">
-        <v>0.06715855888747506</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D125" t="n">
         <v>0.04665546526678088</v>
@@ -13139,10 +13139,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C126" t="n">
-        <v>0.06707119656947839</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D126" t="n">
         <v>0.06444750965291822</v>
@@ -13180,10 +13180,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C127" t="n">
-        <v>0.06698383425148174</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D127" t="n">
         <v>0.06444750965291822</v>
@@ -13221,10 +13221,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C128" t="n">
-        <v>0.06689647193348509</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D128" t="n">
         <v>0.1041751125323968</v>
@@ -13262,10 +13262,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.08067166863435798</v>
+        <v>0.04166573444381078</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01035243468260338</v>
+        <v>0.08415100485946812</v>
       </c>
       <c r="D129" t="n">
         <v>1.021493917406807e-05</v>
@@ -13303,10 +13303,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C130" t="n">
-        <v>0.06056270387872775</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D130" t="n">
         <v>0.03656193655535156</v>
@@ -13344,10 +13344,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0604753415607311</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D131" t="n">
         <v>0.03656193655535156</v>
@@ -13385,10 +13385,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06038797924273445</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D132" t="n">
         <v>0.04665546526678088</v>
@@ -13426,10 +13426,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C133" t="n">
-        <v>0.06030061692473779</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D133" t="n">
         <v>0.04665546526678088</v>
@@ -13467,10 +13467,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C134" t="n">
-        <v>0.06021325460674114</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D134" t="n">
         <v>0.06444750965291822</v>
@@ -13508,10 +13508,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06012589228874449</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D135" t="n">
         <v>0.06444750965291822</v>
@@ -13549,10 +13549,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C136" t="n">
-        <v>0.06003852997074783</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D136" t="n">
         <v>0.1041751125323968</v>
@@ -13590,10 +13590,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.07524305325476589</v>
+        <v>0.04331048727175414</v>
       </c>
       <c r="C137" t="n">
-        <v>0.003581855037862774</v>
+        <v>0.03289694134125055</v>
       </c>
       <c r="D137" t="n">
         <v>1.055209998730806e-05</v>
@@ -13631,10 +13631,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.08854277319562556</v>
+        <v>0.05568013650146571</v>
       </c>
       <c r="C138" t="n">
-        <v>0.05370476191599049</v>
+        <v>0.02782755060022508</v>
       </c>
       <c r="D138" t="n">
         <v>0.04024446169999801</v>
@@ -13672,10 +13672,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.08854277319562556</v>
+        <v>0.05568013650146571</v>
       </c>
       <c r="C139" t="n">
-        <v>0.05361739959799383</v>
+        <v>0.02782755060022508</v>
       </c>
       <c r="D139" t="n">
         <v>0.04024446169999801</v>
@@ -13713,10 +13713,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.07057654584186694</v>
+        <v>0.06054524277580504</v>
       </c>
       <c r="C140" t="n">
-        <v>0.05353003727999718</v>
+        <v>0.02126455714489096</v>
       </c>
       <c r="D140" t="n">
         <v>0.05282369801578217</v>
@@ -13754,10 +13754,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.07057654584186694</v>
+        <v>0.06054524277580504</v>
       </c>
       <c r="C141" t="n">
-        <v>0.05344267496200053</v>
+        <v>0.02126455714489096</v>
       </c>
       <c r="D141" t="n">
         <v>0.05282369801578217</v>
@@ -13795,10 +13795,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.05261031848810831</v>
+        <v>0.0698345622319293</v>
       </c>
       <c r="C142" t="n">
-        <v>0.05335531264400387</v>
+        <v>0.01470156368955684</v>
       </c>
       <c r="D142" t="n">
         <v>0.07684272618989893</v>
@@ -13836,10 +13836,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.05261031848810831</v>
+        <v>0.0698345622319293</v>
       </c>
       <c r="C143" t="n">
-        <v>0.05326795032600722</v>
+        <v>0.01470156368955684</v>
       </c>
       <c r="D143" t="n">
         <v>0.07684272618989893</v>
@@ -13877,10 +13877,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03464409113434969</v>
+        <v>0.09461703306523341</v>
       </c>
       <c r="C144" t="n">
-        <v>0.05318058800801058</v>
+        <v>0.008138570234222715</v>
       </c>
       <c r="D144" t="n">
         <v>0.1409210688665518</v>
@@ -13918,10 +13918,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.008806866181845121</v>
+        <v>0.04990821934742289</v>
       </c>
       <c r="C145" t="n">
-        <v>0.06316295591158014</v>
+        <v>0.05789903103813163</v>
       </c>
       <c r="D145" t="n">
         <v>5.86143707829498e-05</v>
@@ -13959,10 +13959,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0267729865730821</v>
+        <v>0.04431930721186667</v>
       </c>
       <c r="C146" t="n">
-        <v>0.05639237626683952</v>
+        <v>0.06446202449346576</v>
       </c>
       <c r="D146" t="n">
         <v>2.579646632349895e-05</v>
@@ -14000,10 +14000,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1066029949122359</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D147" t="n">
         <v>0.1041751125323968</v>
@@ -14041,10 +14041,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0267729865730821</v>
+        <v>0.04431930721186667</v>
       </c>
       <c r="C148" t="n">
-        <v>0.04962179662209891</v>
+        <v>0.06446202449346576</v>
       </c>
       <c r="D148" t="n">
         <v>2.579646632349895e-05</v>
@@ -14082,10 +14082,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C149" t="n">
-        <v>0.09974505294949862</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D149" t="n">
         <v>0.1041751125323968</v>
@@ -14123,10 +14123,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.04473921392684073</v>
+        <v>0.0427918457005734</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0428512169773583</v>
+        <v>0.07102501794879988</v>
       </c>
       <c r="D150" t="n">
         <v>1.682810143318112e-05</v>
@@ -14164,10 +14164,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C151" t="n">
-        <v>0.09297447330475801</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D151" t="n">
         <v>0.06444750965291822</v>
@@ -14205,10 +14205,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C152" t="n">
-        <v>0.09288711098676135</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D152" t="n">
         <v>0.1041751125323968</v>
@@ -14246,10 +14246,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.04473921392684073</v>
+        <v>0.0427918457005734</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0360806373326177</v>
+        <v>0.07102501794879988</v>
       </c>
       <c r="D153" t="n">
         <v>1.682810143318112e-05</v>
@@ -14287,10 +14287,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C154" t="n">
-        <v>0.08620354421074541</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D154" t="n">
         <v>0.06444750965291822</v>
@@ -14328,10 +14328,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C155" t="n">
-        <v>0.08611618189274876</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D155" t="n">
         <v>0.06444750965291822</v>
@@ -14369,10 +14369,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0860288195747521</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D156" t="n">
         <v>0.1041751125323968</v>
@@ -14410,10 +14410,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.06270544128059936</v>
+        <v>0.04207873741872525</v>
       </c>
       <c r="C157" t="n">
-        <v>0.02931005768787709</v>
+        <v>0.077588011404134</v>
       </c>
       <c r="D157" t="n">
         <v>1.264024219207912e-05</v>
@@ -14451,10 +14451,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C158" t="n">
-        <v>0.07952032688400146</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D158" t="n">
         <v>0.04665546526678088</v>
@@ -14492,10 +14492,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C159" t="n">
-        <v>0.07943296456600481</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D159" t="n">
         <v>0.04665546526678088</v>
@@ -14533,10 +14533,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C160" t="n">
-        <v>0.07934560224800816</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D160" t="n">
         <v>0.06444750965291822</v>
@@ -14574,10 +14574,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C161" t="n">
-        <v>0.07925823993001151</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D161" t="n">
         <v>0.06444750965291822</v>
@@ -14615,10 +14615,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C162" t="n">
-        <v>0.07917087761201486</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D162" t="n">
         <v>0.1041751125323968</v>
@@ -14656,10 +14656,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.06270544128059936</v>
+        <v>0.04207873741872525</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02253947804313648</v>
+        <v>0.077588011404134</v>
       </c>
       <c r="D163" t="n">
         <v>1.264024219207912e-05</v>
@@ -14697,10 +14697,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C164" t="n">
-        <v>0.07274974723926085</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D164" t="n">
         <v>0.03656193655535156</v>
@@ -14738,10 +14738,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0726623849212642</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D165" t="n">
         <v>0.04665546526678088</v>
@@ -14779,10 +14779,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C166" t="n">
-        <v>0.07257502260326755</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D166" t="n">
         <v>0.04665546526678088</v>
@@ -14820,10 +14820,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0724876602852709</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D167" t="n">
         <v>0.06444750965291822</v>
@@ -14861,10 +14861,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C168" t="n">
-        <v>0.07240029796727424</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D168" t="n">
         <v>0.06444750965291822</v>
@@ -14902,10 +14902,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C169" t="n">
-        <v>0.07231293564927758</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D169" t="n">
         <v>0.1041751125323968</v>
@@ -14943,10 +14943,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08067166863435798</v>
+        <v>0.04166573444381078</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01576889839839587</v>
+        <v>0.08415100485946812</v>
       </c>
       <c r="D170" t="n">
         <v>1.021493917406807e-05</v>
@@ -14984,10 +14984,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C171" t="n">
-        <v>0.06597916759452024</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D171" t="n">
         <v>0.03656193655535156</v>
@@ -15025,10 +15025,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C172" t="n">
-        <v>0.06589180527652359</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D172" t="n">
         <v>0.03656193655535156</v>
@@ -15066,10 +15066,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C173" t="n">
-        <v>0.06580444295852694</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D173" t="n">
         <v>0.04665546526678088</v>
@@ -15107,10 +15107,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C174" t="n">
-        <v>0.06571708064053028</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D174" t="n">
         <v>0.04665546526678088</v>
@@ -15148,10 +15148,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C175" t="n">
-        <v>0.06562971832253363</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D175" t="n">
         <v>0.06444750965291822</v>
@@ -15189,10 +15189,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C176" t="n">
-        <v>0.06554235600453698</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D176" t="n">
         <v>0.06444750965291822</v>
@@ -15230,10 +15230,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C177" t="n">
-        <v>0.06545499368654033</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D177" t="n">
         <v>0.1041751125323968</v>
@@ -15271,10 +15271,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.08067166863435798</v>
+        <v>0.04166573444381078</v>
       </c>
       <c r="C178" t="n">
-        <v>0.008998318753655261</v>
+        <v>0.08415100485946812</v>
       </c>
       <c r="D178" t="n">
         <v>1.021493917406807e-05</v>
@@ -15312,10 +15312,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C179" t="n">
-        <v>0.05912122563178298</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D179" t="n">
         <v>0.03656193655535156</v>
@@ -15353,10 +15353,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.09397138857521767</v>
+        <v>0.05285712171733713</v>
       </c>
       <c r="C180" t="n">
-        <v>0.05903386331378633</v>
+        <v>0.07908161411844265</v>
       </c>
       <c r="D180" t="n">
         <v>0.03656193655535156</v>
@@ -15394,10 +15394,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C181" t="n">
-        <v>0.05894650099578967</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D181" t="n">
         <v>0.04665546526678088</v>
@@ -15435,10 +15435,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.07600516122145903</v>
+        <v>0.05637452401941857</v>
       </c>
       <c r="C182" t="n">
-        <v>0.05885913867779302</v>
+        <v>0.07251862066310853</v>
       </c>
       <c r="D182" t="n">
         <v>0.04665546526678088</v>
@@ -15476,10 +15476,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C183" t="n">
-        <v>0.05877177635979636</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D183" t="n">
         <v>0.06444750965291822</v>
@@ -15517,10 +15517,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05803893386770041</v>
+        <v>0.06257491743281994</v>
       </c>
       <c r="C184" t="n">
-        <v>0.05868441404179971</v>
+        <v>0.06595562720777441</v>
       </c>
       <c r="D184" t="n">
         <v>0.06444750965291822</v>
@@ -15558,10 +15558,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.04007270651394178</v>
+        <v>0.07641987747440218</v>
       </c>
       <c r="C185" t="n">
-        <v>0.05859705172380306</v>
+        <v>0.05939263375244029</v>
       </c>
       <c r="D185" t="n">
         <v>0.1041751125323968</v>
@@ -15599,10 +15599,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.09320928060852451</v>
+        <v>0.04271104077069882</v>
       </c>
       <c r="C186" t="n">
-        <v>0.002227739108914652</v>
+        <v>0.03945993479658467</v>
       </c>
       <c r="D186" t="n">
         <v>8.781200866144741e-06</v>
@@ -15640,10 +15640,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1065090005493842</v>
+        <v>0.05268653353204638</v>
       </c>
       <c r="C187" t="n">
-        <v>0.05243800830503902</v>
+        <v>0.03439054405555921</v>
       </c>
       <c r="D187" t="n">
         <v>0.0325041062661883</v>
@@ -15681,10 +15681,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1065090005493842</v>
+        <v>0.05268653353204638</v>
       </c>
       <c r="C188" t="n">
-        <v>0.05235064598704237</v>
+        <v>0.03439054405555921</v>
       </c>
       <c r="D188" t="n">
         <v>0.0325041062661883</v>
@@ -15722,10 +15722,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.08854277319562556</v>
+        <v>0.05568013650146571</v>
       </c>
       <c r="C189" t="n">
-        <v>0.05226328366904572</v>
+        <v>0.02782755060022508</v>
       </c>
       <c r="D189" t="n">
         <v>0.04024446169999801</v>
@@ -15763,10 +15763,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.08854277319562556</v>
+        <v>0.05568013650146571</v>
       </c>
       <c r="C190" t="n">
-        <v>0.05217592135104906</v>
+        <v>0.02782755060022508</v>
       </c>
       <c r="D190" t="n">
         <v>0.04024446169999801</v>
@@ -15804,10 +15804,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.07057654584186694</v>
+        <v>0.06054524277580504</v>
       </c>
       <c r="C191" t="n">
-        <v>0.05208855903305241</v>
+        <v>0.02126455714489096</v>
       </c>
       <c r="D191" t="n">
         <v>0.05282369801578217</v>
@@ -15845,10 +15845,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.07057654584186694</v>
+        <v>0.06054524277580504</v>
       </c>
       <c r="C192" t="n">
-        <v>0.05200119671505576</v>
+        <v>0.02126455714489096</v>
       </c>
       <c r="D192" t="n">
         <v>0.05282369801578217</v>
@@ -15886,10 +15886,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.05261031848810831</v>
+        <v>0.0698345622319293</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0519138343970591</v>
+        <v>0.01470156368955684</v>
       </c>
       <c r="D193" t="n">
         <v>0.07684272618989893</v>
@@ -15927,10 +15927,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.05261031848810831</v>
+        <v>0.0698345622319293</v>
       </c>
       <c r="C194" t="n">
-        <v>0.05182647207906245</v>
+        <v>0.01470156368955684</v>
       </c>
       <c r="D194" t="n">
         <v>0.07684272618989893</v>
@@ -15968,10 +15968,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.03464409113434969</v>
+        <v>0.09461703306523341</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0517391097610658</v>
+        <v>0.008138570234222715</v>
       </c>
       <c r="D195" t="n">
         <v>0.1409210688665518</v>
@@ -16009,10 +16009,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.005428588638961681</v>
+        <v>0.02483366639171164</v>
       </c>
       <c r="C196" t="n">
-        <v>0.06857941962737263</v>
+        <v>0.05125406351821758</v>
       </c>
       <c r="D196" t="n">
         <v>6.764511950570066e-06</v>
@@ -16050,10 +16050,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02339481599272031</v>
+        <v>0.03557308093690885</v>
       </c>
       <c r="C197" t="n">
-        <v>0.06180883998263201</v>
+        <v>0.0578170569735517</v>
       </c>
       <c r="D197" t="n">
         <v>2.794344725536599e-06</v>
@@ -16091,10 +16091,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1120194586280284</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D198" t="n">
         <v>0.1306527902630661</v>
@@ -16132,10 +16132,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.02339481599272031</v>
+        <v>0.03557308093690885</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0550382603378914</v>
+        <v>0.0578170569735517</v>
       </c>
       <c r="D199" t="n">
         <v>2.794344725536599e-06</v>
@@ -16173,10 +16173,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1052488789832877</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D200" t="n">
         <v>0.07367756094073126</v>
@@ -16214,10 +16214,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1051615166652911</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D201" t="n">
         <v>0.1306527902630661</v>
@@ -16255,10 +16255,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.04136107008710934</v>
+        <v>0.03744783172128006</v>
       </c>
       <c r="C202" t="n">
-        <v>0.04826768069315079</v>
+        <v>0.06438005042888582</v>
       </c>
       <c r="D202" t="n">
         <v>2.101220261208836e-06</v>
@@ -16296,10 +16296,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C203" t="n">
-        <v>0.09839093702055049</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D203" t="n">
         <v>0.07367756094073126</v>
@@ -16337,10 +16337,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C204" t="n">
-        <v>0.09830357470255385</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D204" t="n">
         <v>0.1306527902630661</v>
@@ -16378,10 +16378,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.04136107008710934</v>
+        <v>0.03744783172128006</v>
       </c>
       <c r="C205" t="n">
-        <v>0.04149710104841018</v>
+        <v>0.06438005042888582</v>
       </c>
       <c r="D205" t="n">
         <v>2.101220261208836e-06</v>
@@ -16419,10 +16419,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C206" t="n">
-        <v>0.09162035737580988</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D206" t="n">
         <v>0.07367756094073126</v>
@@ -16460,10 +16460,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C207" t="n">
-        <v>0.09153299505781323</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D207" t="n">
         <v>0.07367756094073126</v>
@@ -16501,10 +16501,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C208" t="n">
-        <v>0.09144563273981658</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D208" t="n">
         <v>0.1306527902630661</v>
@@ -16542,10 +16542,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.05932729744086797</v>
+        <v>0.03822741781777679</v>
       </c>
       <c r="C209" t="n">
-        <v>0.03472652140366958</v>
+        <v>0.07094304388421994</v>
       </c>
       <c r="D209" t="n">
         <v>1.813077105862516e-06</v>
@@ -16583,10 +16583,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C210" t="n">
-        <v>0.08493679059979395</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D210" t="n">
         <v>0.05130493981413937</v>
@@ -16624,10 +16624,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0848494282817973</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D211" t="n">
         <v>0.05130493981413937</v>
@@ -16665,10 +16665,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C212" t="n">
-        <v>0.08476206596380063</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D212" t="n">
         <v>0.07367756094073126</v>
@@ -16706,10 +16706,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C213" t="n">
-        <v>0.08467470364580398</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D213" t="n">
         <v>0.07367756094073126</v>
@@ -16747,10 +16747,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C214" t="n">
-        <v>0.08458734132780733</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D214" t="n">
         <v>0.1306527902630661</v>
@@ -16788,10 +16788,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.05932729744086797</v>
+        <v>0.03822741781777679</v>
       </c>
       <c r="C215" t="n">
-        <v>0.02795594175892897</v>
+        <v>0.07094304388421994</v>
       </c>
       <c r="D215" t="n">
         <v>1.813077105862516e-06</v>
@@ -16829,10 +16829,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.09059297732918217</v>
+        <v>0.05061254033193244</v>
       </c>
       <c r="C216" t="n">
-        <v>0.07816621095505334</v>
+        <v>0.0724366465985286</v>
       </c>
       <c r="D216" t="n">
         <v>0.03935467784101839</v>
@@ -16870,10 +16870,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C217" t="n">
-        <v>0.07807884863705668</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D217" t="n">
         <v>0.05130493981413937</v>
@@ -16911,10 +16911,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C218" t="n">
-        <v>0.07799148631906003</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D218" t="n">
         <v>0.05130493981413937</v>
@@ -16952,10 +16952,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C219" t="n">
-        <v>0.07790412400106338</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D219" t="n">
         <v>0.07367756094073126</v>
@@ -16993,10 +16993,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C220" t="n">
-        <v>0.07781676168306673</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D220" t="n">
         <v>0.07367756094073126</v>
@@ -17034,10 +17034,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C221" t="n">
-        <v>0.07772939936507008</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D221" t="n">
         <v>0.1306527902630661</v>
@@ -17075,10 +17075,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0772935247946266</v>
+        <v>0.03865436585151123</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02118536211418836</v>
+        <v>0.07750603733955407</v>
       </c>
       <c r="D222" t="n">
         <v>1.655225966808565e-06</v>
@@ -17116,10 +17116,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.09059297732918217</v>
+        <v>0.05061254033193244</v>
       </c>
       <c r="C223" t="n">
-        <v>0.07130826899231607</v>
+        <v>0.0724366465985286</v>
       </c>
       <c r="D223" t="n">
         <v>0.03935467784101839</v>
@@ -17157,10 +17157,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C224" t="n">
-        <v>0.07122090667431942</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D224" t="n">
         <v>0.05130493981413937</v>
@@ -17198,10 +17198,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C225" t="n">
-        <v>0.07113354435632277</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D225" t="n">
         <v>0.05130493981413937</v>
@@ -17239,10 +17239,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C226" t="n">
-        <v>0.07104618203832611</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D226" t="n">
         <v>0.07367756094073126</v>
@@ -17280,10 +17280,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C227" t="n">
-        <v>0.07095881972032946</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D227" t="n">
         <v>0.07367756094073126</v>
@@ -17321,10 +17321,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C228" t="n">
-        <v>0.0708714574023328</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D228" t="n">
         <v>0.1306527902630661</v>
@@ -17362,10 +17362,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0772935247946266</v>
+        <v>0.03865436585151123</v>
       </c>
       <c r="C229" t="n">
-        <v>0.01441478246944775</v>
+        <v>0.07750603733955407</v>
       </c>
       <c r="D229" t="n">
         <v>1.655225966808565e-06</v>
@@ -17403,10 +17403,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.09059297732918217</v>
+        <v>0.05061254033193244</v>
       </c>
       <c r="C230" t="n">
-        <v>0.06453768934757546</v>
+        <v>0.0724366465985286</v>
       </c>
       <c r="D230" t="n">
         <v>0.03935467784101839</v>
@@ -17444,10 +17444,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.09059297732918217</v>
+        <v>0.05061254033193244</v>
       </c>
       <c r="C231" t="n">
-        <v>0.06445032702957881</v>
+        <v>0.0724366465985286</v>
       </c>
       <c r="D231" t="n">
         <v>0.03935467784101839</v>
@@ -17485,10 +17485,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C232" t="n">
-        <v>0.06436296471158215</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D232" t="n">
         <v>0.05130493981413937</v>
@@ -17526,10 +17526,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0642756023935855</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D233" t="n">
         <v>0.05130493981413937</v>
@@ -17567,10 +17567,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C234" t="n">
-        <v>0.06418824007558885</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D234" t="n">
         <v>0.07367756094073126</v>
@@ -17608,10 +17608,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C235" t="n">
-        <v>0.06410087775759221</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D235" t="n">
         <v>0.07367756094073126</v>
@@ -17649,10 +17649,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C236" t="n">
-        <v>0.06401351543959555</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D236" t="n">
         <v>0.1306527902630661</v>
@@ -17690,10 +17690,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.09525975214838524</v>
+        <v>0.03892390664596281</v>
       </c>
       <c r="C237" t="n">
-        <v>0.007644202824707139</v>
+        <v>0.08406903079488819</v>
       </c>
       <c r="D237" t="n">
         <v>1.555587211151465e-06</v>
@@ -17731,10 +17731,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1085592046829408</v>
+        <v>0.04862947655645276</v>
       </c>
       <c r="C238" t="n">
-        <v>0.05785447202083151</v>
+        <v>0.07899964005386272</v>
       </c>
       <c r="D238" t="n">
         <v>0.03191985286364276</v>
@@ -17772,10 +17772,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1085592046829408</v>
+        <v>0.04862947655645276</v>
       </c>
       <c r="C239" t="n">
-        <v>0.05776710970283486</v>
+        <v>0.07899964005386272</v>
       </c>
       <c r="D239" t="n">
         <v>0.03191985286364276</v>
@@ -17813,10 +17813,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.09059297732918217</v>
+        <v>0.05061254033193244</v>
       </c>
       <c r="C240" t="n">
-        <v>0.05767974738483821</v>
+        <v>0.0724366465985286</v>
       </c>
       <c r="D240" t="n">
         <v>0.03935467784101839</v>
@@ -17854,10 +17854,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.09059297732918217</v>
+        <v>0.05061254033193244</v>
       </c>
       <c r="C241" t="n">
-        <v>0.05759238506684156</v>
+        <v>0.0724366465985286</v>
       </c>
       <c r="D241" t="n">
         <v>0.03935467784101839</v>
@@ -17895,10 +17895,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0575050227488449</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D242" t="n">
         <v>0.05130493981413937</v>
@@ -17936,10 +17936,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.07262674997542355</v>
+        <v>0.05379984589920712</v>
       </c>
       <c r="C243" t="n">
-        <v>0.05741766043084825</v>
+        <v>0.06587365314319447</v>
       </c>
       <c r="D243" t="n">
         <v>0.05130493981413937</v>
@@ -17977,10 +17977,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0573302981128516</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D244" t="n">
         <v>0.07367756094073126</v>
@@ -18018,10 +18018,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.05466052262166492</v>
+        <v>0.05976718490493241</v>
       </c>
       <c r="C245" t="n">
-        <v>0.05724293579485494</v>
+        <v>0.05931065968786036</v>
       </c>
       <c r="D245" t="n">
         <v>0.07367756094073126</v>
@@ -18059,10 +18059,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0366942952679063</v>
+        <v>0.07496366948283281</v>
       </c>
       <c r="C246" t="n">
-        <v>0.05715557347685829</v>
+        <v>0.05274766623252623</v>
       </c>
       <c r="D246" t="n">
         <v>0.1306527902630661</v>
@@ -18100,10 +18100,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.08983113676879313</v>
+        <v>0.04011592263276496</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0008736231799665302</v>
+        <v>0.03281496727667061</v>
       </c>
       <c r="D247" t="n">
         <v>1.114891784445807e-06</v>
@@ -18141,10 +18141,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1210968166571073</v>
+        <v>0.04889385958942297</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0510838923760909</v>
+        <v>0.03430856999097927</v>
       </c>
       <c r="D248" t="n">
         <v>0.02878212146849685</v>
@@ -18182,10 +18182,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1031305893033487</v>
+        <v>0.05069621068485219</v>
       </c>
       <c r="C249" t="n">
-        <v>0.05099653005809425</v>
+        <v>0.02774557653564514</v>
       </c>
       <c r="D249" t="n">
         <v>0.03469192480723841</v>
@@ -18223,10 +18223,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1031305893033487</v>
+        <v>0.05069621068485219</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0509091677400976</v>
+        <v>0.02774557653564514</v>
       </c>
       <c r="D250" t="n">
         <v>0.03469192480723841</v>
@@ -18264,10 +18264,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.08516436194959008</v>
+        <v>0.05343020632637663</v>
       </c>
       <c r="C251" t="n">
-        <v>0.05082180542210094</v>
+        <v>0.02118253900823329</v>
       </c>
       <c r="D251" t="n">
         <v>0.0436556547541827</v>
@@ -18305,10 +18305,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.08516436194959008</v>
+        <v>0.05343020632637663</v>
       </c>
       <c r="C252" t="n">
-        <v>0.05073444310410429</v>
+        <v>0.02118253900823329</v>
       </c>
       <c r="D252" t="n">
         <v>0.0436556547541827</v>
@@ -18346,10 +18346,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.06719813459583145</v>
+        <v>0.05806913520834837</v>
       </c>
       <c r="C253" t="n">
-        <v>0.05064708078610764</v>
+        <v>0.01461954555289917</v>
       </c>
       <c r="D253" t="n">
         <v>0.05886553460629967</v>
@@ -18387,10 +18387,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.06719813459583145</v>
+        <v>0.05806913520834837</v>
       </c>
       <c r="C254" t="n">
-        <v>0.05055971846811098</v>
+        <v>0.01461954555289917</v>
       </c>
       <c r="D254" t="n">
         <v>0.05886553460629967</v>
@@ -18428,10 +18428,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.04923190724207283</v>
+        <v>0.06766906652257204</v>
       </c>
       <c r="C255" t="n">
-        <v>0.05047235615011433</v>
+        <v>0.008056552097565046</v>
       </c>
       <c r="D255" t="n">
         <v>0.09034168559348096</v>
@@ -18469,10 +18469,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.04923190724207283</v>
+        <v>0.06766906652257204</v>
       </c>
       <c r="C256" t="n">
-        <v>0.05038499383211768</v>
+        <v>0.008056552097565046</v>
       </c>
       <c r="D256" t="n">
         <v>0.09034168559348096</v>
@@ -18510,10 +18510,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.0312656798883142</v>
+        <v>0.09933466556684657</v>
       </c>
       <c r="C257" t="n">
-        <v>0.05029763151412103</v>
+        <v>0.001493549827815378</v>
       </c>
       <c r="D257" t="n">
         <v>0.194166546729326</v>
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7467116784382021</v>
+        <v>0.7520669835929195</v>
       </c>
     </row>
     <row r="3">
@@ -18705,7 +18705,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7382942204155214</v>
+        <v>0.7419426313801122</v>
       </c>
     </row>
     <row r="4">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7348339368992338</v>
+        <v>0.7376032255725115</v>
       </c>
     </row>
     <row r="5">
@@ -18721,7 +18721,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.731364556564709</v>
+        <v>0.7373558224938708</v>
       </c>
     </row>
     <row r="6">
@@ -18729,7 +18729,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7263496081583648</v>
+        <v>0.7322564285779858</v>
       </c>
     </row>
     <row r="7">
@@ -18737,7 +18737,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7257745338445938</v>
+        <v>0.7308818904785781</v>
       </c>
     </row>
     <row r="8">
@@ -18745,7 +18745,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7237309639947854</v>
+        <v>0.7300929923918146</v>
       </c>
     </row>
     <row r="9">
@@ -18753,7 +18753,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7114787707148026</v>
+        <v>0.7173846064049632</v>
       </c>
     </row>
     <row r="10">
@@ -18761,7 +18761,7 @@
         <v>71</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7016264257290691</v>
+        <v>0.7075475060370087</v>
       </c>
     </row>
     <row r="11">
@@ -18769,7 +18769,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6873928229285259</v>
+        <v>0.6904031170755346</v>
       </c>
     </row>
     <row r="12">
@@ -18777,7 +18777,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6849463631541395</v>
+        <v>0.6902482538099973</v>
       </c>
     </row>
     <row r="13">
@@ -18785,7 +18785,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6831636758648811</v>
+        <v>0.6866021429513069</v>
       </c>
     </row>
     <row r="14">
@@ -18793,7 +18793,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6806158868995006</v>
+        <v>0.6835115041093401</v>
       </c>
     </row>
     <row r="15">
@@ -18801,71 +18801,71 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6765045618575667</v>
+        <v>0.679892878299704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6730081407912073</v>
+        <v>0.6760916909055812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6709870715122298</v>
+        <v>0.6743156429195106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6707437486518132</v>
+        <v>0.6731421601854014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6700126072805532</v>
+        <v>0.6710931733612077</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B20" t="n">
-        <v>0.66911274178577</v>
+        <v>0.6697810969169514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6663732182844799</v>
+        <v>0.6689571082411478</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6662907373937845</v>
+        <v>0.6683039113222652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6659737704748112</v>
+        <v>0.6677571666700218</v>
       </c>
     </row>
     <row r="24">
@@ -18873,23 +18873,23 @@
         <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6631043858053774</v>
+        <v>0.6661851425586081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6622707259789161</v>
+        <v>0.662796198101135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6594382100813129</v>
+        <v>0.6624869583455836</v>
       </c>
     </row>
     <row r="27">
@@ -18897,7 +18897,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657731282938386</v>
+        <v>0.6601926067969999</v>
       </c>
     </row>
     <row r="28">
@@ -18905,7 +18905,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6548839735924684</v>
+        <v>0.6579987113292254</v>
       </c>
     </row>
     <row r="29">
@@ -18913,7 +18913,7 @@
         <v>193</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6533488520536893</v>
+        <v>0.6578773570423847</v>
       </c>
     </row>
     <row r="30">
@@ -18921,7 +18921,7 @@
         <v>101</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6489365371976419</v>
+        <v>0.6519172517200634</v>
       </c>
     </row>
     <row r="31">
@@ -18929,7 +18929,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6456681264193364</v>
+        <v>0.6488701060247473</v>
       </c>
     </row>
     <row r="32">
@@ -18937,7 +18937,7 @@
         <v>100</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6419746817844268</v>
+        <v>0.6449126729439323</v>
       </c>
     </row>
     <row r="33">
@@ -18945,7 +18945,7 @@
         <v>141</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6414733992137899</v>
+        <v>0.6445272335425768</v>
       </c>
     </row>
     <row r="34">
@@ -18953,7 +18953,7 @@
         <v>103</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6401297294838443</v>
+        <v>0.6436137280771536</v>
       </c>
     </row>
     <row r="35">
@@ -18961,7 +18961,7 @@
         <v>255</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6374677671643268</v>
+        <v>0.6417467163625353</v>
       </c>
     </row>
     <row r="36">
@@ -18969,7 +18969,7 @@
         <v>140</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6347273594046261</v>
+        <v>0.6377441372530408</v>
       </c>
     </row>
     <row r="37">
@@ -18977,39 +18977,39 @@
         <v>143</v>
       </c>
       <c r="B37" t="n">
-        <v>0.630585948983177</v>
+        <v>0.6341228731801242</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>0.626370769072535</v>
+        <v>0.6261490084375146</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6250312051101574</v>
+        <v>0.6255562786243044</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6229274777864144</v>
+        <v>0.6247656480215318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6226278275237249</v>
+        <v>0.6246218437725025</v>
       </c>
     </row>
     <row r="42">
@@ -19017,7 +19017,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6217595798119002</v>
+        <v>0.6234480923521885</v>
       </c>
     </row>
     <row r="43">
@@ -19025,15 +19025,15 @@
         <v>194</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6200886694813742</v>
+        <v>0.6229991044240001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6194618004461117</v>
+        <v>0.6199496587718704</v>
       </c>
     </row>
     <row r="45">
@@ -19041,15 +19041,15 @@
         <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6188868530966126</v>
+        <v>0.6199255282219633</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6185775438576659</v>
+        <v>0.6197463280048531</v>
       </c>
     </row>
     <row r="47">
@@ -19057,47 +19057,47 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6164958477564852</v>
+        <v>0.6196329718689738</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6164076998555834</v>
+        <v>0.6189200937172472</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6163206336697984</v>
+        <v>0.6181660718447565</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6156830293809749</v>
+        <v>0.6174393723855951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6146292371560681</v>
+        <v>0.6171014992192407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6145038554685167</v>
+        <v>0.6170997705711686</v>
       </c>
     </row>
     <row r="53">
@@ -19105,55 +19105,55 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6143448119899256</v>
+        <v>0.6169926802253008</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6143227160394616</v>
+        <v>0.6161204721658028</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6140888010461021</v>
+        <v>0.6159742288723937</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6138570983656969</v>
+        <v>0.6151808461601176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6131409168945959</v>
+        <v>0.6137438364195626</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6131399843713076</v>
+        <v>0.6128867991370011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6113451389798367</v>
+        <v>0.6121792688173459</v>
       </c>
     </row>
     <row r="60">
@@ -19161,31 +19161,31 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6099560160928434</v>
+        <v>0.6120629345983258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6096809224760794</v>
+        <v>0.6117463745511951</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6082749656370819</v>
+        <v>0.6111609079552521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6077459942024089</v>
+        <v>0.6109989502745347</v>
       </c>
     </row>
     <row r="64">
@@ -19193,175 +19193,175 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6074397427861918</v>
+        <v>0.6108740430989412</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6071880408320651</v>
+        <v>0.6108506330005393</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6070670659057406</v>
+        <v>0.6105055038759228</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6069944888968027</v>
+        <v>0.608757741490129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6065100069354147</v>
+        <v>0.6086133485939772</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6056493600082489</v>
+        <v>0.6078577222807677</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6046596794660898</v>
+        <v>0.6066451170475674</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6038627383902612</v>
+        <v>0.6064514894123259</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6031825203460559</v>
+        <v>0.6042019459932083</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6023309056637931</v>
+        <v>0.6039648643584773</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6017728949815767</v>
+        <v>0.6036765789219268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5992473595138267</v>
+        <v>0.6024241308994239</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B76" t="n">
-        <v>0.597898737663332</v>
+        <v>0.6019818270800209</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5977845309059157</v>
+        <v>0.6013891276237676</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5970604519217402</v>
+        <v>0.6009819326354277</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5967451866454274</v>
+        <v>0.60077121467551</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B80" t="n">
-        <v>0.596464211038406</v>
+        <v>0.6006984127265478</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5960090532787795</v>
+        <v>0.6005801657317789</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5959602076233266</v>
+        <v>0.6004192830283875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5953398943209109</v>
+        <v>0.5999353175459458</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5949353926295975</v>
+        <v>0.5982891059084643</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B85" t="n">
-        <v>0.594854537532602</v>
+        <v>0.5978762457069702</v>
       </c>
     </row>
     <row r="86">
@@ -19369,7 +19369,7 @@
         <v>160</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5938186030851601</v>
+        <v>0.5975500718995224</v>
       </c>
     </row>
     <row r="87">
@@ -19377,15 +19377,15 @@
         <v>212</v>
       </c>
       <c r="B87" t="n">
-        <v>0.592916740415235</v>
+        <v>0.5975243211672883</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5925560378137357</v>
+        <v>0.5974455437310467</v>
       </c>
     </row>
     <row r="89">
@@ -19393,47 +19393,47 @@
         <v>134</v>
       </c>
       <c r="B89" t="n">
-        <v>0.591013985582838</v>
+        <v>0.5932816667808194</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5890892621700986</v>
+        <v>0.5927638284530008</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5887213656223422</v>
+        <v>0.5922465162629245</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5860440176348927</v>
+        <v>0.5864954715061534</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5857973901043992</v>
+        <v>0.5864073291809636</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5829830115837374</v>
+        <v>0.5863928928275902</v>
       </c>
     </row>
     <row r="95">
@@ -19441,39 +19441,39 @@
         <v>175</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5828460127247242</v>
+        <v>0.5854008541932119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5766087834447965</v>
+        <v>0.5788810200319434</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5763411998718628</v>
+        <v>0.5774849206996929</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5760856842884834</v>
+        <v>0.5769710879985885</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5755221291364655</v>
+        <v>0.5768886643785299</v>
       </c>
     </row>
     <row r="100">
@@ -19481,7 +19481,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5702860551794218</v>
+        <v>0.5707597461525616</v>
       </c>
     </row>
     <row r="101">
@@ -19489,7 +19489,7 @@
         <v>244</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5684881966809654</v>
+        <v>0.5706792893860836</v>
       </c>
     </row>
     <row r="102">
@@ -19497,7 +19497,7 @@
         <v>139</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5680996593507031</v>
+        <v>0.5688500964443456</v>
       </c>
     </row>
     <row r="103">
@@ -19505,7 +19505,7 @@
         <v>40</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5671368451524207</v>
+        <v>0.5644912972264796</v>
       </c>
     </row>
     <row r="104">
@@ -19513,7 +19513,7 @@
         <v>98</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5610117775707294</v>
+        <v>0.5614227953490484</v>
       </c>
     </row>
     <row r="105">
@@ -19521,47 +19521,47 @@
         <v>138</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5591391552426639</v>
+        <v>0.5598343366762307</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B106" t="n">
-        <v>0.557536256887444</v>
+        <v>0.5557899137547269</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B107" t="n">
-        <v>0.556072467929554</v>
+        <v>0.5551908438558648</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5534903290829057</v>
+        <v>0.5528924007053005</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5523579445142701</v>
+        <v>0.5528886369642084</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5520187450079911</v>
+        <v>0.5527562141919371</v>
       </c>
     </row>
     <row r="111">
@@ -19569,7 +19569,7 @@
         <v>252</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5498213780526165</v>
+        <v>0.5505661471287916</v>
       </c>
     </row>
     <row r="112">
@@ -19577,103 +19577,103 @@
         <v>53</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5497381802728746</v>
+        <v>0.550171043923484</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5478213623716339</v>
+        <v>0.5488144504371277</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5468378697994097</v>
+        <v>0.5478369257241182</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5463680593401826</v>
+        <v>0.5463790025776786</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B116" t="n">
-        <v>0.545175678180834</v>
+        <v>0.5463351880277317</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B117" t="n">
-        <v>0.544789030794384</v>
+        <v>0.5447407751117197</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5437935068610723</v>
+        <v>0.5443022124027863</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5431540401568924</v>
+        <v>0.5442799048245338</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5420203134002904</v>
+        <v>0.5439441530718137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5417871007911127</v>
+        <v>0.542857410025156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5417113966924847</v>
+        <v>0.5424939360108004</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5415471747992918</v>
+        <v>0.5417258708872233</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5410023075625462</v>
+        <v>0.5415180037528655</v>
       </c>
     </row>
     <row r="125">
@@ -19681,39 +19681,39 @@
         <v>77</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5407088805679316</v>
+        <v>0.5414366424896853</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5401108567811547</v>
+        <v>0.5406535555928139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5390952826723359</v>
+        <v>0.5385030180007058</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5377191487874442</v>
+        <v>0.5383409326150927</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B129" t="n">
-        <v>0.537674493511223</v>
+        <v>0.5376413460962387</v>
       </c>
     </row>
     <row r="130">
@@ -19721,111 +19721,111 @@
         <v>81</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5373054960690661</v>
+        <v>0.5375745354700538</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5367986589221703</v>
+        <v>0.5372226322274808</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="B132" t="n">
-        <v>0.536260749012675</v>
+        <v>0.536397368434434</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B133" t="n">
-        <v>0.535380578287091</v>
+        <v>0.5343273122346746</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5333474031122394</v>
+        <v>0.5340304069711624</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B135" t="n">
-        <v>0.533117981439632</v>
+        <v>0.533771842933915</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="B136" t="n">
-        <v>0.533052119720953</v>
+        <v>0.5335965053399176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5329867978959323</v>
+        <v>0.5330423543369018</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5328644049135921</v>
+        <v>0.532847626445018</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5326846793817862</v>
+        <v>0.5327954564050001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5325357058483476</v>
+        <v>0.532178932438331</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5321761041938807</v>
+        <v>0.5312086168052358</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5314910070162973</v>
+        <v>0.5293657246324333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5291456605792622</v>
+        <v>0.5293300282745922</v>
       </c>
     </row>
     <row r="144">
@@ -19833,47 +19833,47 @@
         <v>117</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5285472186227349</v>
+        <v>0.5291594763450932</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5283860321747487</v>
+        <v>0.5291119870317488</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5281609672177298</v>
+        <v>0.5286072999698195</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5281576651918599</v>
+        <v>0.5283109481264618</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5280639132261729</v>
+        <v>0.5280107532280597</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5277398327354857</v>
+        <v>0.5274938757236892</v>
       </c>
     </row>
     <row r="150">
@@ -19881,39 +19881,39 @@
         <v>133</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5275572367150201</v>
+        <v>0.5272646466113967</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5271747431722253</v>
+        <v>0.5252469099766619</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5240849362617763</v>
+        <v>0.5249878109628926</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5240451468749263</v>
+        <v>0.5244135154750107</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B154" t="n">
-        <v>0.523817013171947</v>
+        <v>0.5239720671499321</v>
       </c>
     </row>
     <row r="155">
@@ -19921,119 +19921,119 @@
         <v>124</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5237752601698492</v>
+        <v>0.5239002286781618</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5235034779375042</v>
+        <v>0.5238826828395476</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5232706524842111</v>
+        <v>0.5237911010554477</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5230821151653715</v>
+        <v>0.5223256696882205</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5230597358310662</v>
+        <v>0.5207773242337954</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5204133439858375</v>
+        <v>0.5200003590651957</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5192000380542736</v>
+        <v>0.5197688640822437</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5188739981152081</v>
+        <v>0.5184780050329649</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5187623882499429</v>
+        <v>0.5184606879259163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5187041604169064</v>
+        <v>0.5182912732525208</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5186392339539883</v>
+        <v>0.5181947571999518</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5184707154552455</v>
+        <v>0.5181144486852947</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5178797007870862</v>
+        <v>0.5157101539490554</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5170268731270977</v>
+        <v>0.5146720499436256</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="B169" t="n">
-        <v>0.51487684679845</v>
+        <v>0.5146316943024861</v>
       </c>
     </row>
     <row r="170">
@@ -20041,47 +20041,47 @@
         <v>165</v>
       </c>
       <c r="B170" t="n">
-        <v>0.514194316007264</v>
+        <v>0.5146075812957984</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5138877248510428</v>
+        <v>0.5128924259678769</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5133498890764028</v>
+        <v>0.5126133619617345</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5127458289979713</v>
+        <v>0.5118398195803028</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5111995541896209</v>
+        <v>0.5092138685231866</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5092786951477907</v>
+        <v>0.509194131377504</v>
       </c>
     </row>
     <row r="176">
@@ -20089,23 +20089,23 @@
         <v>232</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5089250958424685</v>
+        <v>0.5091869451642314</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5044068455032672</v>
+        <v>0.5039576314414866</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5041432822832992</v>
+        <v>0.5038918828356761</v>
       </c>
     </row>
     <row r="179">
@@ -20113,7 +20113,7 @@
         <v>66</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4932652092234266</v>
+        <v>0.4916124866851519</v>
       </c>
     </row>
     <row r="180">
@@ -20121,7 +20121,7 @@
         <v>137</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4805071004987226</v>
+        <v>0.4790723962481566</v>
       </c>
     </row>
     <row r="181">
@@ -20129,7 +20129,7 @@
         <v>97</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4796582428872823</v>
+        <v>0.4778077334832291</v>
       </c>
     </row>
     <row r="182">
@@ -20137,7 +20137,7 @@
         <v>136</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4719156861701247</v>
+        <v>0.470431125669326</v>
       </c>
     </row>
     <row r="183">
@@ -20145,7 +20145,7 @@
         <v>250</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4705663457483091</v>
+        <v>0.4694324148381674</v>
       </c>
     </row>
     <row r="184">
@@ -20153,23 +20153,23 @@
         <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4683101020975023</v>
+        <v>0.466743130579259</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4644453422482001</v>
+        <v>0.4616678111860799</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4628369363174373</v>
+        <v>0.459638783153791</v>
       </c>
     </row>
     <row r="187">
@@ -20177,7 +20177,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4601489723722816</v>
+        <v>0.4585357952735477</v>
       </c>
     </row>
     <row r="188">
@@ -20185,7 +20185,7 @@
         <v>135</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4589248613221159</v>
+        <v>0.4545883737509753</v>
       </c>
     </row>
     <row r="189">
@@ -20193,7 +20193,7 @@
         <v>61</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4562196847962725</v>
+        <v>0.4536189542269509</v>
       </c>
     </row>
     <row r="190">
@@ -20201,15 +20201,15 @@
         <v>116</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4506312088651825</v>
+        <v>0.4489830581926208</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4469247958415185</v>
+        <v>0.4459020859849816</v>
       </c>
     </row>
     <row r="192">
@@ -20217,15 +20217,15 @@
         <v>85</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4468270685442595</v>
+        <v>0.4444579311053922</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4465626447211702</v>
+        <v>0.4442451886154591</v>
       </c>
     </row>
     <row r="194">
@@ -20233,191 +20233,191 @@
         <v>123</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4457388753091546</v>
+        <v>0.4436353927686107</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4426005031261167</v>
+        <v>0.44023400359575</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="B196" t="n">
-        <v>0.44224804704419</v>
+        <v>0.4399785186946585</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4418734251423593</v>
+        <v>0.4397622615844604</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4416375315956847</v>
+        <v>0.4394326262479731</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4414768746937348</v>
+        <v>0.4393514164596579</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4410864040627331</v>
+        <v>0.4371477056693854</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4384657654199988</v>
+        <v>0.4369794262549716</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="B202" t="n">
-        <v>0.4378720827535551</v>
+        <v>0.4351159591422762</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4375592684578439</v>
+        <v>0.4350918121040857</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4366341415920196</v>
+        <v>0.4345079115367863</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4364025421766182</v>
+        <v>0.434151574904914</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B206" t="n">
-        <v>0.4363683425594284</v>
+        <v>0.4338403028810084</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4363319732185361</v>
+        <v>0.4328778344942845</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="B208" t="n">
-        <v>0.433747480787148</v>
+        <v>0.4315087090602681</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4334501422938741</v>
+        <v>0.4312289566043352</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4327463007204947</v>
+        <v>0.4309091258342969</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B211" t="n">
-        <v>0.4326968200314416</v>
+        <v>0.4299703569215543</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4323697024866603</v>
+        <v>0.4298406328718496</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4322592374091422</v>
+        <v>0.4297582864027949</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4320828204945013</v>
+        <v>0.429346684286974</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="B215" t="n">
-        <v>0.4316333393413808</v>
+        <v>0.4283856210992566</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B216" t="n">
-        <v>0.430278962092499</v>
+        <v>0.426851007826844</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B217" t="n">
-        <v>0.429517459357069</v>
+        <v>0.425974878558167</v>
       </c>
     </row>
     <row r="218">
@@ -20425,7 +20425,7 @@
         <v>222</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4274497248919292</v>
+        <v>0.4258368749146296</v>
       </c>
     </row>
     <row r="219">
@@ -20433,63 +20433,63 @@
         <v>163</v>
       </c>
       <c r="B219" t="n">
-        <v>0.427114030303787</v>
+        <v>0.425181031030446</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="B220" t="n">
-        <v>0.425665116702321</v>
+        <v>0.4222221991117669</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4242406883524577</v>
+        <v>0.4204662046345685</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="B222" t="n">
-        <v>0.4236326114590662</v>
+        <v>0.42041594240448</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4228383001424881</v>
+        <v>0.4201909934611895</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4225616529652226</v>
+        <v>0.4195285929151994</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B225" t="n">
-        <v>0.4210883110024147</v>
+        <v>0.417338576859405</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4200995989530319</v>
+        <v>0.4150747305196018</v>
       </c>
     </row>
     <row r="227">
@@ -20497,7 +20497,7 @@
         <v>161</v>
       </c>
       <c r="B227" t="n">
-        <v>0.417421312893684</v>
+        <v>0.4124929728995921</v>
       </c>
     </row>
     <row r="228">
@@ -20505,7 +20505,7 @@
         <v>248</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3949947665751073</v>
+        <v>0.3916545123571975</v>
       </c>
     </row>
     <row r="229">
@@ -20513,7 +20513,7 @@
         <v>186</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3905809689461924</v>
+        <v>0.3865913939758068</v>
       </c>
     </row>
     <row r="230">
@@ -20521,23 +20521,23 @@
         <v>247</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3896696530578092</v>
+        <v>0.3863331406166964</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B231" t="n">
-        <v>0.386537750647968</v>
+        <v>0.3810440440574939</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3850339785172927</v>
+        <v>0.3806575114710931</v>
       </c>
     </row>
     <row r="233">
@@ -20545,7 +20545,7 @@
         <v>184</v>
       </c>
       <c r="B233" t="n">
-        <v>0.384892719753559</v>
+        <v>0.3781739809116028</v>
       </c>
     </row>
     <row r="234">
@@ -20553,7 +20553,7 @@
         <v>121</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3707070066219154</v>
+        <v>0.3664435736371561</v>
       </c>
     </row>
     <row r="235">
@@ -20561,7 +20561,7 @@
         <v>90</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3697741646871632</v>
+        <v>0.3649084449900614</v>
       </c>
     </row>
     <row r="236">
@@ -20569,7 +20569,7 @@
         <v>129</v>
       </c>
       <c r="B236" t="n">
-        <v>0.367126260907445</v>
+        <v>0.3624174058101221</v>
       </c>
     </row>
     <row r="237">
@@ -20577,7 +20577,7 @@
         <v>214</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3653699285908669</v>
+        <v>0.361985305154603</v>
       </c>
     </row>
     <row r="238">
@@ -20585,31 +20585,31 @@
         <v>162</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3622777685163702</v>
+        <v>0.3581888552705149</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3613167558364959</v>
+        <v>0.3565851480389581</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3604356069506882</v>
+        <v>0.3548841326147224</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3596809156665495</v>
+        <v>0.3538104609838379</v>
       </c>
     </row>
     <row r="242">
@@ -20617,15 +20617,15 @@
         <v>239</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3582659998825973</v>
+        <v>0.3537386994577829</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3580497862612594</v>
+        <v>0.3537243114324256</v>
       </c>
     </row>
     <row r="244">
@@ -20633,31 +20633,31 @@
         <v>170</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3580250698101241</v>
+        <v>0.3534715762620668</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B245" t="n">
-        <v>0.357173956688302</v>
+        <v>0.3514420820892857</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3563643119660888</v>
+        <v>0.3506996814738267</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3535395068350886</v>
+        <v>0.3468629854882611</v>
       </c>
     </row>
     <row r="248">
@@ -20665,39 +20665,39 @@
         <v>238</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3512143649662695</v>
+        <v>0.3466069451693615</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3511667956916301</v>
+        <v>0.3463914722047747</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3510162350742829</v>
+        <v>0.3462346840628964</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3505323884533634</v>
+        <v>0.3440738313465347</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3490883933398277</v>
+        <v>0.3435540414182167</v>
       </c>
     </row>
     <row r="253">
@@ -20705,7 +20705,7 @@
         <v>176</v>
       </c>
       <c r="B253" t="n">
-        <v>0.347191887167506</v>
+        <v>0.3393742969265104</v>
       </c>
     </row>
     <row r="254">
@@ -20713,7 +20713,7 @@
         <v>246</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3392795426384513</v>
+        <v>0.3335733674380217</v>
       </c>
     </row>
     <row r="255">
@@ -20721,7 +20721,7 @@
         <v>235</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3150936992584505</v>
+        <v>0.3064392598882635</v>
       </c>
     </row>
     <row r="256">
@@ -20729,7 +20729,7 @@
         <v>237</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3106826106477447</v>
+        <v>0.3041690005385008</v>
       </c>
     </row>
     <row r="257">
@@ -20737,7 +20737,7 @@
         <v>236</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3073766621474342</v>
+        <v>0.3009016610292082</v>
       </c>
     </row>
   </sheetData>

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/29/24</t>
+          <t>08/30/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7520669835929195</v>
+        <v>0.7501334446939418</v>
       </c>
     </row>
     <row r="3">
@@ -18705,7 +18705,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7419426313801122</v>
+        <v>0.7417102541133376</v>
       </c>
     </row>
     <row r="4">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7376032255725115</v>
+        <v>0.737129843364679</v>
       </c>
     </row>
     <row r="5">
@@ -18721,7 +18721,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7373558224938708</v>
+        <v>0.7343628323805469</v>
       </c>
     </row>
     <row r="6">
@@ -18729,7 +18729,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7322564285779858</v>
+        <v>0.7292325807785024</v>
       </c>
     </row>
     <row r="7">
@@ -18737,7 +18737,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7308818904785781</v>
+        <v>0.7281483734140853</v>
       </c>
     </row>
     <row r="8">
@@ -18745,7 +18745,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7300929923918146</v>
+        <v>0.7269724153463858</v>
       </c>
     </row>
     <row r="9">
@@ -18753,7 +18753,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7173846064049632</v>
+        <v>0.7144108902790496</v>
       </c>
     </row>
     <row r="10">
@@ -18761,7 +18761,7 @@
         <v>71</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7075475060370087</v>
+        <v>0.7046156405058827</v>
       </c>
     </row>
     <row r="11">
@@ -18769,7 +18769,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6904031170755346</v>
+        <v>0.6891961971777285</v>
       </c>
     </row>
     <row r="12">
@@ -18777,7 +18777,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6902482538099973</v>
+        <v>0.6875516021543341</v>
       </c>
     </row>
     <row r="13">
@@ -18785,7 +18785,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6866021429513069</v>
+        <v>0.6854523248295538</v>
       </c>
     </row>
     <row r="14">
@@ -18793,7 +18793,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6835115041093401</v>
+        <v>0.6822871795423344</v>
       </c>
     </row>
     <row r="15">
@@ -18801,23 +18801,23 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.679892878299704</v>
+        <v>0.6787496617819456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6760916909055812</v>
+        <v>0.6738015127490707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6743156429195106</v>
+        <v>0.6734605233100353</v>
       </c>
     </row>
     <row r="18">
@@ -18825,7 +18825,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6731421601854014</v>
+        <v>0.6720333146539674</v>
       </c>
     </row>
     <row r="19">
@@ -18833,23 +18833,23 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6710931733612077</v>
+        <v>0.670401432921659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6697810969169514</v>
+        <v>0.6695031892810187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6689571082411478</v>
+        <v>0.6688311138174718</v>
       </c>
     </row>
     <row r="22">
@@ -18857,7 +18857,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6683039113222652</v>
+        <v>0.6680687008598748</v>
       </c>
     </row>
     <row r="23">
@@ -18865,7 +18865,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6677571666700218</v>
+        <v>0.6672505309184418</v>
       </c>
     </row>
     <row r="24">
@@ -18873,23 +18873,23 @@
         <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6661851425586081</v>
+        <v>0.6650818730540693</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.662796198101135</v>
+        <v>0.6633145853396308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6624869583455836</v>
+        <v>0.6618517595132714</v>
       </c>
     </row>
     <row r="27">
@@ -18897,7 +18897,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6601926067969999</v>
+        <v>0.6599638751870088</v>
       </c>
     </row>
     <row r="28">
@@ -18905,7 +18905,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6579987113292254</v>
+        <v>0.6581817396291638</v>
       </c>
     </row>
     <row r="29">
@@ -18913,7 +18913,7 @@
         <v>193</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6578773570423847</v>
+        <v>0.6554834709537098</v>
       </c>
     </row>
     <row r="30">
@@ -18921,7 +18921,7 @@
         <v>101</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6519172517200634</v>
+        <v>0.6510343727446333</v>
       </c>
     </row>
     <row r="31">
@@ -18929,31 +18929,31 @@
         <v>72</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6488701060247473</v>
+        <v>0.6490463515607182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6449126729439323</v>
+        <v>0.6444751062159868</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6445272335425768</v>
+        <v>0.644033357649002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6436137280771536</v>
+        <v>0.6438464387277217</v>
       </c>
     </row>
     <row r="35">
@@ -18961,7 +18961,7 @@
         <v>255</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6417467163625353</v>
+        <v>0.6393498807664626</v>
       </c>
     </row>
     <row r="36">
@@ -18969,7 +18969,7 @@
         <v>140</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6377441372530408</v>
+        <v>0.6370659818152822</v>
       </c>
     </row>
     <row r="37">
@@ -18977,111 +18977,111 @@
         <v>143</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6341228731801242</v>
+        <v>0.6349475772399689</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6261490084375146</v>
+        <v>0.6253131057784228</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6255562786243044</v>
+        <v>0.6249637588844582</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6247656480215318</v>
+        <v>0.6249343016266201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6246218437725025</v>
+        <v>0.6248110712245233</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6234480923521885</v>
+        <v>0.6233864222906085</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6229991044240001</v>
+        <v>0.6220340768375044</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6199496587718704</v>
+        <v>0.6207202393055685</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6199255282219633</v>
+        <v>0.6186357028449908</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6197463280048531</v>
+        <v>0.6185354401919956</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6196329718689738</v>
+        <v>0.6182992664350002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6189200937172472</v>
+        <v>0.6182700042431721</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6181660718447565</v>
+        <v>0.6180940516189547</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6174393723855951</v>
+        <v>0.6169245034025962</v>
       </c>
     </row>
     <row r="51">
@@ -19089,175 +19089,175 @@
         <v>254</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6171014992192407</v>
+        <v>0.6166940924124784</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6170997705711686</v>
+        <v>0.6157933977810067</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6169926802253008</v>
+        <v>0.6157336956526785</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6161204721658028</v>
+        <v>0.6156101043018782</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6159742288723937</v>
+        <v>0.6147677877449406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6151808461601176</v>
+        <v>0.6147118412558186</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6137438364195626</v>
+        <v>0.6146760663120732</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6128867991370011</v>
+        <v>0.6115170155874087</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6121792688173459</v>
+        <v>0.6114660701309856</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6120629345983258</v>
+        <v>0.6109357938185055</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6117463745511951</v>
+        <v>0.6106922096327042</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6111609079552521</v>
+        <v>0.6105594696274887</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6109989502745347</v>
+        <v>0.610443826063238</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6108740430989412</v>
+        <v>0.6097138234504522</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6108506330005393</v>
+        <v>0.6095343834740669</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6105055038759228</v>
+        <v>0.6094012609314717</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B67" t="n">
-        <v>0.608757741490129</v>
+        <v>0.6093366034374057</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6086133485939772</v>
+        <v>0.609229531350015</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6078577222807677</v>
+        <v>0.6084084423026405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6066451170475674</v>
+        <v>0.6072461799919319</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6064514894123259</v>
+        <v>0.6053645164429282</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6042019459932083</v>
+        <v>0.6050259939081301</v>
       </c>
     </row>
     <row r="73">
@@ -19265,71 +19265,71 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6039648643584773</v>
+        <v>0.6049588821532044</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6036765789219268</v>
+        <v>0.6028373712302456</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6024241308994239</v>
+        <v>0.6027578088251254</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6019818270800209</v>
+        <v>0.6012157933058653</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6013891276237676</v>
+        <v>0.6008328157273594</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6009819326354277</v>
+        <v>0.6003359971721136</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B79" t="n">
-        <v>0.60077121467551</v>
+        <v>0.5997355887088406</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6006984127265478</v>
+        <v>0.599582187465188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6005801657317789</v>
+        <v>0.5995137745975067</v>
       </c>
     </row>
     <row r="82">
@@ -19337,39 +19337,39 @@
         <v>206</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6004192830283875</v>
+        <v>0.5993281927757944</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5999353175459458</v>
+        <v>0.5988667250566556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5982891059084643</v>
+        <v>0.5988606252592322</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5978762457069702</v>
+        <v>0.5973578847548973</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5975500718995224</v>
+        <v>0.5965432262028061</v>
       </c>
     </row>
     <row r="87">
@@ -19377,15 +19377,15 @@
         <v>212</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5975243211672883</v>
+        <v>0.5964166551287929</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5974455437310467</v>
+        <v>0.5962913307254336</v>
       </c>
     </row>
     <row r="89">
@@ -19393,7 +19393,7 @@
         <v>134</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5932816667808194</v>
+        <v>0.5920713940896997</v>
       </c>
     </row>
     <row r="90">
@@ -19401,7 +19401,7 @@
         <v>219</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5927638284530008</v>
+        <v>0.5916625837598258</v>
       </c>
     </row>
     <row r="91">
@@ -19409,7 +19409,7 @@
         <v>167</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5922465162629245</v>
+        <v>0.5910019847730954</v>
       </c>
     </row>
     <row r="92">
@@ -19417,23 +19417,23 @@
         <v>68</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5864954715061534</v>
+        <v>0.5864526155592824</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5864073291809636</v>
+        <v>0.5861983259521213</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5863928928275902</v>
+        <v>0.5853341200243051</v>
       </c>
     </row>
     <row r="95">
@@ -19441,7 +19441,7 @@
         <v>175</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5854008541932119</v>
+        <v>0.5841946476540661</v>
       </c>
     </row>
     <row r="96">
@@ -19449,31 +19449,31 @@
         <v>234</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5788810200319434</v>
+        <v>0.577853638030821</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5774849206996929</v>
+        <v>0.5769287540452269</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5769710879985885</v>
+        <v>0.5766962654082906</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5768886643785299</v>
+        <v>0.5763361028819656</v>
       </c>
     </row>
     <row r="100">
@@ -19481,7 +19481,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5707597461525616</v>
+        <v>0.5707185056136299</v>
       </c>
     </row>
     <row r="101">
@@ -19489,7 +19489,7 @@
         <v>244</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5706792893860836</v>
+        <v>0.5697104380685623</v>
       </c>
     </row>
     <row r="102">
@@ -19497,7 +19497,7 @@
         <v>139</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5688500964443456</v>
+        <v>0.5689781017417522</v>
       </c>
     </row>
     <row r="103">
@@ -19505,7 +19505,7 @@
         <v>40</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5644912972264796</v>
+        <v>0.5654836840798557</v>
       </c>
     </row>
     <row r="104">
@@ -19513,7 +19513,7 @@
         <v>98</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5614227953490484</v>
+        <v>0.5613819418842549</v>
       </c>
     </row>
     <row r="105">
@@ -19521,23 +19521,23 @@
         <v>138</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5598343366762307</v>
+        <v>0.5599611116459918</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5557899137547269</v>
+        <v>0.5563865261186118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5551908438558648</v>
+        <v>0.5554453472512338</v>
       </c>
     </row>
     <row r="108">
@@ -19545,7 +19545,7 @@
         <v>190</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5528924007053005</v>
+        <v>0.5530130092236463</v>
       </c>
     </row>
     <row r="109">
@@ -19553,7 +19553,7 @@
         <v>50</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5528886369642084</v>
+        <v>0.5526770712308583</v>
       </c>
     </row>
     <row r="110">
@@ -19561,7 +19561,7 @@
         <v>21</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5527562141919371</v>
+        <v>0.5524016063048911</v>
       </c>
     </row>
     <row r="111">
@@ -19569,7 +19569,7 @@
         <v>252</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5505661471287916</v>
+        <v>0.5508594974973121</v>
       </c>
     </row>
     <row r="112">
@@ -19577,7 +19577,7 @@
         <v>53</v>
       </c>
       <c r="B112" t="n">
-        <v>0.550171043923484</v>
+        <v>0.5499510745035412</v>
       </c>
     </row>
     <row r="113">
@@ -19585,7 +19585,7 @@
         <v>105</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5488144504371277</v>
+        <v>0.5487760327776342</v>
       </c>
     </row>
     <row r="114">
@@ -19593,7 +19593,7 @@
         <v>31</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5478369257241182</v>
+        <v>0.5474924903786582</v>
       </c>
     </row>
     <row r="115">
@@ -19601,7 +19601,7 @@
         <v>108</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5463790025776786</v>
+        <v>0.546338683524012</v>
       </c>
     </row>
     <row r="116">
@@ -19609,39 +19609,39 @@
         <v>57</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5463351880277317</v>
+        <v>0.5461105053538976</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5447407751117197</v>
+        <v>0.5443996935226891</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5443022124027863</v>
+        <v>0.5443844233469091</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5442799048245338</v>
+        <v>0.5441190575108881</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5439441530718137</v>
+        <v>0.5440929802302981</v>
       </c>
     </row>
     <row r="121">
@@ -19649,7 +19649,7 @@
         <v>112</v>
       </c>
       <c r="B121" t="n">
-        <v>0.542857410025156</v>
+        <v>0.5428158090201617</v>
       </c>
     </row>
     <row r="122">
@@ -19657,7 +19657,7 @@
         <v>251</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5424939360108004</v>
+        <v>0.5427852931209879</v>
       </c>
     </row>
     <row r="123">
@@ -19665,7 +19665,7 @@
         <v>201</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5417258708872233</v>
+        <v>0.5419108578774101</v>
       </c>
     </row>
     <row r="124">
@@ -19673,7 +19673,7 @@
         <v>63</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5415180037528655</v>
+        <v>0.5412927468311111</v>
       </c>
     </row>
     <row r="125">
@@ -19681,7 +19681,7 @@
         <v>77</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5414366424896853</v>
+        <v>0.5412180304469466</v>
       </c>
     </row>
     <row r="126">
@@ -19689,7 +19689,7 @@
         <v>38</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5406535555928139</v>
+        <v>0.5402912657234176</v>
       </c>
     </row>
     <row r="127">
@@ -19697,7 +19697,7 @@
         <v>205</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5385030180007058</v>
+        <v>0.5386956224424452</v>
       </c>
     </row>
     <row r="128">
@@ -19705,7 +19705,7 @@
         <v>118</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5383409326150927</v>
+        <v>0.5382987937969075</v>
       </c>
     </row>
     <row r="129">
@@ -19713,7 +19713,7 @@
         <v>56</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5376413460962387</v>
+        <v>0.5374144109103732</v>
       </c>
     </row>
     <row r="130">
@@ -19721,39 +19721,39 @@
         <v>81</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5375745354700538</v>
+        <v>0.5373499980884712</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5372226322274808</v>
+        <v>0.537329027562634</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="B132" t="n">
-        <v>0.536397368434434</v>
+        <v>0.5371829910945292</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5343273122346746</v>
+        <v>0.535245569533419</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5340304069711624</v>
+        <v>0.5345243576859233</v>
       </c>
     </row>
     <row r="135">
@@ -19761,7 +19761,7 @@
         <v>111</v>
       </c>
       <c r="B135" t="n">
-        <v>0.533771842933915</v>
+        <v>0.5337301052443731</v>
       </c>
     </row>
     <row r="136">
@@ -19769,7 +19769,7 @@
         <v>153</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5335965053399176</v>
+        <v>0.5335553950685884</v>
       </c>
     </row>
     <row r="137">
@@ -19777,95 +19777,95 @@
         <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5330423543369018</v>
+        <v>0.5330004702083876</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B138" t="n">
-        <v>0.532847626445018</v>
+        <v>0.5327378240238058</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5327954564050001</v>
+        <v>0.5326211879186268</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B140" t="n">
-        <v>0.532178932438331</v>
+        <v>0.5325670676075402</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5312086168052358</v>
+        <v>0.5318113340496283</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5293657246324333</v>
+        <v>0.5301826427867783</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5293300282745922</v>
+        <v>0.5295636056735473</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5291594763450932</v>
+        <v>0.5295220209393748</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5291119870317488</v>
+        <v>0.5291170352550013</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5286072999698195</v>
+        <v>0.5290701052186588</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5283109481264618</v>
+        <v>0.5289432591962557</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5280107532280597</v>
+        <v>0.5283809331057855</v>
       </c>
     </row>
     <row r="149">
@@ -19873,7 +19873,7 @@
         <v>94</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5274938757236892</v>
+        <v>0.5272697149425613</v>
       </c>
     </row>
     <row r="150">
@@ -19881,7 +19881,7 @@
         <v>133</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5272646466113967</v>
+        <v>0.5272237716778837</v>
       </c>
     </row>
     <row r="151">
@@ -19889,7 +19889,7 @@
         <v>76</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5252469099766619</v>
+        <v>0.5264500815964995</v>
       </c>
     </row>
     <row r="152">
@@ -19897,7 +19897,7 @@
         <v>210</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5249878109628926</v>
+        <v>0.5251849476862031</v>
       </c>
     </row>
     <row r="153">
@@ -19905,47 +19905,47 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5244135154750107</v>
+        <v>0.52437234045536</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5239720671499321</v>
+        <v>0.5240777453893365</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5239002286781618</v>
+        <v>0.5239301854408722</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5238826828395476</v>
+        <v>0.523857878504032</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5237911010554477</v>
+        <v>0.5238242730325869</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5223256696882205</v>
+        <v>0.5235619273670452</v>
       </c>
     </row>
     <row r="159">
@@ -19953,7 +19953,7 @@
         <v>55</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5207773242337954</v>
+        <v>0.5220204586363482</v>
       </c>
     </row>
     <row r="160">
@@ -19961,7 +19961,7 @@
         <v>217</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5200003590651957</v>
+        <v>0.5201991049475617</v>
       </c>
     </row>
     <row r="161">
@@ -19969,15 +19969,15 @@
         <v>158</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5197688640822437</v>
+        <v>0.5197267552582415</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5184780050329649</v>
+        <v>0.51968300984982</v>
       </c>
     </row>
     <row r="163">
@@ -19985,31 +19985,31 @@
         <v>174</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5184606879259163</v>
+        <v>0.5184195703693825</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5182912732525208</v>
+        <v>0.5183836803951557</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5181947571999518</v>
+        <v>0.5182502746491418</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5181144486852947</v>
+        <v>0.518249790513012</v>
       </c>
     </row>
     <row r="167">
@@ -20017,7 +20017,7 @@
         <v>203</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5157101539490554</v>
+        <v>0.5176334601179395</v>
       </c>
     </row>
     <row r="168">
@@ -20025,7 +20025,7 @@
         <v>36</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5146720499436256</v>
+        <v>0.5156266424965209</v>
       </c>
     </row>
     <row r="169">
@@ -20033,7 +20033,7 @@
         <v>224</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5146316943024861</v>
+        <v>0.514828371900251</v>
       </c>
     </row>
     <row r="170">
@@ -20041,55 +20041,55 @@
         <v>165</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5146075812957984</v>
+        <v>0.5145653063238819</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5128924259678769</v>
+        <v>0.5130752777533514</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5126133619617345</v>
+        <v>0.5128527512951412</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5118398195803028</v>
+        <v>0.5127934494771312</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5092138685231866</v>
+        <v>0.5107364839718512</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="B175" t="n">
-        <v>0.509194131377504</v>
+        <v>0.5093781201829234</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5091869451642314</v>
+        <v>0.5091722078805722</v>
       </c>
     </row>
     <row r="177">
@@ -20097,7 +20097,7 @@
         <v>242</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5039576314414866</v>
+        <v>0.5041404324427202</v>
       </c>
     </row>
     <row r="178">
@@ -20105,7 +20105,7 @@
         <v>181</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5038918828356761</v>
+        <v>0.5038515488814621</v>
       </c>
     </row>
     <row r="179">
@@ -20113,7 +20113,7 @@
         <v>66</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4916124866851519</v>
+        <v>0.4919827796545825</v>
       </c>
     </row>
     <row r="180">
@@ -20121,7 +20121,7 @@
         <v>137</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4790723962481566</v>
+        <v>0.4795854899677941</v>
       </c>
     </row>
     <row r="181">
@@ -20129,7 +20129,7 @@
         <v>97</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4778077334832291</v>
+        <v>0.4781758835522625</v>
       </c>
     </row>
     <row r="182">
@@ -20137,7 +20137,7 @@
         <v>136</v>
       </c>
       <c r="B182" t="n">
-        <v>0.470431125669326</v>
+        <v>0.4709403415094777</v>
       </c>
     </row>
     <row r="183">
@@ -20145,7 +20145,7 @@
         <v>250</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4694324148381674</v>
+        <v>0.4700682582404903</v>
       </c>
     </row>
     <row r="184">
@@ -20153,7 +20153,7 @@
         <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>0.466743130579259</v>
+        <v>0.4672407704402434</v>
       </c>
     </row>
     <row r="185">
@@ -20161,7 +20161,7 @@
         <v>249</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4616678111860799</v>
+        <v>0.4622992826408316</v>
       </c>
     </row>
     <row r="186">
@@ -20169,7 +20169,7 @@
         <v>96</v>
       </c>
       <c r="B186" t="n">
-        <v>0.459638783153791</v>
+        <v>0.4608905894178772</v>
       </c>
     </row>
     <row r="187">
@@ -20177,7 +20177,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4585357952735477</v>
+        <v>0.4590305391915497</v>
       </c>
     </row>
     <row r="188">
@@ -20185,7 +20185,7 @@
         <v>135</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4545883737509753</v>
+        <v>0.4559856425356057</v>
       </c>
     </row>
     <row r="189">
@@ -20193,7 +20193,7 @@
         <v>61</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4536189542269509</v>
+        <v>0.4539084701978784</v>
       </c>
     </row>
     <row r="190">
@@ -20201,7 +20201,7 @@
         <v>116</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4489830581926208</v>
+        <v>0.4494597264742093</v>
       </c>
     </row>
     <row r="191">
@@ -20209,7 +20209,7 @@
         <v>209</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4459020859849816</v>
+        <v>0.446593086212351</v>
       </c>
     </row>
     <row r="192">
@@ -20217,7 +20217,7 @@
         <v>85</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4444579311053922</v>
+        <v>0.4447522928811696</v>
       </c>
     </row>
     <row r="193">
@@ -20225,7 +20225,7 @@
         <v>60</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4442451886154591</v>
+        <v>0.4445390427122103</v>
       </c>
     </row>
     <row r="194">
@@ -20233,7 +20233,7 @@
         <v>123</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4436353927686107</v>
+        <v>0.4441171292387829</v>
       </c>
     </row>
     <row r="195">
@@ -20241,7 +20241,7 @@
         <v>157</v>
       </c>
       <c r="B195" t="n">
-        <v>0.44023400359575</v>
+        <v>0.4407134487830057</v>
       </c>
     </row>
     <row r="196">
@@ -20249,7 +20249,7 @@
         <v>216</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4399785186946585</v>
+        <v>0.4406841660130292</v>
       </c>
     </row>
     <row r="197">
@@ -20257,87 +20257,87 @@
         <v>115</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4397622615844604</v>
+        <v>0.440243103889187</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4394326262479731</v>
+        <v>0.4398291248953278</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4393514164596579</v>
+        <v>0.4397287914121339</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4371477056693854</v>
+        <v>0.4383150687646045</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4369794262549716</v>
+        <v>0.4378399135444996</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="B202" t="n">
-        <v>0.4351159591422762</v>
+        <v>0.4357988710274517</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4350918121040857</v>
+        <v>0.4354510826873431</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4345079115367863</v>
+        <v>0.4354142976569494</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="B205" t="n">
-        <v>0.434151574904914</v>
+        <v>0.4349955023793463</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>0.4338403028810084</v>
+        <v>0.4347643206164366</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4328778344942845</v>
+        <v>0.4346395621433395</v>
       </c>
     </row>
     <row r="208">
@@ -20345,7 +20345,7 @@
         <v>231</v>
       </c>
       <c r="B208" t="n">
-        <v>0.4315087090602681</v>
+        <v>0.4322035096259269</v>
       </c>
     </row>
     <row r="209">
@@ -20353,7 +20353,7 @@
         <v>156</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4312289566043352</v>
+        <v>0.4317116839718054</v>
       </c>
     </row>
     <row r="210">
@@ -20361,7 +20361,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4309091258342969</v>
+        <v>0.4316189862624723</v>
       </c>
     </row>
     <row r="211">
@@ -20369,23 +20369,23 @@
         <v>172</v>
       </c>
       <c r="B211" t="n">
-        <v>0.4299703569215543</v>
+        <v>0.4304567388245525</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4298406328718496</v>
+        <v>0.4302440033623776</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4297582864027949</v>
+        <v>0.4301420292108027</v>
       </c>
     </row>
     <row r="214">
@@ -20393,7 +20393,7 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>0.429346684286974</v>
+        <v>0.4300167160554416</v>
       </c>
     </row>
     <row r="215">
@@ -20401,23 +20401,23 @@
         <v>83</v>
       </c>
       <c r="B215" t="n">
-        <v>0.4283856210992566</v>
+        <v>0.4297377872649712</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B216" t="n">
-        <v>0.426851007826844</v>
+        <v>0.427587282117785</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B217" t="n">
-        <v>0.425974878558167</v>
+        <v>0.4273267717001381</v>
       </c>
     </row>
     <row r="218">
@@ -20425,7 +20425,7 @@
         <v>222</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4258368749146296</v>
+        <v>0.4265510113560076</v>
       </c>
     </row>
     <row r="219">
@@ -20433,7 +20433,7 @@
         <v>163</v>
       </c>
       <c r="B219" t="n">
-        <v>0.425181031030446</v>
+        <v>0.4256740874854273</v>
       </c>
     </row>
     <row r="220">
@@ -20441,39 +20441,39 @@
         <v>230</v>
       </c>
       <c r="B220" t="n">
-        <v>0.4222221991117669</v>
+        <v>0.4229264173435436</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4204662046345685</v>
+        <v>0.4220498966555591</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="B222" t="n">
-        <v>0.42041594240448</v>
+        <v>0.4214465799872265</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4201909934611895</v>
+        <v>0.4209599855007634</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4195285929151994</v>
+        <v>0.4208719973468465</v>
       </c>
     </row>
     <row r="225">
@@ -20481,7 +20481,7 @@
         <v>179</v>
       </c>
       <c r="B225" t="n">
-        <v>0.417338576859405</v>
+        <v>0.417823163237815</v>
       </c>
     </row>
     <row r="226">
@@ -20489,7 +20489,7 @@
         <v>89</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4150747305196018</v>
+        <v>0.416447170140784</v>
       </c>
     </row>
     <row r="227">
@@ -20497,7 +20497,7 @@
         <v>161</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4124929728995921</v>
+        <v>0.4141346405593411</v>
       </c>
     </row>
     <row r="228">
@@ -20505,7 +20505,7 @@
         <v>248</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3916545123571975</v>
+        <v>0.3925220873773694</v>
       </c>
     </row>
     <row r="229">
@@ -20513,7 +20513,7 @@
         <v>186</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3865913939758068</v>
+        <v>0.3873431357626024</v>
       </c>
     </row>
     <row r="230">
@@ -20521,23 +20521,23 @@
         <v>247</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3863331406166964</v>
+        <v>0.3871902622638588</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3810440440574939</v>
+        <v>0.3821740992849041</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3806575114710931</v>
+        <v>0.3817875314993371</v>
       </c>
     </row>
     <row r="233">
@@ -20545,7 +20545,7 @@
         <v>184</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3781739809116028</v>
+        <v>0.3796191624113534</v>
       </c>
     </row>
     <row r="234">
@@ -20553,7 +20553,7 @@
         <v>121</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3664435736371561</v>
+        <v>0.3672328570271651</v>
       </c>
     </row>
     <row r="235">
@@ -20561,7 +20561,7 @@
         <v>90</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3649084449900614</v>
+        <v>0.3655184811846721</v>
       </c>
     </row>
     <row r="236">
@@ -20569,7 +20569,7 @@
         <v>129</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3624174058101221</v>
+        <v>0.3632106122535265</v>
       </c>
     </row>
     <row r="237">
@@ -20577,7 +20577,7 @@
         <v>214</v>
       </c>
       <c r="B237" t="n">
-        <v>0.361985305154603</v>
+        <v>0.3629863675452126</v>
       </c>
     </row>
     <row r="238">
@@ -20585,7 +20585,7 @@
         <v>162</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3581888552705149</v>
+        <v>0.3589938208042283</v>
       </c>
     </row>
     <row r="239">
@@ -20593,7 +20593,7 @@
         <v>221</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3565851480389581</v>
+        <v>0.357604156790503</v>
       </c>
     </row>
     <row r="240">
@@ -20601,31 +20601,31 @@
         <v>128</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3548841326147224</v>
+        <v>0.3556867087088774</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3538104609838379</v>
+        <v>0.3553970977533982</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3537386994577829</v>
+        <v>0.3548232706706828</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3537243114324256</v>
+        <v>0.3547215451902604</v>
       </c>
     </row>
     <row r="244">
@@ -20633,71 +20633,71 @@
         <v>170</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3534715762620668</v>
+        <v>0.3542862696939056</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3514420820892857</v>
+        <v>0.3526408856249907</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3506996814738267</v>
+        <v>0.3522470107221434</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3468629854882611</v>
+        <v>0.3479376266396085</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3466069451693615</v>
+        <v>0.3478833536532929</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3463914722047747</v>
+        <v>0.3476003785870247</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3462346840628964</v>
+        <v>0.3472133337823546</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3440738313465347</v>
+        <v>0.3454693055525317</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3435540414182167</v>
+        <v>0.3448889394752062</v>
       </c>
     </row>
     <row r="253">
@@ -20705,7 +20705,7 @@
         <v>176</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3393742969265104</v>
+        <v>0.3410531798551416</v>
       </c>
     </row>
     <row r="254">
@@ -20713,7 +20713,7 @@
         <v>246</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3335733674380217</v>
+        <v>0.3345833307604607</v>
       </c>
     </row>
     <row r="255">
@@ -20721,7 +20721,7 @@
         <v>235</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3064392598882635</v>
+        <v>0.3082036008260451</v>
       </c>
     </row>
     <row r="256">
@@ -20729,7 +20729,7 @@
         <v>237</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3041690005385008</v>
+        <v>0.3053032548591206</v>
       </c>
     </row>
     <row r="257">
@@ -20737,7 +20737,7 @@
         <v>236</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3009016610292082</v>
+        <v>0.3020270349591974</v>
       </c>
     </row>
   </sheetData>

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/30/24</t>
+          <t>09/04/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
+++ b/Repo/Articulo1/output/ranking_of_256_alternatives.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09/04/24</t>
+          <t>09/09/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Capacidad de responder a la demanda</t>
+          <t>Factor de capacidad</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -8061,7 +8061,7 @@
         <v>0.03322505795995895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001252687398253716</v>
+        <v>0.0007190387386901029</v>
       </c>
       <c r="E2" t="n">
         <v>0.1083285946784051</v>
@@ -8076,7 +8076,7 @@
         <v>0.03183625169852008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.04677403978043468</v>
       </c>
       <c r="J2" t="n">
         <v>0.09009195716489096</v>
@@ -8102,7 +8102,7 @@
         <v>0.08447912147817653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001010319945814383</v>
+        <v>0.0005911413572245525</v>
       </c>
       <c r="E3" t="n">
         <v>0.1141889158396812</v>
@@ -8117,7 +8117,7 @@
         <v>0.03374642680043128</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.04326530733670771</v>
       </c>
       <c r="J3" t="n">
         <v>0.08709189499130009</v>
@@ -8143,7 +8143,7 @@
         <v>0.03978805141529308</v>
       </c>
       <c r="D4" t="n">
-        <v>7.83351779561784e-05</v>
+        <v>0.004533539247441099</v>
       </c>
       <c r="E4" t="n">
         <v>0.07328489737727591</v>
@@ -8158,7 +8158,7 @@
         <v>0.03998633213334121</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.05631094306861279</v>
       </c>
       <c r="J4" t="n">
         <v>0.08783965823576868</v>
@@ -8184,7 +8184,7 @@
         <v>0.03471866067426761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06724701545053563</v>
+        <v>0.06461151371553139</v>
       </c>
       <c r="E5" t="n">
         <v>0.08836872306134767</v>
@@ -8199,7 +8199,7 @@
         <v>0.03310970176646088</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.04456987090989821</v>
       </c>
       <c r="J5" t="n">
         <v>0.08423597994917305</v>
@@ -8225,7 +8225,7 @@
         <v>0.07783415395826247</v>
       </c>
       <c r="D6" t="n">
-        <v>9.644653236013062e-05</v>
+        <v>0.000566944614214996</v>
       </c>
       <c r="E6" t="n">
         <v>0.1152975177800828</v>
@@ -8240,7 +8240,7 @@
         <v>0.03565660190234249</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.03975657489298073</v>
       </c>
       <c r="J6" t="n">
         <v>0.08409183281770923</v>
@@ -8266,7 +8266,7 @@
         <v>0.08439714741359659</v>
       </c>
       <c r="D7" t="n">
-        <v>6.164462159932553e-05</v>
+        <v>0.004306126904540838</v>
       </c>
       <c r="E7" t="n">
         <v>0.07891167518381897</v>
@@ -8281,7 +8281,7 @@
         <v>0.04189650723525242</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.05280221062488582</v>
       </c>
       <c r="J7" t="n">
         <v>0.08483959606217782</v>
@@ -8307,7 +8307,7 @@
         <v>0.07932753631218248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06481103953589144</v>
+        <v>0.06220948854725269</v>
       </c>
       <c r="E8" t="n">
         <v>0.09373253264099492</v>
@@ -8322,7 +8322,7 @@
         <v>0.03501987686837209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.04106113846617124</v>
       </c>
       <c r="J8" t="n">
         <v>0.08123591777558217</v>
@@ -8348,7 +8348,7 @@
         <v>0.03314308389537902</v>
       </c>
       <c r="D9" t="n">
-        <v>7.166737347275351e-05</v>
+        <v>0.005075454776833873</v>
       </c>
       <c r="E9" t="n">
         <v>0.06830626202512828</v>
@@ -8363,7 +8363,7 @@
         <v>0.04813641256816235</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.06584784635679089</v>
       </c>
       <c r="J9" t="n">
         <v>0.0855873593066464</v>
@@ -8389,7 +8389,7 @@
         <v>0.03463668660968768</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05307461130165239</v>
+        <v>0.05432468405119852</v>
       </c>
       <c r="E10" t="n">
         <v>0.063478462278932</v>
@@ -8404,7 +8404,7 @@
         <v>0.04125978220128202</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.05410677419807632</v>
       </c>
       <c r="J10" t="n">
         <v>0.08198368102005078</v>
@@ -8430,7 +8430,7 @@
         <v>0.02807369315435355</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0773491877050129</v>
+        <v>0.07422767633814058</v>
       </c>
       <c r="E11" t="n">
         <v>0.08536447012242594</v>
@@ -8445,7 +8445,7 @@
         <v>0.03438315183440168</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.04236570203936175</v>
       </c>
       <c r="J11" t="n">
         <v>0.07838000273345513</v>
@@ -8471,7 +8471,7 @@
         <v>0.07783415395826247</v>
       </c>
       <c r="D12" t="n">
-        <v>9.644653236013062e-05</v>
+        <v>0.000566944614214996</v>
       </c>
       <c r="E12" t="n">
         <v>0.1152975177800828</v>
@@ -8486,7 +8486,7 @@
         <v>0.03756677700425369</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03624784244925376</v>
       </c>
       <c r="J12" t="n">
         <v>0.08109177064411835</v>
@@ -8512,7 +8512,7 @@
         <v>0.08439714741359659</v>
       </c>
       <c r="D13" t="n">
-        <v>6.164462159932553e-05</v>
+        <v>0.004306126904540838</v>
       </c>
       <c r="E13" t="n">
         <v>0.07891167518381897</v>
@@ -8527,7 +8527,7 @@
         <v>0.05004658767007356</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.06233911391306392</v>
       </c>
       <c r="J13" t="n">
         <v>0.08258729713305554</v>
@@ -8553,7 +8553,7 @@
         <v>0.07932753631218248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06481103953589144</v>
+        <v>0.06220948854725269</v>
       </c>
       <c r="E14" t="n">
         <v>0.09373253264099492</v>
@@ -8568,7 +8568,7 @@
         <v>0.03629332693631288</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.03885696959563478</v>
       </c>
       <c r="J14" t="n">
         <v>0.07537994055986427</v>
@@ -8594,7 +8594,7 @@
         <v>0.03970607735071314</v>
       </c>
       <c r="D15" t="n">
-        <v>5.039260758199119e-05</v>
+        <v>0.006804546841909382</v>
       </c>
       <c r="E15" t="n">
         <v>0.05242107248026411</v>
@@ -8609,7 +8609,7 @@
         <v>0.0562864930029835</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.07538474964496901</v>
       </c>
       <c r="J15" t="n">
         <v>0.08333506037752414</v>
@@ -8635,7 +8635,7 @@
         <v>0.03463668660968768</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05307461130165239</v>
+        <v>0.05432468405119852</v>
       </c>
       <c r="E16" t="n">
         <v>0.063478462278932</v>
@@ -8650,7 +8650,7 @@
         <v>0.04253323226922282</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.05190260532753986</v>
       </c>
       <c r="J16" t="n">
         <v>0.07612770380433286</v>
@@ -8676,7 +8676,7 @@
         <v>0.02807369315435355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0773491877050129</v>
+        <v>0.07422767633814058</v>
       </c>
       <c r="E17" t="n">
         <v>0.08536447012242594</v>
@@ -8691,7 +8691,7 @@
         <v>0.03565660190234249</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.04016153316882529</v>
       </c>
       <c r="J17" t="n">
         <v>0.07252402551773723</v>
@@ -8717,7 +8717,7 @@
         <v>0.07118896607795976</v>
       </c>
       <c r="D18" t="n">
-        <v>8.972110425638607e-05</v>
+        <v>0.0005314546051974676</v>
       </c>
       <c r="E18" t="n">
         <v>0.1169238384171855</v>
@@ -8732,7 +8732,7 @@
         <v>0.03947695210616489</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.03273911000552679</v>
       </c>
       <c r="J18" t="n">
         <v>0.07809170847052749</v>
@@ -8758,7 +8758,7 @@
         <v>0.07775195953329388</v>
       </c>
       <c r="D19" t="n">
-        <v>5.29581113736148e-05</v>
+        <v>0.004795857652746861</v>
       </c>
       <c r="E19" t="n">
         <v>0.07489531267807441</v>
@@ -8773,7 +8773,7 @@
         <v>0.05195676277198476</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.05883038146933696</v>
       </c>
       <c r="J19" t="n">
         <v>0.07958723495946467</v>
@@ -8799,7 +8799,7 @@
         <v>0.07924556224760253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05154269988232792</v>
+        <v>0.05270880790388768</v>
       </c>
       <c r="E20" t="n">
         <v>0.06845789289789482</v>
@@ -8814,7 +8814,7 @@
         <v>0.04508013240510442</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.04708930931062238</v>
       </c>
       <c r="J20" t="n">
         <v>0.07598355667286905</v>
@@ -8840,7 +8840,7 @@
         <v>0.07268256879226841</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07414543968397902</v>
+        <v>0.07108286236374232</v>
       </c>
       <c r="E21" t="n">
         <v>0.09162613593644431</v>
@@ -8855,7 +8855,7 @@
         <v>0.03820350203822409</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.03534823715190781</v>
       </c>
       <c r="J21" t="n">
         <v>0.0723798783862734</v>
@@ -8881,7 +8881,7 @@
         <v>0.084314952988628</v>
       </c>
       <c r="D22" t="n">
-        <v>3.775574764588735e-05</v>
+        <v>0.006559311053910681</v>
       </c>
       <c r="E22" t="n">
         <v>0.05751555169849387</v>
@@ -8896,7 +8896,7 @@
         <v>0.0581966681048947</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.07187601720124202</v>
       </c>
       <c r="J22" t="n">
         <v>0.08033499820393328</v>
@@ -8922,7 +8922,7 @@
         <v>0.07924556224760253</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05154269988232792</v>
+        <v>0.05270880790388768</v>
       </c>
       <c r="E23" t="n">
         <v>0.06845789289789482</v>
@@ -8937,7 +8937,7 @@
         <v>0.04444340737113402</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.04839387288381289</v>
       </c>
       <c r="J23" t="n">
         <v>0.07312764163074199</v>
@@ -8963,7 +8963,7 @@
         <v>0.07268256879226841</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07414543968397902</v>
+        <v>0.07108286236374232</v>
       </c>
       <c r="E24" t="n">
         <v>0.09162613593644431</v>
@@ -8978,7 +8978,7 @@
         <v>0.03756677700425369</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.03665280072509832</v>
       </c>
       <c r="J24" t="n">
         <v>0.06952396334414636</v>
@@ -9004,7 +9004,7 @@
         <v>0.03306110983079908</v>
       </c>
       <c r="D25" t="n">
-        <v>4.214441267692942e-05</v>
+        <v>0.007474908836895434</v>
       </c>
       <c r="E25" t="n">
         <v>0.04626226117434611</v>
@@ -9019,7 +9019,7 @@
         <v>0.06443657343780464</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.08492165293314712</v>
       </c>
       <c r="J25" t="n">
         <v>0.08108276144840186</v>
@@ -9045,7 +9045,7 @@
         <v>0.02799149872938496</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05917244301887183</v>
+        <v>0.06049817634917026</v>
       </c>
       <c r="E26" t="n">
         <v>0.05831320431414862</v>
@@ -9060,7 +9060,7 @@
         <v>0.05068331270404396</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.06143950861571797</v>
       </c>
       <c r="J26" t="n">
         <v>0.07387540487521058</v>
@@ -9086,7 +9086,7 @@
         <v>0.02799149872938496</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05917244301887183</v>
+        <v>0.06049817634917026</v>
       </c>
       <c r="E27" t="n">
         <v>0.05831320431414862</v>
@@ -9101,7 +9101,7 @@
         <v>0.04380668233716362</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.0496984364570034</v>
       </c>
       <c r="J27" t="n">
         <v>0.07027172658861496</v>
@@ -9127,7 +9127,7 @@
         <v>0.0214285934182063</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09103103946873999</v>
+        <v>0.08725121102003335</v>
       </c>
       <c r="E28" t="n">
         <v>0.08129588509581598</v>
@@ -9142,7 +9142,7 @@
         <v>0.03693005197028328</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.03795736429828882</v>
       </c>
       <c r="J28" t="n">
         <v>0.06666804830201931</v>
@@ -9168,7 +9168,7 @@
         <v>0.07118896607795976</v>
       </c>
       <c r="D29" t="n">
-        <v>8.972110425638607e-05</v>
+        <v>0.0005314546051974676</v>
       </c>
       <c r="E29" t="n">
         <v>0.1169238384171855</v>
@@ -9183,7 +9183,7 @@
         <v>0.0413871272080761</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.02923037756179982</v>
       </c>
       <c r="J29" t="n">
         <v>0.07509164629693661</v>
@@ -9209,7 +9209,7 @@
         <v>0.07775195953329388</v>
       </c>
       <c r="D30" t="n">
-        <v>5.29581113736148e-05</v>
+        <v>0.004795857652746861</v>
       </c>
       <c r="E30" t="n">
         <v>0.07489531267807441</v>
@@ -9224,7 +9224,7 @@
         <v>0.04762703254098603</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.0422760132937049</v>
       </c>
       <c r="J30" t="n">
         <v>0.07583940954140521</v>
@@ -9250,7 +9250,7 @@
         <v>0.07268256879226841</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07414543968397902</v>
+        <v>0.07108286236374232</v>
       </c>
       <c r="E31" t="n">
         <v>0.09162613593644431</v>
@@ -9265,7 +9265,7 @@
         <v>0.0407504021741057</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.03053494113499033</v>
       </c>
       <c r="J31" t="n">
         <v>0.07223573125480957</v>
@@ -9291,7 +9291,7 @@
         <v>0.07775195953329388</v>
       </c>
       <c r="D32" t="n">
-        <v>5.29581113736148e-05</v>
+        <v>0.004795857652746861</v>
       </c>
       <c r="E32" t="n">
         <v>0.07489531267807441</v>
@@ -9306,7 +9306,7 @@
         <v>0.05386693787389597</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.05532164902560999</v>
       </c>
       <c r="J32" t="n">
         <v>0.07658717278587381</v>
@@ -9332,7 +9332,7 @@
         <v>0.07924556224760253</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05154269988232792</v>
+        <v>0.05270880790388768</v>
       </c>
       <c r="E33" t="n">
         <v>0.06845789289789482</v>
@@ -9347,7 +9347,7 @@
         <v>0.04699030750701563</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.04358057686689541</v>
       </c>
       <c r="J33" t="n">
         <v>0.07298349449927817</v>
@@ -9373,7 +9373,7 @@
         <v>0.07268256879226841</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07414543968397902</v>
+        <v>0.07108286236374232</v>
       </c>
       <c r="E34" t="n">
         <v>0.09162613593644431</v>
@@ -9388,7 +9388,7 @@
         <v>0.04011367714013529</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.03183950470818084</v>
       </c>
       <c r="J34" t="n">
         <v>0.06937981621268254</v>
@@ -9414,7 +9414,7 @@
         <v>0.084314952988628</v>
       </c>
       <c r="D35" t="n">
-        <v>3.775574764588735e-05</v>
+        <v>0.006559311053910681</v>
       </c>
       <c r="E35" t="n">
         <v>0.05751555169849387</v>
@@ -9429,7 +9429,7 @@
         <v>0.0601068432068059</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.06836728475751506</v>
       </c>
       <c r="J35" t="n">
         <v>0.0773349360303424</v>
@@ -9455,7 +9455,7 @@
         <v>0.07924556224760253</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05154269988232792</v>
+        <v>0.05270880790388768</v>
       </c>
       <c r="E36" t="n">
         <v>0.06845789289789482</v>
@@ -9470,7 +9470,7 @@
         <v>0.04635358247304523</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.04488514044008592</v>
       </c>
       <c r="J36" t="n">
         <v>0.07012757945715112</v>
@@ -9496,7 +9496,7 @@
         <v>0.07268256879226841</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07414543968397902</v>
+        <v>0.07108286236374232</v>
       </c>
       <c r="E37" t="n">
         <v>0.09162613593644431</v>
@@ -9511,7 +9511,7 @@
         <v>0.03947695210616489</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.03314406828137135</v>
       </c>
       <c r="J37" t="n">
         <v>0.06652390117055548</v>
@@ -9537,7 +9537,7 @@
         <v>0.084314952988628</v>
       </c>
       <c r="D38" t="n">
-        <v>3.775574764588735e-05</v>
+        <v>0.006559311053910681</v>
       </c>
       <c r="E38" t="n">
         <v>0.05751555169849387</v>
@@ -9552,7 +9552,7 @@
         <v>0.06634674853971584</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.08141292048942014</v>
       </c>
       <c r="J38" t="n">
         <v>0.078082699274811</v>
@@ -9578,7 +9578,7 @@
         <v>0.07924556224760253</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05154269988232792</v>
+        <v>0.05270880790388768</v>
       </c>
       <c r="E39" t="n">
         <v>0.06845789289789482</v>
@@ -9593,7 +9593,7 @@
         <v>0.05259348780595516</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.057930776171991</v>
       </c>
       <c r="J39" t="n">
         <v>0.07087534270161971</v>
@@ -9619,7 +9619,7 @@
         <v>0.07924556224760253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05154269988232792</v>
+        <v>0.05270880790388768</v>
       </c>
       <c r="E40" t="n">
         <v>0.06845789289789482</v>
@@ -9634,7 +9634,7 @@
         <v>0.04571685743907482</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.04618970401327643</v>
       </c>
       <c r="J40" t="n">
         <v>0.06727166441502408</v>
@@ -9660,7 +9660,7 @@
         <v>0.07268256879226841</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07414543968397902</v>
+        <v>0.07108286236374232</v>
       </c>
       <c r="E41" t="n">
         <v>0.09162613593644431</v>
@@ -9675,7 +9675,7 @@
         <v>0.03884022707219449</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.03444863185456185</v>
       </c>
       <c r="J41" t="n">
         <v>0.06366798612842844</v>
@@ -9701,7 +9701,7 @@
         <v>0.0396241032861332</v>
       </c>
       <c r="D42" t="n">
-        <v>3.185408677523444e-05</v>
+        <v>0.008311238046202773</v>
       </c>
       <c r="E42" t="n">
         <v>0.03857892338367221</v>
@@ -9716,7 +9716,7 @@
         <v>0.07258665387262576</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.09445855622132523</v>
       </c>
       <c r="J42" t="n">
         <v>0.0788304625192796</v>
@@ -9742,7 +9742,7 @@
         <v>0.03455449218471908</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0438324089460763</v>
+        <v>0.04761648840027363</v>
       </c>
       <c r="E43" t="n">
         <v>0.04724680149157503</v>
@@ -9757,7 +9757,7 @@
         <v>0.06571002350574544</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.08271748406261066</v>
       </c>
       <c r="J43" t="n">
         <v>0.07522678423268395</v>
@@ -9783,7 +9783,7 @@
         <v>0.03455449218471908</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0438324089460763</v>
+        <v>0.04761648840027363</v>
       </c>
       <c r="E44" t="n">
         <v>0.04724680149157503</v>
@@ -9798,7 +9798,7 @@
         <v>0.0588333931388651</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.07097641190389607</v>
       </c>
       <c r="J44" t="n">
         <v>0.07162310594608831</v>
@@ -9824,7 +9824,7 @@
         <v>0.02799149872938496</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05917244301887183</v>
+        <v>0.06049817634917026</v>
       </c>
       <c r="E45" t="n">
         <v>0.05831320431414862</v>
@@ -9839,7 +9839,7 @@
         <v>0.05195676277198476</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.05923533974518151</v>
       </c>
       <c r="J45" t="n">
         <v>0.06801942765949268</v>
@@ -9865,7 +9865,7 @@
         <v>0.02799149872938496</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05917244301887183</v>
+        <v>0.06049817634917026</v>
       </c>
       <c r="E46" t="n">
         <v>0.05831320431414862</v>
@@ -9880,7 +9880,7 @@
         <v>0.04508013240510442</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.04749426758646693</v>
       </c>
       <c r="J46" t="n">
         <v>0.06441574937289703</v>
@@ -9906,7 +9906,7 @@
         <v>0.0214285934182063</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09103103946873999</v>
+        <v>0.08725121102003335</v>
       </c>
       <c r="E47" t="n">
         <v>0.08129588509581598</v>
@@ -9921,7 +9921,7 @@
         <v>0.03820350203822409</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.03575319542775236</v>
       </c>
       <c r="J47" t="n">
         <v>0.0608120710863014</v>
@@ -9947,7 +9947,7 @@
         <v>0.0645439985580457</v>
       </c>
       <c r="D48" t="n">
-        <v>7.890164319766872e-05</v>
+        <v>0.0004743607504402047</v>
       </c>
       <c r="E48" t="n">
         <v>0.1195397360613467</v>
@@ -9962,7 +9962,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.02572164511807285</v>
       </c>
       <c r="J48" t="n">
         <v>0.07209158412334575</v>
@@ -9988,7 +9988,7 @@
         <v>0.07110699201337982</v>
       </c>
       <c r="D49" t="n">
-        <v>4.152470822101331e-05</v>
+        <v>0.005440486776508882</v>
       </c>
       <c r="E49" t="n">
         <v>0.06960917415737926</v>
@@ -10003,7 +10003,7 @@
         <v>0.04953720764289724</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.03876728084997793</v>
       </c>
       <c r="J49" t="n">
         <v>0.07283934736781435</v>
@@ -10029,7 +10029,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E50" t="n">
         <v>0.08880956596591193</v>
@@ -10044,7 +10044,7 @@
         <v>0.0426605772760169</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.02702620869126336</v>
       </c>
       <c r="J50" t="n">
         <v>0.0692356690812187</v>
@@ -10070,7 +10070,7 @@
         <v>0.07110699201337982</v>
       </c>
       <c r="D51" t="n">
-        <v>4.152470822101331e-05</v>
+        <v>0.005440486776508882</v>
       </c>
       <c r="E51" t="n">
         <v>0.06960917415737926</v>
@@ -10085,7 +10085,7 @@
         <v>0.05577711297580717</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.05181291658188301</v>
       </c>
       <c r="J51" t="n">
         <v>0.07358711061228293</v>
@@ -10111,7 +10111,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E52" t="n">
         <v>0.06401261648981413</v>
@@ -10126,7 +10126,7 @@
         <v>0.04890048260892683</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.04007184442316844</v>
       </c>
       <c r="J52" t="n">
         <v>0.06998343232568731</v>
@@ -10152,7 +10152,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E53" t="n">
         <v>0.08880956596591193</v>
@@ -10167,7 +10167,7 @@
         <v>0.0420238522420465</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.02833077226445387</v>
       </c>
       <c r="J53" t="n">
         <v>0.06637975403909166</v>
@@ -10193,7 +10193,7 @@
         <v>0.07766998546871394</v>
       </c>
       <c r="D54" t="n">
-        <v>2.840944696751638e-05</v>
+        <v>0.007183044476145315</v>
       </c>
       <c r="E54" t="n">
         <v>0.05208891604044509</v>
@@ -10208,7 +10208,7 @@
         <v>0.06201701830871711</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.06485855231378809</v>
       </c>
       <c r="J54" t="n">
         <v>0.07433487385675153</v>
@@ -10234,7 +10234,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E55" t="n">
         <v>0.06401261648981413</v>
@@ -10249,7 +10249,7 @@
         <v>0.04826375757495643</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.04137640799635894</v>
       </c>
       <c r="J55" t="n">
         <v>0.06712751728356026</v>
@@ -10275,7 +10275,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E56" t="n">
         <v>0.08880956596591193</v>
@@ -10290,7 +10290,7 @@
         <v>0.0413871272080761</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.02963533583764438</v>
       </c>
       <c r="J56" t="n">
         <v>0.06352383899696461</v>
@@ -10316,7 +10316,7 @@
         <v>0.07766998546871394</v>
       </c>
       <c r="D57" t="n">
-        <v>2.840944696751638e-05</v>
+        <v>0.007183044476145315</v>
       </c>
       <c r="E57" t="n">
         <v>0.05208891604044509</v>
@@ -10331,7 +10331,7 @@
         <v>0.06825692364162704</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.07790418804569317</v>
       </c>
       <c r="J57" t="n">
         <v>0.07508263710122012</v>
@@ -10357,7 +10357,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E58" t="n">
         <v>0.06401261648981413</v>
@@ -10372,7 +10372,7 @@
         <v>0.05450366290786637</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.05442204372826403</v>
       </c>
       <c r="J58" t="n">
         <v>0.06787528052802884</v>
@@ -10398,7 +10398,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E59" t="n">
         <v>0.06401261648981413</v>
@@ -10413,7 +10413,7 @@
         <v>0.04762703254098603</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.04268097156954946</v>
       </c>
       <c r="J59" t="n">
         <v>0.06427160224143322</v>
@@ -10439,7 +10439,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E60" t="n">
         <v>0.08880956596591193</v>
@@ -10454,7 +10454,7 @@
         <v>0.0407504021741057</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.03093989941083488</v>
       </c>
       <c r="J60" t="n">
         <v>0.06066792395483758</v>
@@ -10480,7 +10480,7 @@
         <v>0.08423297892404807</v>
       </c>
       <c r="D61" t="n">
-        <v>2.172147421697961e-05</v>
+        <v>0.008071645622850156</v>
       </c>
       <c r="E61" t="n">
         <v>0.0431546235494472</v>
@@ -10495,7 +10495,7 @@
         <v>0.07449682897453697</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.09094982377759825</v>
       </c>
       <c r="J61" t="n">
         <v>0.07583040034568872</v>
@@ -10521,7 +10521,7 @@
         <v>0.0791635881830226</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04278040206902283</v>
+        <v>0.04643443229197247</v>
       </c>
       <c r="E62" t="n">
         <v>0.05176683298028539</v>
@@ -10536,7 +10536,7 @@
         <v>0.06762019860765664</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.07920875161888367</v>
       </c>
       <c r="J62" t="n">
         <v>0.07222672205909308</v>
@@ -10562,7 +10562,7 @@
         <v>0.0791635881830226</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04278040206902283</v>
+        <v>0.04643443229197247</v>
       </c>
       <c r="E63" t="n">
         <v>0.05176683298028539</v>
@@ -10577,7 +10577,7 @@
         <v>0.0607435682407763</v>
       </c>
       <c r="I63" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.0674676794601691</v>
       </c>
       <c r="J63" t="n">
         <v>0.06862304377249745</v>
@@ -10603,7 +10603,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E64" t="n">
         <v>0.06401261648981413</v>
@@ -10618,7 +10618,7 @@
         <v>0.05386693787389597</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.05572660730145454</v>
       </c>
       <c r="J64" t="n">
         <v>0.0650193654859018</v>
@@ -10644,7 +10644,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E65" t="n">
         <v>0.06401261648981413</v>
@@ -10659,7 +10659,7 @@
         <v>0.04699030750701563</v>
       </c>
       <c r="I65" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.04398553514273996</v>
       </c>
       <c r="J65" t="n">
         <v>0.06141568719930617</v>
@@ -10685,7 +10685,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E66" t="n">
         <v>0.08880956596591193</v>
@@ -10700,7 +10700,7 @@
         <v>0.04011367714013529</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.03224446298402539</v>
       </c>
       <c r="J66" t="n">
         <v>0.05781200891271053</v>
@@ -10726,7 +10726,7 @@
         <v>0.03297891540583048</v>
       </c>
       <c r="D67" t="n">
-        <v>2.345105970774852e-05</v>
+        <v>0.008994194113642247</v>
       </c>
       <c r="E67" t="n">
         <v>0.0323047983895489</v>
@@ -10741,7 +10741,7 @@
         <v>0.08073673430744691</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.1039954595095033</v>
       </c>
       <c r="J67" t="n">
         <v>0.07657816359015732</v>
@@ -10767,7 +10767,7 @@
         <v>0.03447251812013914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03732908231804213</v>
+        <v>0.04289632591656341</v>
       </c>
       <c r="E68" t="n">
         <v>0.03582544458047977</v>
@@ -10782,7 +10782,7 @@
         <v>0.07386010394056657</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.09225438735078877</v>
       </c>
       <c r="J68" t="n">
         <v>0.07297448530356168</v>
@@ -10808,7 +10808,7 @@
         <v>0.02790952466480502</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04790877900873372</v>
+        <v>0.0519904228367782</v>
       </c>
       <c r="E69" t="n">
         <v>0.04155004020529356</v>
@@ -10823,7 +10823,7 @@
         <v>0.06698347357368624</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.08051331519207419</v>
       </c>
       <c r="J69" t="n">
         <v>0.06937080701696605</v>
@@ -10849,7 +10849,7 @@
         <v>0.02790952466480502</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04790877900873372</v>
+        <v>0.0519904228367782</v>
       </c>
       <c r="E70" t="n">
         <v>0.04155004020529356</v>
@@ -10864,7 +10864,7 @@
         <v>0.0601068432068059</v>
       </c>
       <c r="I70" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.06877224303335962</v>
       </c>
       <c r="J70" t="n">
         <v>0.0657671287303704</v>
@@ -10890,7 +10890,7 @@
         <v>0.02134657528154863</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06685768020715838</v>
+        <v>0.0682788291733778</v>
       </c>
       <c r="E71" t="n">
         <v>0.05180341525378501</v>
@@ -10905,7 +10905,7 @@
         <v>0.05323021283992557</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.05703117087464504</v>
       </c>
       <c r="J71" t="n">
         <v>0.06216345044377476</v>
@@ -10931,7 +10931,7 @@
         <v>0.02134657528154863</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06685768020715838</v>
+        <v>0.0682788291733778</v>
       </c>
       <c r="E72" t="n">
         <v>0.05180341525378501</v>
@@ -10946,7 +10946,7 @@
         <v>0.04635358247304523</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.04529009871593048</v>
       </c>
       <c r="J72" t="n">
         <v>0.05855977215717913</v>
@@ -10972,7 +10972,7 @@
         <v>0.01478358182621451</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1106049064101534</v>
+        <v>0.1058834657542358</v>
       </c>
       <c r="E73" t="n">
         <v>0.07547532727530028</v>
@@ -10987,7 +10987,7 @@
         <v>0.03947695210616489</v>
       </c>
       <c r="I73" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.0335490265572159</v>
       </c>
       <c r="J73" t="n">
         <v>0.05495609387058348</v>
@@ -11013,7 +11013,7 @@
         <v>0.0645439985580457</v>
       </c>
       <c r="D74" t="n">
-        <v>7.890164319766872e-05</v>
+        <v>0.0004743607504402047</v>
       </c>
       <c r="E74" t="n">
         <v>0.1195397360613467</v>
@@ -11028,7 +11028,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.02221291267434588</v>
       </c>
       <c r="J74" t="n">
         <v>0.06909152194975487</v>
@@ -11054,7 +11054,7 @@
         <v>0.07110699201337982</v>
       </c>
       <c r="D75" t="n">
-        <v>4.152470822101331e-05</v>
+        <v>0.005440486776508882</v>
       </c>
       <c r="E75" t="n">
         <v>0.06960917415737926</v>
@@ -11069,7 +11069,7 @@
         <v>0.05768728807771838</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.04830418413815604</v>
       </c>
       <c r="J75" t="n">
         <v>0.07058704843869207</v>
@@ -11095,7 +11095,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E76" t="n">
         <v>0.06401261648981413</v>
@@ -11110,7 +11110,7 @@
         <v>0.05081065771083804</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.03656311197944147</v>
       </c>
       <c r="J76" t="n">
         <v>0.06698337015209643</v>
@@ -11136,7 +11136,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E77" t="n">
         <v>0.08880956596591193</v>
@@ -11151,7 +11151,7 @@
         <v>0.0439340273439577</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.02482203982072689</v>
       </c>
       <c r="J77" t="n">
         <v>0.0633796918655008</v>
@@ -11177,7 +11177,7 @@
         <v>0.07766998546871394</v>
       </c>
       <c r="D78" t="n">
-        <v>2.840944696751638e-05</v>
+        <v>0.007183044476145315</v>
       </c>
       <c r="E78" t="n">
         <v>0.05208891604044509</v>
@@ -11192,7 +11192,7 @@
         <v>0.06392719341062832</v>
       </c>
       <c r="I78" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.06134981987006112</v>
       </c>
       <c r="J78" t="n">
         <v>0.07133481168316065</v>
@@ -11218,7 +11218,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E79" t="n">
         <v>0.06401261648981413</v>
@@ -11233,7 +11233,7 @@
         <v>0.05017393267686764</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.03786767555263198</v>
       </c>
       <c r="J79" t="n">
         <v>0.06412745510996938</v>
@@ -11259,7 +11259,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E80" t="n">
         <v>0.08880956596591193</v>
@@ -11274,7 +11274,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.0261266033939174</v>
       </c>
       <c r="J80" t="n">
         <v>0.06052377682337375</v>
@@ -11300,7 +11300,7 @@
         <v>0.07766998546871394</v>
       </c>
       <c r="D81" t="n">
-        <v>2.840944696751638e-05</v>
+        <v>0.007183044476145315</v>
       </c>
       <c r="E81" t="n">
         <v>0.05208891604044509</v>
@@ -11315,7 +11315,7 @@
         <v>0.07016709874353826</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.0743954556019662</v>
       </c>
       <c r="J81" t="n">
         <v>0.07208257492762926</v>
@@ -11341,7 +11341,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E82" t="n">
         <v>0.06401261648981413</v>
@@ -11356,7 +11356,7 @@
         <v>0.05641383800977758</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.05091331128453706</v>
       </c>
       <c r="J82" t="n">
         <v>0.06487521835443798</v>
@@ -11382,7 +11382,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D83" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E83" t="n">
         <v>0.06401261648981413</v>
@@ -11397,7 +11397,7 @@
         <v>0.04953720764289724</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.03917223912582249</v>
       </c>
       <c r="J83" t="n">
         <v>0.06127154006784234</v>
@@ -11423,7 +11423,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E84" t="n">
         <v>0.08880956596591193</v>
@@ -11438,7 +11438,7 @@
         <v>0.0426605772760169</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.02743116696710791</v>
       </c>
       <c r="J84" t="n">
         <v>0.05766786178124671</v>
@@ -11464,7 +11464,7 @@
         <v>0.08423297892404807</v>
       </c>
       <c r="D85" t="n">
-        <v>2.172147421697961e-05</v>
+        <v>0.008071645622850156</v>
       </c>
       <c r="E85" t="n">
         <v>0.0431546235494472</v>
@@ -11479,7 +11479,7 @@
         <v>0.07640700407644818</v>
       </c>
       <c r="I85" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.08744109133387129</v>
       </c>
       <c r="J85" t="n">
         <v>0.07283033817209786</v>
@@ -11505,7 +11505,7 @@
         <v>0.0791635881830226</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04278040206902283</v>
+        <v>0.04643443229197247</v>
       </c>
       <c r="E86" t="n">
         <v>0.05176683298028539</v>
@@ -11520,7 +11520,7 @@
         <v>0.06953037370956786</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.07570001917515672</v>
       </c>
       <c r="J86" t="n">
         <v>0.06922665988550221</v>
@@ -11546,7 +11546,7 @@
         <v>0.0791635881830226</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04278040206902283</v>
+        <v>0.04643443229197247</v>
       </c>
       <c r="E87" t="n">
         <v>0.05176683298028539</v>
@@ -11561,7 +11561,7 @@
         <v>0.0626537433426875</v>
       </c>
       <c r="I87" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.06395894701644214</v>
       </c>
       <c r="J87" t="n">
         <v>0.06562298159890657</v>
@@ -11587,7 +11587,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E88" t="n">
         <v>0.06401261648981413</v>
@@ -11602,7 +11602,7 @@
         <v>0.05577711297580717</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.05221787485772757</v>
       </c>
       <c r="J88" t="n">
         <v>0.06201930331231094</v>
@@ -11628,7 +11628,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D89" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E89" t="n">
         <v>0.06401261648981413</v>
@@ -11643,7 +11643,7 @@
         <v>0.04890048260892683</v>
       </c>
       <c r="I89" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.04047680269901299</v>
       </c>
       <c r="J89" t="n">
         <v>0.0584156250257153</v>
@@ -11669,7 +11669,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E90" t="n">
         <v>0.08880956596591193</v>
@@ -11684,7 +11684,7 @@
         <v>0.0420238522420465</v>
       </c>
       <c r="I90" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.02873573054029842</v>
       </c>
       <c r="J90" t="n">
         <v>0.05481194673911966</v>
@@ -11710,7 +11710,7 @@
         <v>0.08423297892404807</v>
       </c>
       <c r="D91" t="n">
-        <v>2.172147421697961e-05</v>
+        <v>0.008071645622850156</v>
       </c>
       <c r="E91" t="n">
         <v>0.0431546235494472</v>
@@ -11725,7 +11725,7 @@
         <v>0.08264690940935812</v>
       </c>
       <c r="I91" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.1004867270657764</v>
       </c>
       <c r="J91" t="n">
         <v>0.07357810141656644</v>
@@ -11751,7 +11751,7 @@
         <v>0.08572658163835672</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0341403665457873</v>
+        <v>0.03923925131348017</v>
       </c>
       <c r="E92" t="n">
         <v>0.0444678741502959</v>
@@ -11766,7 +11766,7 @@
         <v>0.07577027904247778</v>
       </c>
       <c r="I92" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.08874565490706179</v>
       </c>
       <c r="J92" t="n">
         <v>0.06997442312997081</v>
@@ -11792,7 +11792,7 @@
         <v>0.0791635881830226</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04278040206902283</v>
+        <v>0.04643443229197247</v>
       </c>
       <c r="E93" t="n">
         <v>0.05176683298028539</v>
@@ -11807,7 +11807,7 @@
         <v>0.06889364867559745</v>
       </c>
       <c r="I93" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.07700458274834723</v>
       </c>
       <c r="J93" t="n">
         <v>0.06637074484337517</v>
@@ -11833,7 +11833,7 @@
         <v>0.0791635881830226</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04278040206902283</v>
+        <v>0.04643443229197247</v>
       </c>
       <c r="E94" t="n">
         <v>0.05176683298028539</v>
@@ -11848,7 +11848,7 @@
         <v>0.06201701830871711</v>
       </c>
       <c r="I94" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.06526351058963265</v>
       </c>
       <c r="J94" t="n">
         <v>0.06276706655677954</v>
@@ -11874,7 +11874,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D95" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E95" t="n">
         <v>0.06401261648981413</v>
@@ -11889,7 +11889,7 @@
         <v>0.05514038794183677</v>
       </c>
       <c r="I95" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.05352243843091807</v>
       </c>
       <c r="J95" t="n">
         <v>0.05916338827018389</v>
@@ -11915,7 +11915,7 @@
         <v>0.07260059472768848</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05727562376043605</v>
+        <v>0.05850556748089117</v>
       </c>
       <c r="E96" t="n">
         <v>0.06401261648981413</v>
@@ -11930,7 +11930,7 @@
         <v>0.04826375757495643</v>
       </c>
       <c r="I96" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.0417813662722035</v>
       </c>
       <c r="J96" t="n">
         <v>0.05555970998358826</v>
@@ -11956,7 +11956,7 @@
         <v>0.06603760127235436</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08662821907009766</v>
+        <v>0.08294918045739777</v>
       </c>
       <c r="E97" t="n">
         <v>0.08880956596591193</v>
@@ -11971,7 +11971,7 @@
         <v>0.0413871272080761</v>
       </c>
       <c r="I97" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.03004029411348893</v>
       </c>
       <c r="J97" t="n">
         <v>0.05195603169699262</v>
@@ -11997,7 +11997,7 @@
         <v>0.03954190886116461</v>
       </c>
       <c r="D98" t="n">
-        <v>1.865602288471294e-05</v>
+        <v>0.009383913110012283</v>
       </c>
       <c r="E98" t="n">
         <v>0.02872424209853894</v>
@@ -12012,7 +12012,7 @@
         <v>0.08888681474226805</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.1135323627976814</v>
       </c>
       <c r="J98" t="n">
         <v>0.07432586466103504</v>
@@ -12038,7 +12038,7 @@
         <v>0.03447251812013914</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03732908231804213</v>
+        <v>0.04289632591656341</v>
       </c>
       <c r="E99" t="n">
         <v>0.03582544458047977</v>
@@ -12053,7 +12053,7 @@
         <v>0.07513355400850738</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.0900502184802523</v>
       </c>
       <c r="J99" t="n">
         <v>0.06711850808784377</v>
@@ -12079,7 +12079,7 @@
         <v>0.02790952466480502</v>
       </c>
       <c r="D100" t="n">
-        <v>0.04790877900873372</v>
+        <v>0.0519904228367782</v>
       </c>
       <c r="E100" t="n">
         <v>0.04155004020529356</v>
@@ -12094,7 +12094,7 @@
         <v>0.06825692364162704</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.07830914632153772</v>
       </c>
       <c r="J100" t="n">
         <v>0.06351482980124812</v>
@@ -12120,7 +12120,7 @@
         <v>0.02790952466480502</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04790877900873372</v>
+        <v>0.0519904228367782</v>
       </c>
       <c r="E101" t="n">
         <v>0.04155004020529356</v>
@@ -12135,7 +12135,7 @@
         <v>0.0613802932747467</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.06656807416282316</v>
       </c>
       <c r="J101" t="n">
         <v>0.05991115151465249</v>
@@ -12161,7 +12161,7 @@
         <v>0.02134657528154863</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06685768020715838</v>
+        <v>0.0682788291733778</v>
       </c>
       <c r="E102" t="n">
         <v>0.05180341525378501</v>
@@ -12176,7 +12176,7 @@
         <v>0.05450366290786637</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.05482700200410858</v>
       </c>
       <c r="J102" t="n">
         <v>0.05630747322805685</v>
@@ -12202,7 +12202,7 @@
         <v>0.02134657528154863</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06685768020715838</v>
+        <v>0.0682788291733778</v>
       </c>
       <c r="E103" t="n">
         <v>0.05180341525378501</v>
@@ -12217,7 +12217,7 @@
         <v>0.04762703254098603</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.04308592984539401</v>
       </c>
       <c r="J103" t="n">
         <v>0.05270379494146121</v>
@@ -12243,7 +12243,7 @@
         <v>0.01478358182621451</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1106049064101534</v>
+        <v>0.1058834657542358</v>
       </c>
       <c r="E104" t="n">
         <v>0.07547532727530028</v>
@@ -12258,7 +12258,7 @@
         <v>0.0407504021741057</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.03134485768667944</v>
       </c>
       <c r="J104" t="n">
         <v>0.04910011665486558</v>
@@ -12284,7 +12284,7 @@
         <v>0.05789903103813163</v>
       </c>
       <c r="D105" t="n">
-        <v>5.86143707829498e-05</v>
+        <v>0.0003673045978703234</v>
       </c>
       <c r="E105" t="n">
         <v>0.1244452068664951</v>
@@ -12299,7 +12299,7 @@
         <v>0.04711765251380971</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>0.01870418023061891</v>
       </c>
       <c r="J105" t="n">
         <v>0.06609145977616401</v>
@@ -12325,7 +12325,7 @@
         <v>0.06446202449346576</v>
       </c>
       <c r="D106" t="n">
-        <v>2.579646632349895e-05</v>
+        <v>0.006327214064682592</v>
       </c>
       <c r="E106" t="n">
         <v>0.06233698931016848</v>
@@ -12340,7 +12340,7 @@
         <v>0.05959746317962959</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.04479545169442907</v>
       </c>
       <c r="J106" t="n">
         <v>0.06758698626510119</v>
@@ -12366,7 +12366,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E107" t="n">
         <v>0.05845131565105662</v>
@@ -12381,7 +12381,7 @@
         <v>0.05272083281274925</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.0330543795357145</v>
       </c>
       <c r="J107" t="n">
         <v>0.06398330797850557</v>
@@ -12407,7 +12407,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E108" t="n">
         <v>0.08484993249298563</v>
@@ -12422,7 +12422,7 @@
         <v>0.0458442024458689</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.02131330737699993</v>
       </c>
       <c r="J108" t="n">
         <v>0.06037962969190992</v>
@@ -12448,7 +12448,7 @@
         <v>0.07102501794879988</v>
       </c>
       <c r="D109" t="n">
-        <v>1.682810143318112e-05</v>
+        <v>0.007955923964026425</v>
       </c>
       <c r="E109" t="n">
         <v>0.045364404939975</v>
@@ -12463,7 +12463,7 @@
         <v>0.06583736851253952</v>
       </c>
       <c r="I109" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.05784108742633415</v>
       </c>
       <c r="J109" t="n">
         <v>0.06833474950956979</v>
@@ -12489,7 +12489,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E110" t="n">
         <v>0.05845131565105662</v>
@@ -12504,7 +12504,7 @@
         <v>0.05208410777877884</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.03435894310890501</v>
       </c>
       <c r="J110" t="n">
         <v>0.06112739293637852</v>
@@ -12530,7 +12530,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E111" t="n">
         <v>0.08484993249298563</v>
@@ -12545,7 +12545,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.02261787095019044</v>
       </c>
       <c r="J111" t="n">
         <v>0.05752371464978288</v>
@@ -12571,7 +12571,7 @@
         <v>0.07102501794879988</v>
       </c>
       <c r="D112" t="n">
-        <v>1.682810143318112e-05</v>
+        <v>0.007955923964026425</v>
       </c>
       <c r="E112" t="n">
         <v>0.045364404939975</v>
@@ -12586,7 +12586,7 @@
         <v>0.07207727384544944</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.07088672315823923</v>
       </c>
       <c r="J112" t="n">
         <v>0.06908251275403839</v>
@@ -12612,7 +12612,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E113" t="n">
         <v>0.05845131565105662</v>
@@ -12627,7 +12627,7 @@
         <v>0.05832401311168878</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.04740457884081008</v>
       </c>
       <c r="J113" t="n">
         <v>0.06187515618084711</v>
@@ -12653,7 +12653,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E114" t="n">
         <v>0.05845131565105662</v>
@@ -12668,7 +12668,7 @@
         <v>0.05144738274480844</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.03566350668209552</v>
       </c>
       <c r="J114" t="n">
         <v>0.05827147789425147</v>
@@ -12694,7 +12694,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E115" t="n">
         <v>0.08484993249298563</v>
@@ -12709,7 +12709,7 @@
         <v>0.0445707523779281</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.02392243452338094</v>
       </c>
       <c r="J115" t="n">
         <v>0.05466779960765584</v>
@@ -12735,7 +12735,7 @@
         <v>0.077588011404134</v>
       </c>
       <c r="D116" t="n">
-        <v>1.264024219207912e-05</v>
+        <v>0.008716470848086365</v>
       </c>
       <c r="E116" t="n">
         <v>0.0374387758596007</v>
@@ -12750,7 +12750,7 @@
         <v>0.07831717917835938</v>
       </c>
       <c r="I116" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.0839323588901443</v>
       </c>
       <c r="J116" t="n">
         <v>0.06983027599850698</v>
@@ -12776,7 +12776,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D117" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E117" t="n">
         <v>0.04662861408721913</v>
@@ -12791,7 +12791,7 @@
         <v>0.07144054881147906</v>
       </c>
       <c r="I117" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.07219128673142974</v>
       </c>
       <c r="J117" t="n">
         <v>0.06622659771191135</v>
@@ -12817,7 +12817,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D118" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E118" t="n">
         <v>0.04662861408721913</v>
@@ -12832,7 +12832,7 @@
         <v>0.06456391844459872</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.06045021457271517</v>
       </c>
       <c r="J118" t="n">
         <v>0.06262291942531571</v>
@@ -12858,7 +12858,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E119" t="n">
         <v>0.05845131565105662</v>
@@ -12873,7 +12873,7 @@
         <v>0.05768728807771838</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.04870914241400059</v>
       </c>
       <c r="J119" t="n">
         <v>0.05901924113872007</v>
@@ -12899,7 +12899,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E120" t="n">
         <v>0.05845131565105662</v>
@@ -12914,7 +12914,7 @@
         <v>0.05081065771083804</v>
       </c>
       <c r="I120" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.03696807025528602</v>
       </c>
       <c r="J120" t="n">
         <v>0.05541556285212443</v>
@@ -12940,7 +12940,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E121" t="n">
         <v>0.08484993249298563</v>
@@ -12955,7 +12955,7 @@
         <v>0.0439340273439577</v>
       </c>
       <c r="I121" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.02522699809657145</v>
       </c>
       <c r="J121" t="n">
         <v>0.05181188456552879</v>
@@ -12981,7 +12981,7 @@
         <v>0.077588011404134</v>
       </c>
       <c r="D122" t="n">
-        <v>1.264024219207912e-05</v>
+        <v>0.008716470848086365</v>
       </c>
       <c r="E122" t="n">
         <v>0.0374387758596007</v>
@@ -12996,7 +12996,7 @@
         <v>0.08455708451126932</v>
       </c>
       <c r="I122" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.0969779946220494</v>
       </c>
       <c r="J122" t="n">
         <v>0.07057803924297558</v>
@@ -13022,7 +13022,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D123" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E123" t="n">
         <v>0.03992133376774524</v>
@@ -13037,7 +13037,7 @@
         <v>0.07768045414438898</v>
       </c>
       <c r="I123" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.08523692246333482</v>
       </c>
       <c r="J123" t="n">
         <v>0.06697436095637993</v>
@@ -13063,7 +13063,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D124" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E124" t="n">
         <v>0.04662861408721913</v>
@@ -13078,7 +13078,7 @@
         <v>0.07080382377750866</v>
       </c>
       <c r="I124" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.07349585030462025</v>
       </c>
       <c r="J124" t="n">
         <v>0.06337068266978431</v>
@@ -13104,7 +13104,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D125" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E125" t="n">
         <v>0.04662861408721913</v>
@@ -13119,7 +13119,7 @@
         <v>0.06392719341062832</v>
       </c>
       <c r="I125" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.06175477814590568</v>
       </c>
       <c r="J125" t="n">
         <v>0.05976700438318866</v>
@@ -13145,7 +13145,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E126" t="n">
         <v>0.05845131565105662</v>
@@ -13160,7 +13160,7 @@
         <v>0.05705056304374798</v>
       </c>
       <c r="I126" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.0500137059871911</v>
       </c>
       <c r="J126" t="n">
         <v>0.05616332609659302</v>
@@ -13186,7 +13186,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D127" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E127" t="n">
         <v>0.05845131565105662</v>
@@ -13201,7 +13201,7 @@
         <v>0.05017393267686764</v>
       </c>
       <c r="I127" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.03827263382847653</v>
       </c>
       <c r="J127" t="n">
         <v>0.05255964780999739</v>
@@ -13227,7 +13227,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E128" t="n">
         <v>0.08484993249298563</v>
@@ -13242,7 +13242,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I128" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.02653156166976196</v>
       </c>
       <c r="J128" t="n">
         <v>0.04895596952340175</v>
@@ -13268,7 +13268,7 @@
         <v>0.08415100485946812</v>
       </c>
       <c r="D129" t="n">
-        <v>1.021493917406807e-05</v>
+        <v>0.009156936548165772</v>
       </c>
       <c r="E129" t="n">
         <v>0.03284876089115195</v>
@@ -13283,7 +13283,7 @@
         <v>0.09079698984417925</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.1100236303539545</v>
       </c>
       <c r="J129" t="n">
         <v>0.07132580248744418</v>
@@ -13309,7 +13309,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D130" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E130" t="n">
         <v>0.03992133376774524</v>
@@ -13324,7 +13324,7 @@
         <v>0.08392035947729892</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.0982825581952399</v>
       </c>
       <c r="J130" t="n">
         <v>0.06772212420084854</v>
@@ -13350,7 +13350,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E131" t="n">
         <v>0.03992133376774524</v>
@@ -13365,7 +13365,7 @@
         <v>0.07704372911041858</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.08654148603652533</v>
       </c>
       <c r="J131" t="n">
         <v>0.06411844591425289</v>
@@ -13391,7 +13391,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E132" t="n">
         <v>0.04662861408721913</v>
@@ -13406,7 +13406,7 @@
         <v>0.07016709874353826</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.07480041387781076</v>
       </c>
       <c r="J132" t="n">
         <v>0.06051476762765726</v>
@@ -13432,7 +13432,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E133" t="n">
         <v>0.04662861408721913</v>
@@ -13447,7 +13447,7 @@
         <v>0.06329046837665792</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.06305934171909619</v>
       </c>
       <c r="J133" t="n">
         <v>0.05691108934106162</v>
@@ -13473,7 +13473,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E134" t="n">
         <v>0.05845131565105662</v>
@@ -13488,7 +13488,7 @@
         <v>0.05641383800977758</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.05131826956038161</v>
       </c>
       <c r="J134" t="n">
         <v>0.05330741105446598</v>
@@ -13514,7 +13514,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E135" t="n">
         <v>0.05845131565105662</v>
@@ -13529,7 +13529,7 @@
         <v>0.04953720764289724</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.03957719740166704</v>
       </c>
       <c r="J135" t="n">
         <v>0.04970373276787034</v>
@@ -13555,7 +13555,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E136" t="n">
         <v>0.08484993249298563</v>
@@ -13570,7 +13570,7 @@
         <v>0.0426605772760169</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.02783612524295247</v>
       </c>
       <c r="J136" t="n">
         <v>0.04610005448127471</v>
@@ -13596,7 +13596,7 @@
         <v>0.03289694134125055</v>
       </c>
       <c r="D137" t="n">
-        <v>1.055209998730806e-05</v>
+        <v>0.01004255259465242</v>
       </c>
       <c r="E137" t="n">
         <v>0.0226734545350202</v>
@@ -13611,7 +13611,7 @@
         <v>0.09703689517708919</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.1230692660858596</v>
       </c>
       <c r="J137" t="n">
         <v>0.07207356573191277</v>
@@ -13637,7 +13637,7 @@
         <v>0.02782755060022508</v>
       </c>
       <c r="D138" t="n">
-        <v>0.04024446169999801</v>
+        <v>0.04620128942821537</v>
       </c>
       <c r="E138" t="n">
         <v>0.03014379336368726</v>
@@ -13652,7 +13652,7 @@
         <v>0.08328363444332852</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.09958712176843042</v>
       </c>
       <c r="J138" t="n">
         <v>0.06486620915872149</v>
@@ -13678,7 +13678,7 @@
         <v>0.02782755060022508</v>
       </c>
       <c r="D139" t="n">
-        <v>0.04024446169999801</v>
+        <v>0.04620128942821537</v>
       </c>
       <c r="E139" t="n">
         <v>0.03014379336368726</v>
@@ -13693,7 +13693,7 @@
         <v>0.07640700407644818</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.08784604960971584</v>
       </c>
       <c r="J139" t="n">
         <v>0.06126253087212586</v>
@@ -13719,7 +13719,7 @@
         <v>0.02126455714489096</v>
       </c>
       <c r="D140" t="n">
-        <v>0.05282369801578217</v>
+        <v>0.05726402725875292</v>
       </c>
       <c r="E140" t="n">
         <v>0.03468132072233222</v>
@@ -13734,7 +13734,7 @@
         <v>0.06953037370956786</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.07610497745100127</v>
       </c>
       <c r="J140" t="n">
         <v>0.05765885258553022</v>
@@ -13760,7 +13760,7 @@
         <v>0.02126455714489096</v>
       </c>
       <c r="D141" t="n">
-        <v>0.05282369801578217</v>
+        <v>0.05726402725875292</v>
       </c>
       <c r="E141" t="n">
         <v>0.03468132072233222</v>
@@ -13775,7 +13775,7 @@
         <v>0.0626537433426875</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.06436390529228669</v>
       </c>
       <c r="J141" t="n">
         <v>0.05405517429893458</v>
@@ -13801,7 +13801,7 @@
         <v>0.01470156368955684</v>
       </c>
       <c r="D142" t="n">
-        <v>0.07684272618989893</v>
+        <v>0.07838764227725313</v>
       </c>
       <c r="E142" t="n">
         <v>0.0433457526740358</v>
@@ -13816,7 +13816,7 @@
         <v>0.05577711297580717</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.05262283313357212</v>
       </c>
       <c r="J142" t="n">
         <v>0.05045149601233894</v>
@@ -13842,7 +13842,7 @@
         <v>0.01470156368955684</v>
       </c>
       <c r="D143" t="n">
-        <v>0.07684272618989893</v>
+        <v>0.07838764227725313</v>
       </c>
       <c r="E143" t="n">
         <v>0.0433457526740358</v>
@@ -13857,7 +13857,7 @@
         <v>0.04890048260892683</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.04088176097485755</v>
       </c>
       <c r="J143" t="n">
         <v>0.0468478177257433</v>
@@ -13883,7 +13883,7 @@
         <v>0.008138570234222715</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1409210688665518</v>
+        <v>0.1347408871336653</v>
       </c>
       <c r="E144" t="n">
         <v>0.06646018265808946</v>
@@ -13898,7 +13898,7 @@
         <v>0.0420238522420465</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.02914068881614297</v>
       </c>
       <c r="J144" t="n">
         <v>0.04324413943914766</v>
@@ -13924,7 +13924,7 @@
         <v>0.05789903103813163</v>
       </c>
       <c r="D145" t="n">
-        <v>5.86143707829498e-05</v>
+        <v>0.0003673045978703234</v>
       </c>
       <c r="E145" t="n">
         <v>0.1244452068664951</v>
@@ -13939,7 +13939,7 @@
         <v>0.04902782761572091</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>0.01519544778689194</v>
       </c>
       <c r="J145" t="n">
         <v>0.06309139760257314</v>
@@ -13965,7 +13965,7 @@
         <v>0.06446202449346576</v>
       </c>
       <c r="D146" t="n">
-        <v>2.579646632349895e-05</v>
+        <v>0.006327214064682592</v>
       </c>
       <c r="E146" t="n">
         <v>0.06233698931016848</v>
@@ -13980,7 +13980,7 @@
         <v>0.05526773294863085</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.02824108351879702</v>
       </c>
       <c r="J146" t="n">
         <v>0.06383916084704173</v>
@@ -14006,7 +14006,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E147" t="n">
         <v>0.08484993249298563</v>
@@ -14021,7 +14021,7 @@
         <v>0.04839110258175051</v>
       </c>
       <c r="I147" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.01650001136008245</v>
       </c>
       <c r="J147" t="n">
         <v>0.06023548256044609</v>
@@ -14047,7 +14047,7 @@
         <v>0.06446202449346576</v>
       </c>
       <c r="D148" t="n">
-        <v>2.579646632349895e-05</v>
+        <v>0.006327214064682592</v>
       </c>
       <c r="E148" t="n">
         <v>0.06233698931016848</v>
@@ -14062,7 +14062,7 @@
         <v>0.06150763828154079</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.0412867192507021</v>
       </c>
       <c r="J148" t="n">
         <v>0.06458692409151033</v>
@@ -14088,7 +14088,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E149" t="n">
         <v>0.08484993249298563</v>
@@ -14103,7 +14103,7 @@
         <v>0.04775437754778011</v>
       </c>
       <c r="I149" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.01780457493327296</v>
       </c>
       <c r="J149" t="n">
         <v>0.05737956751831905</v>
@@ -14129,7 +14129,7 @@
         <v>0.07102501794879988</v>
       </c>
       <c r="D150" t="n">
-        <v>1.682810143318112e-05</v>
+        <v>0.007955923964026425</v>
       </c>
       <c r="E150" t="n">
         <v>0.045364404939975</v>
@@ -14144,7 +14144,7 @@
         <v>0.06774754361445072</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.05433235498260718</v>
       </c>
       <c r="J150" t="n">
         <v>0.06533468733597891</v>
@@ -14170,7 +14170,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D151" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E151" t="n">
         <v>0.05845131565105662</v>
@@ -14185,7 +14185,7 @@
         <v>0.05399428288069005</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.03085021066517804</v>
       </c>
       <c r="J151" t="n">
         <v>0.05812733076278765</v>
@@ -14211,7 +14211,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E152" t="n">
         <v>0.08484993249298563</v>
@@ -14226,7 +14226,7 @@
         <v>0.04711765251380971</v>
       </c>
       <c r="I152" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.01910913850646346</v>
       </c>
       <c r="J152" t="n">
         <v>0.05452365247619201</v>
@@ -14252,7 +14252,7 @@
         <v>0.07102501794879988</v>
       </c>
       <c r="D153" t="n">
-        <v>1.682810143318112e-05</v>
+        <v>0.007955923964026425</v>
       </c>
       <c r="E153" t="n">
         <v>0.045364404939975</v>
@@ -14267,7 +14267,7 @@
         <v>0.07398744894736065</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.06737799071451225</v>
       </c>
       <c r="J153" t="n">
         <v>0.06608245058044752</v>
@@ -14293,7 +14293,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E154" t="n">
         <v>0.05845131565105662</v>
@@ -14308,7 +14308,7 @@
         <v>0.06023418821359998</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.04389584639708311</v>
       </c>
       <c r="J154" t="n">
         <v>0.05887509400725624</v>
@@ -14334,7 +14334,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D155" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E155" t="n">
         <v>0.05845131565105662</v>
@@ -14349,7 +14349,7 @@
         <v>0.05335755784671965</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.03215477423836854</v>
       </c>
       <c r="J155" t="n">
         <v>0.0552714157206606</v>
@@ -14375,7 +14375,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E156" t="n">
         <v>0.08484993249298563</v>
@@ -14390,7 +14390,7 @@
         <v>0.04648092747983931</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.02041370207965397</v>
       </c>
       <c r="J156" t="n">
         <v>0.05166773743406497</v>
@@ -14416,7 +14416,7 @@
         <v>0.077588011404134</v>
       </c>
       <c r="D157" t="n">
-        <v>1.264024219207912e-05</v>
+        <v>0.008716470848086365</v>
       </c>
       <c r="E157" t="n">
         <v>0.0374387758596007</v>
@@ -14431,7 +14431,7 @@
         <v>0.08022735428027059</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.08042362644641735</v>
       </c>
       <c r="J157" t="n">
         <v>0.06683021382491612</v>
@@ -14457,7 +14457,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E158" t="n">
         <v>0.04662861408721913</v>
@@ -14472,7 +14472,7 @@
         <v>0.07335072391339025</v>
       </c>
       <c r="I158" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.06868255428770277</v>
       </c>
       <c r="J158" t="n">
         <v>0.06322653553832047</v>
@@ -14498,7 +14498,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E159" t="n">
         <v>0.04662861408721913</v>
@@ -14513,7 +14513,7 @@
         <v>0.06647409354650992</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.0569414821289882</v>
       </c>
       <c r="J159" t="n">
         <v>0.05962285725172484</v>
@@ -14539,7 +14539,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E160" t="n">
         <v>0.05845131565105662</v>
@@ -14554,7 +14554,7 @@
         <v>0.05959746317962959</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.04520040997027363</v>
       </c>
       <c r="J160" t="n">
         <v>0.0560191789651292</v>
@@ -14580,7 +14580,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E161" t="n">
         <v>0.05845131565105662</v>
@@ -14595,7 +14595,7 @@
         <v>0.05272083281274925</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.03345933781155905</v>
       </c>
       <c r="J161" t="n">
         <v>0.05241550067853356</v>
@@ -14621,7 +14621,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E162" t="n">
         <v>0.08484993249298563</v>
@@ -14636,7 +14636,7 @@
         <v>0.0458442024458689</v>
       </c>
       <c r="I162" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.02171826565284448</v>
       </c>
       <c r="J162" t="n">
         <v>0.04881182239193792</v>
@@ -14662,7 +14662,7 @@
         <v>0.077588011404134</v>
       </c>
       <c r="D163" t="n">
-        <v>1.264024219207912e-05</v>
+        <v>0.008716470848086365</v>
       </c>
       <c r="E163" t="n">
         <v>0.0374387758596007</v>
@@ -14677,7 +14677,7 @@
         <v>0.08646725961318052</v>
       </c>
       <c r="I163" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.09346926217832242</v>
       </c>
       <c r="J163" t="n">
         <v>0.0675779770693847</v>
@@ -14703,7 +14703,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E164" t="n">
         <v>0.03992133376774524</v>
@@ -14718,7 +14718,7 @@
         <v>0.07959062924630018</v>
       </c>
       <c r="I164" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.08172819001960785</v>
       </c>
       <c r="J164" t="n">
         <v>0.06397429878278907</v>
@@ -14744,7 +14744,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D165" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E165" t="n">
         <v>0.04662861408721913</v>
@@ -14759,7 +14759,7 @@
         <v>0.07271399887941984</v>
       </c>
       <c r="I165" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.06998711786089329</v>
       </c>
       <c r="J165" t="n">
         <v>0.06037062049619343</v>
@@ -14785,7 +14785,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D166" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E166" t="n">
         <v>0.04662861408721913</v>
@@ -14800,7 +14800,7 @@
         <v>0.06583736851253952</v>
       </c>
       <c r="I166" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.05824604570217871</v>
       </c>
       <c r="J166" t="n">
         <v>0.05676694220959779</v>
@@ -14826,7 +14826,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D167" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E167" t="n">
         <v>0.05845131565105662</v>
@@ -14841,7 +14841,7 @@
         <v>0.05896073814565918</v>
       </c>
       <c r="I167" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.04650497354346413</v>
       </c>
       <c r="J167" t="n">
         <v>0.05316326392300215</v>
@@ -14867,7 +14867,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E168" t="n">
         <v>0.05845131565105662</v>
@@ -14882,7 +14882,7 @@
         <v>0.05208410777877884</v>
       </c>
       <c r="I168" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.03476390138474956</v>
       </c>
       <c r="J168" t="n">
         <v>0.04955958563640652</v>
@@ -14908,7 +14908,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E169" t="n">
         <v>0.08484993249298563</v>
@@ -14923,7 +14923,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I169" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.02302282922603498</v>
       </c>
       <c r="J169" t="n">
         <v>0.04595590734981088</v>
@@ -14949,7 +14949,7 @@
         <v>0.08415100485946812</v>
       </c>
       <c r="D170" t="n">
-        <v>1.021493917406807e-05</v>
+        <v>0.009156936548165772</v>
       </c>
       <c r="E170" t="n">
         <v>0.03284876089115195</v>
@@ -14964,7 +14964,7 @@
         <v>0.09270716494609045</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.1065148979102275</v>
       </c>
       <c r="J170" t="n">
         <v>0.0683257403138533</v>
@@ -14990,7 +14990,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D171" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E171" t="n">
         <v>0.03992133376774524</v>
@@ -15005,7 +15005,7 @@
         <v>0.08583053457921012</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.09477382575151294</v>
       </c>
       <c r="J171" t="n">
         <v>0.06472206202725767</v>
@@ -15031,7 +15031,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E172" t="n">
         <v>0.03992133376774524</v>
@@ -15046,7 +15046,7 @@
         <v>0.07895390421232978</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.08303275359279837</v>
       </c>
       <c r="J172" t="n">
         <v>0.06111838374066203</v>
@@ -15072,7 +15072,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D173" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E173" t="n">
         <v>0.04662861408721913</v>
@@ -15087,7 +15087,7 @@
         <v>0.07207727384544944</v>
       </c>
       <c r="I173" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.07129168143408378</v>
       </c>
       <c r="J173" t="n">
         <v>0.05751470545406639</v>
@@ -15113,7 +15113,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D174" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E174" t="n">
         <v>0.04662861408721913</v>
@@ -15128,7 +15128,7 @@
         <v>0.06520064347856912</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.05955060927536921</v>
       </c>
       <c r="J174" t="n">
         <v>0.05391102716747075</v>
@@ -15154,7 +15154,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E175" t="n">
         <v>0.05845131565105662</v>
@@ -15169,7 +15169,7 @@
         <v>0.05832401311168878</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.04780953711665464</v>
       </c>
       <c r="J175" t="n">
         <v>0.05030734888087511</v>
@@ -15195,7 +15195,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E176" t="n">
         <v>0.05845131565105662</v>
@@ -15210,7 +15210,7 @@
         <v>0.05144738274480844</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.03606846495794007</v>
       </c>
       <c r="J176" t="n">
         <v>0.04670367059427947</v>
@@ -15236,7 +15236,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E177" t="n">
         <v>0.08484993249298563</v>
@@ -15251,7 +15251,7 @@
         <v>0.0445707523779281</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.0243273927992255</v>
       </c>
       <c r="J177" t="n">
         <v>0.04309999230768383</v>
@@ -15277,7 +15277,7 @@
         <v>0.08415100485946812</v>
       </c>
       <c r="D178" t="n">
-        <v>1.021493917406807e-05</v>
+        <v>0.009156936548165772</v>
       </c>
       <c r="E178" t="n">
         <v>0.03284876089115195</v>
@@ -15292,7 +15292,7 @@
         <v>0.0989470702790004</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.1195605336421326</v>
       </c>
       <c r="J178" t="n">
         <v>0.0690735035583219</v>
@@ -15318,7 +15318,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E179" t="n">
         <v>0.03992133376774524</v>
@@ -15333,7 +15333,7 @@
         <v>0.08519380954523972</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.09607838932470343</v>
       </c>
       <c r="J179" t="n">
         <v>0.06186614698513062</v>
@@ -15359,7 +15359,7 @@
         <v>0.07908161411844265</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03656193655535156</v>
+        <v>0.04198162148473884</v>
       </c>
       <c r="E180" t="n">
         <v>0.03992133376774524</v>
@@ -15374,7 +15374,7 @@
         <v>0.07831717917835938</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.08433731716598886</v>
       </c>
       <c r="J180" t="n">
         <v>0.05826246869853499</v>
@@ -15400,7 +15400,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D181" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E181" t="n">
         <v>0.04662861408721913</v>
@@ -15415,7 +15415,7 @@
         <v>0.07144054881147906</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.0725962450072743</v>
       </c>
       <c r="J181" t="n">
         <v>0.05465879041193935</v>
@@ -15441,7 +15441,7 @@
         <v>0.07251862066310853</v>
       </c>
       <c r="D182" t="n">
-        <v>0.04665546526678088</v>
+        <v>0.05058742573422501</v>
       </c>
       <c r="E182" t="n">
         <v>0.04662861408721913</v>
@@ -15456,7 +15456,7 @@
         <v>0.06456391844459872</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.06085517284855972</v>
       </c>
       <c r="J182" t="n">
         <v>0.05105511212534371</v>
@@ -15482,7 +15482,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D183" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E183" t="n">
         <v>0.05845131565105662</v>
@@ -15497,7 +15497,7 @@
         <v>0.05768728807771838</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.04911410068984515</v>
       </c>
       <c r="J183" t="n">
         <v>0.04745143383874807</v>
@@ -15523,7 +15523,7 @@
         <v>0.06595562720777441</v>
       </c>
       <c r="D184" t="n">
-        <v>0.06444750965291822</v>
+        <v>0.06575718210584429</v>
       </c>
       <c r="E184" t="n">
         <v>0.05845131565105662</v>
@@ -15538,7 +15538,7 @@
         <v>0.05081065771083804</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.03737302853113057</v>
       </c>
       <c r="J184" t="n">
         <v>0.04384775555215243</v>
@@ -15564,7 +15564,7 @@
         <v>0.05939263375244029</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1041751125323968</v>
+        <v>0.09962935396132003</v>
       </c>
       <c r="E185" t="n">
         <v>0.08484993249298563</v>
@@ -15579,7 +15579,7 @@
         <v>0.0439340273439577</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.02563195637241601</v>
       </c>
       <c r="J185" t="n">
         <v>0.04024407726555679</v>
@@ -15605,7 +15605,7 @@
         <v>0.03945993479658467</v>
       </c>
       <c r="D186" t="n">
-        <v>8.781200866144741e-06</v>
+        <v>0.01018646928765387</v>
       </c>
       <c r="E186" t="n">
         <v>0.02135116440137196</v>
@@ -15620,7 +15620,7 @@
         <v>0.1051869756119103</v>
       </c>
       <c r="I186" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.1326061693740377</v>
       </c>
       <c r="J186" t="n">
         <v>0.06982126680279049</v>
@@ -15646,7 +15646,7 @@
         <v>0.03439054405555921</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0325041062661883</v>
+        <v>0.03939417147808885</v>
       </c>
       <c r="E187" t="n">
         <v>0.02735161157548797</v>
@@ -15661,7 +15661,7 @@
         <v>0.09831034524502999</v>
       </c>
       <c r="I187" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.1208650972153231</v>
       </c>
       <c r="J187" t="n">
         <v>0.06621758851619486</v>
@@ -15687,7 +15687,7 @@
         <v>0.03439054405555921</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0325041062661883</v>
+        <v>0.03939417147808885</v>
       </c>
       <c r="E188" t="n">
         <v>0.02735161157548797</v>
@@ -15702,7 +15702,7 @@
         <v>0.09143371487814965</v>
       </c>
       <c r="I188" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.1091240250566085</v>
       </c>
       <c r="J188" t="n">
         <v>0.06261391022959921</v>
@@ -15728,7 +15728,7 @@
         <v>0.02782755060022508</v>
       </c>
       <c r="D189" t="n">
-        <v>0.04024446169999801</v>
+        <v>0.04620128942821537</v>
       </c>
       <c r="E189" t="n">
         <v>0.03014379336368726</v>
@@ -15743,7 +15743,7 @@
         <v>0.08455708451126932</v>
       </c>
       <c r="I189" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.09738295289789395</v>
       </c>
       <c r="J189" t="n">
         <v>0.05901023194300358</v>
@@ -15769,7 +15769,7 @@
         <v>0.02782755060022508</v>
       </c>
       <c r="D190" t="n">
-        <v>0.04024446169999801</v>
+        <v>0.04620128942821537</v>
       </c>
       <c r="E190" t="n">
         <v>0.03014379336368726</v>
@@ -15784,7 +15784,7 @@
         <v>0.07768045414438898</v>
       </c>
       <c r="I190" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.08564188073917937</v>
       </c>
       <c r="J190" t="n">
         <v>0.05540655365640794</v>
@@ -15810,7 +15810,7 @@
         <v>0.02126455714489096</v>
       </c>
       <c r="D191" t="n">
-        <v>0.05282369801578217</v>
+        <v>0.05726402725875292</v>
       </c>
       <c r="E191" t="n">
         <v>0.03468132072233222</v>
@@ -15825,7 +15825,7 @@
         <v>0.07080382377750866</v>
       </c>
       <c r="I191" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.0739008085804648</v>
       </c>
       <c r="J191" t="n">
         <v>0.0518028753698123</v>
@@ -15851,7 +15851,7 @@
         <v>0.02126455714489096</v>
       </c>
       <c r="D192" t="n">
-        <v>0.05282369801578217</v>
+        <v>0.05726402725875292</v>
       </c>
       <c r="E192" t="n">
         <v>0.03468132072233222</v>
@@ -15866,7 +15866,7 @@
         <v>0.06392719341062832</v>
       </c>
       <c r="I192" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.06215973642175023</v>
       </c>
       <c r="J192" t="n">
         <v>0.04819919708321667</v>
@@ -15892,7 +15892,7 @@
         <v>0.01470156368955684</v>
       </c>
       <c r="D193" t="n">
-        <v>0.07684272618989893</v>
+        <v>0.07838764227725313</v>
       </c>
       <c r="E193" t="n">
         <v>0.0433457526740358</v>
@@ -15907,7 +15907,7 @@
         <v>0.05705056304374798</v>
       </c>
       <c r="I193" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.05041866426303566</v>
       </c>
       <c r="J193" t="n">
         <v>0.04459551879662103</v>
@@ -15933,7 +15933,7 @@
         <v>0.01470156368955684</v>
       </c>
       <c r="D194" t="n">
-        <v>0.07684272618989893</v>
+        <v>0.07838764227725313</v>
       </c>
       <c r="E194" t="n">
         <v>0.0433457526740358</v>
@@ -15948,7 +15948,7 @@
         <v>0.05017393267686764</v>
       </c>
       <c r="I194" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.03867759210432108</v>
       </c>
       <c r="J194" t="n">
         <v>0.04099184051002539</v>
@@ -15974,7 +15974,7 @@
         <v>0.008138570234222715</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1409210688665518</v>
+        <v>0.1347408871336653</v>
       </c>
       <c r="E195" t="n">
         <v>0.06646018265808946</v>
@@ -15989,7 +15989,7 @@
         <v>0.0432973023099873</v>
       </c>
       <c r="I195" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.02693651994560651</v>
       </c>
       <c r="J195" t="n">
         <v>0.03738816222342975</v>
@@ -16015,7 +16015,7 @@
         <v>0.05125406351821758</v>
       </c>
       <c r="D196" t="n">
-        <v>6.764511950570066e-06</v>
+        <v>9.369292655658917e-05</v>
       </c>
       <c r="E196" t="n">
         <v>0.1369820580303904</v>
@@ -16030,7 +16030,7 @@
         <v>0.05093800271763212</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>0.01168671534316497</v>
       </c>
       <c r="J196" t="n">
         <v>0.06009133542898228</v>
@@ -16056,7 +16056,7 @@
         <v>0.0578170569735517</v>
       </c>
       <c r="D197" t="n">
-        <v>2.794344725536599e-06</v>
+        <v>0.007624076691594599</v>
       </c>
       <c r="E197" t="n">
         <v>0.05170188619037664</v>
@@ -16071,7 +16071,7 @@
         <v>0.05717790805054206</v>
       </c>
       <c r="I197" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.02473235107507005</v>
       </c>
       <c r="J197" t="n">
         <v>0.06083909867345087</v>
@@ -16097,7 +16097,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E198" t="n">
         <v>0.07887562308819616</v>
@@ -16112,7 +16112,7 @@
         <v>0.05030127768366172</v>
       </c>
       <c r="I198" t="n">
-        <v>0.01074461628141577</v>
+        <v>0.01299127891635548</v>
       </c>
       <c r="J198" t="n">
         <v>0.05723542038685522</v>
@@ -16138,7 +16138,7 @@
         <v>0.0578170569735517</v>
       </c>
       <c r="D199" t="n">
-        <v>2.794344725536599e-06</v>
+        <v>0.007624076691594599</v>
       </c>
       <c r="E199" t="n">
         <v>0.05170188619037664</v>
@@ -16153,7 +16153,7 @@
         <v>0.063417813383452</v>
       </c>
       <c r="I199" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.03777798680697513</v>
       </c>
       <c r="J199" t="n">
         <v>0.06158686191791946</v>
@@ -16179,7 +16179,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D200" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E200" t="n">
         <v>0.05129391431417436</v>
@@ -16194,7 +16194,7 @@
         <v>0.05654118301657166</v>
       </c>
       <c r="I200" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.02603691464826056</v>
       </c>
       <c r="J200" t="n">
         <v>0.05798318363132382</v>
@@ -16220,7 +16220,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E201" t="n">
         <v>0.07887562308819616</v>
@@ -16235,7 +16235,7 @@
         <v>0.04966455264969132</v>
       </c>
       <c r="I201" t="n">
-        <v>0.02148923256283155</v>
+        <v>0.01429584248954598</v>
       </c>
       <c r="J201" t="n">
         <v>0.05437950534472819</v>
@@ -16261,7 +16261,7 @@
         <v>0.06438005042888582</v>
       </c>
       <c r="D202" t="n">
-        <v>2.101220261208836e-06</v>
+        <v>0.008938740974552358</v>
       </c>
       <c r="E202" t="n">
         <v>0.03681343105390792</v>
@@ -16276,7 +16276,7 @@
         <v>0.06965771871636194</v>
       </c>
       <c r="I202" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.05082362253888021</v>
       </c>
       <c r="J202" t="n">
         <v>0.06233462516238805</v>
@@ -16302,7 +16302,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D203" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E203" t="n">
         <v>0.05129391431417436</v>
@@ -16317,7 +16317,7 @@
         <v>0.05590445798260125</v>
       </c>
       <c r="I203" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.02734147822145106</v>
       </c>
       <c r="J203" t="n">
         <v>0.05512726858919678</v>
@@ -16343,7 +16343,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E204" t="n">
         <v>0.07887562308819616</v>
@@ -16358,7 +16358,7 @@
         <v>0.04902782761572091</v>
       </c>
       <c r="I204" t="n">
-        <v>0.03223384884424732</v>
+        <v>0.01560040606273649</v>
       </c>
       <c r="J204" t="n">
         <v>0.05152359030260114</v>
@@ -16384,7 +16384,7 @@
         <v>0.06438005042888582</v>
       </c>
       <c r="D205" t="n">
-        <v>2.101220261208836e-06</v>
+        <v>0.008938740974552358</v>
       </c>
       <c r="E205" t="n">
         <v>0.03681343105390792</v>
@@ -16399,7 +16399,7 @@
         <v>0.07589762404927186</v>
       </c>
       <c r="I205" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.06386925827078528</v>
       </c>
       <c r="J205" t="n">
         <v>0.06308238840685665</v>
@@ -16425,7 +16425,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D206" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E206" t="n">
         <v>0.05129391431417436</v>
@@ -16440,7 +16440,7 @@
         <v>0.06214436331551119</v>
       </c>
       <c r="I206" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.04038711395335615</v>
       </c>
       <c r="J206" t="n">
         <v>0.05587503183366537</v>
@@ -16466,7 +16466,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D207" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E207" t="n">
         <v>0.05129391431417436</v>
@@ -16481,7 +16481,7 @@
         <v>0.05526773294863085</v>
       </c>
       <c r="I207" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.02864604179464157</v>
       </c>
       <c r="J207" t="n">
         <v>0.05227135354706974</v>
@@ -16507,7 +16507,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E208" t="n">
         <v>0.07887562308819616</v>
@@ -16522,7 +16522,7 @@
         <v>0.04839110258175051</v>
       </c>
       <c r="I208" t="n">
-        <v>0.0429784651256631</v>
+        <v>0.016904969635927</v>
       </c>
       <c r="J208" t="n">
         <v>0.0486676752604741</v>
@@ -16548,7 +16548,7 @@
         <v>0.07094304388421994</v>
       </c>
       <c r="D209" t="n">
-        <v>1.813077105862516e-06</v>
+        <v>0.009485275783114897</v>
       </c>
       <c r="E209" t="n">
         <v>0.03062413452007358</v>
@@ -16563,7 +16563,7 @@
         <v>0.0821375293821818</v>
       </c>
       <c r="I209" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.07691489400269036</v>
       </c>
       <c r="J209" t="n">
         <v>0.06383015165132525</v>
@@ -16589,7 +16589,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D210" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E210" t="n">
         <v>0.04046317555784106</v>
@@ -16604,7 +16604,7 @@
         <v>0.07526089901530146</v>
       </c>
       <c r="I210" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.0651738218439758</v>
       </c>
       <c r="J210" t="n">
         <v>0.0602264733647296</v>
@@ -16630,7 +16630,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D211" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E211" t="n">
         <v>0.04046317555784106</v>
@@ -16645,7 +16645,7 @@
         <v>0.06838426864842112</v>
       </c>
       <c r="I211" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.05343274968526122</v>
       </c>
       <c r="J211" t="n">
         <v>0.05662279507813396</v>
@@ -16671,7 +16671,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D212" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E212" t="n">
         <v>0.05129391431417436</v>
@@ -16686,7 +16686,7 @@
         <v>0.06150763828154079</v>
       </c>
       <c r="I212" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.04169167752654666</v>
       </c>
       <c r="J212" t="n">
         <v>0.05301911679153833</v>
@@ -16712,7 +16712,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D213" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E213" t="n">
         <v>0.05129391431417436</v>
@@ -16727,7 +16727,7 @@
         <v>0.05463100791466045</v>
       </c>
       <c r="I213" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.02995060536783208</v>
       </c>
       <c r="J213" t="n">
         <v>0.04941543850494269</v>
@@ -16753,7 +16753,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D214" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E214" t="n">
         <v>0.07887562308819616</v>
@@ -16768,7 +16768,7 @@
         <v>0.04775437754778011</v>
       </c>
       <c r="I214" t="n">
-        <v>0.05372308140707887</v>
+        <v>0.01820953320911751</v>
       </c>
       <c r="J214" t="n">
         <v>0.04581176021834705</v>
@@ -16794,7 +16794,7 @@
         <v>0.07094304388421994</v>
       </c>
       <c r="D215" t="n">
-        <v>1.813077105862516e-06</v>
+        <v>0.009485275783114897</v>
       </c>
       <c r="E215" t="n">
         <v>0.03062413452007358</v>
@@ -16809,7 +16809,7 @@
         <v>0.08837743471509173</v>
       </c>
       <c r="I215" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.08996052973459545</v>
       </c>
       <c r="J215" t="n">
         <v>0.06457791489579384</v>
@@ -16835,7 +16835,7 @@
         <v>0.0724366465985286</v>
       </c>
       <c r="D216" t="n">
-        <v>0.03935467784101839</v>
+        <v>0.04514430248234092</v>
       </c>
       <c r="E216" t="n">
         <v>0.03467813965507138</v>
@@ -16850,7 +16850,7 @@
         <v>0.0815008043482114</v>
       </c>
       <c r="I216" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.07821945757588088</v>
       </c>
       <c r="J216" t="n">
         <v>0.0609742366091982</v>
@@ -16876,7 +16876,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D217" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E217" t="n">
         <v>0.04046317555784106</v>
@@ -16891,7 +16891,7 @@
         <v>0.07462417398133105</v>
       </c>
       <c r="I217" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.06647838541716632</v>
       </c>
       <c r="J217" t="n">
         <v>0.05737055832260256</v>
@@ -16917,7 +16917,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D218" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E218" t="n">
         <v>0.04046317555784106</v>
@@ -16932,7 +16932,7 @@
         <v>0.06774754361445072</v>
       </c>
       <c r="I218" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.05473731325845173</v>
       </c>
       <c r="J218" t="n">
         <v>0.05376688003600692</v>
@@ -16958,7 +16958,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D219" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E219" t="n">
         <v>0.05129391431417436</v>
@@ -16973,7 +16973,7 @@
         <v>0.06087091324757038</v>
       </c>
       <c r="I219" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.04299624109973717</v>
       </c>
       <c r="J219" t="n">
         <v>0.05016320174941128</v>
@@ -16999,7 +16999,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D220" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E220" t="n">
         <v>0.05129391431417436</v>
@@ -17014,7 +17014,7 @@
         <v>0.05399428288069005</v>
       </c>
       <c r="I220" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.03125516894102259</v>
       </c>
       <c r="J220" t="n">
         <v>0.04655952346281565</v>
@@ -17040,7 +17040,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E221" t="n">
         <v>0.07887562308819616</v>
@@ -17055,7 +17055,7 @@
         <v>0.04711765251380971</v>
       </c>
       <c r="I221" t="n">
-        <v>0.06446769768849464</v>
+        <v>0.01951409678230802</v>
       </c>
       <c r="J221" t="n">
         <v>0.04295584517622001</v>
@@ -17081,7 +17081,7 @@
         <v>0.07750603733955407</v>
       </c>
       <c r="D222" t="n">
-        <v>1.655225966808565e-06</v>
+        <v>0.009784679156094921</v>
       </c>
       <c r="E222" t="n">
         <v>0.02723338190896021</v>
@@ -17096,7 +17096,7 @@
         <v>0.09461734004800167</v>
       </c>
       <c r="I222" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.1030061654665005</v>
       </c>
       <c r="J222" t="n">
         <v>0.06532567814026244</v>
@@ -17122,7 +17122,7 @@
         <v>0.0724366465985286</v>
       </c>
       <c r="D223" t="n">
-        <v>0.03935467784101839</v>
+        <v>0.04514430248234092</v>
       </c>
       <c r="E223" t="n">
         <v>0.03467813965507138</v>
@@ -17137,7 +17137,7 @@
         <v>0.08086407931424099</v>
       </c>
       <c r="I223" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.07952402114907139</v>
       </c>
       <c r="J223" t="n">
         <v>0.05811832156707116</v>
@@ -17163,7 +17163,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D224" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E224" t="n">
         <v>0.04046317555784106</v>
@@ -17178,7 +17178,7 @@
         <v>0.07398744894736065</v>
       </c>
       <c r="I224" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.06778294899035682</v>
       </c>
       <c r="J224" t="n">
         <v>0.05451464328047552</v>
@@ -17204,7 +17204,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D225" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E225" t="n">
         <v>0.04046317555784106</v>
@@ -17219,7 +17219,7 @@
         <v>0.06711081858048032</v>
       </c>
       <c r="I225" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.05604187683164224</v>
       </c>
       <c r="J225" t="n">
         <v>0.05091096499387988</v>
@@ -17245,7 +17245,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D226" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E226" t="n">
         <v>0.05129391431417436</v>
@@ -17260,7 +17260,7 @@
         <v>0.06023418821359998</v>
       </c>
       <c r="I226" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.04430080467292767</v>
       </c>
       <c r="J226" t="n">
         <v>0.04730728670728424</v>
@@ -17286,7 +17286,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D227" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E227" t="n">
         <v>0.05129391431417436</v>
@@ -17301,7 +17301,7 @@
         <v>0.05335755784671965</v>
       </c>
       <c r="I227" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.0325597325142131</v>
       </c>
       <c r="J227" t="n">
         <v>0.0437036084206886</v>
@@ -17327,7 +17327,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E228" t="n">
         <v>0.07887562308819616</v>
@@ -17342,7 +17342,7 @@
         <v>0.04648092747983931</v>
       </c>
       <c r="I228" t="n">
-        <v>0.0752123139699104</v>
+        <v>0.02081866035549853</v>
       </c>
       <c r="J228" t="n">
         <v>0.04009993013409296</v>
@@ -17368,7 +17368,7 @@
         <v>0.07750603733955407</v>
       </c>
       <c r="D229" t="n">
-        <v>1.655225966808565e-06</v>
+        <v>0.009784679156094921</v>
       </c>
       <c r="E229" t="n">
         <v>0.02723338190896021</v>
@@ -17383,7 +17383,7 @@
         <v>0.1008572453809116</v>
       </c>
       <c r="I229" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.1160518011984056</v>
       </c>
       <c r="J229" t="n">
         <v>0.06607344138473104</v>
@@ -17409,7 +17409,7 @@
         <v>0.0724366465985286</v>
       </c>
       <c r="D230" t="n">
-        <v>0.03935467784101839</v>
+        <v>0.04514430248234092</v>
       </c>
       <c r="E230" t="n">
         <v>0.03467813965507138</v>
@@ -17424,7 +17424,7 @@
         <v>0.08710398464715094</v>
       </c>
       <c r="I230" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.09256965688097647</v>
       </c>
       <c r="J230" t="n">
         <v>0.05886608481153975</v>
@@ -17450,7 +17450,7 @@
         <v>0.0724366465985286</v>
       </c>
       <c r="D231" t="n">
-        <v>0.03935467784101839</v>
+        <v>0.04514430248234092</v>
       </c>
       <c r="E231" t="n">
         <v>0.03467813965507138</v>
@@ -17465,7 +17465,7 @@
         <v>0.08022735428027059</v>
       </c>
       <c r="I231" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.0808285847222619</v>
       </c>
       <c r="J231" t="n">
         <v>0.05526240652494411</v>
@@ -17491,7 +17491,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D232" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E232" t="n">
         <v>0.04046317555784106</v>
@@ -17506,7 +17506,7 @@
         <v>0.07335072391339025</v>
       </c>
       <c r="I232" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.06908751256354732</v>
       </c>
       <c r="J232" t="n">
         <v>0.05165872823834848</v>
@@ -17532,7 +17532,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D233" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E233" t="n">
         <v>0.04046317555784106</v>
@@ -17547,7 +17547,7 @@
         <v>0.06647409354650992</v>
       </c>
       <c r="I233" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.05734644040483275</v>
       </c>
       <c r="J233" t="n">
         <v>0.04805504995175284</v>
@@ -17573,7 +17573,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D234" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E234" t="n">
         <v>0.05129391431417436</v>
@@ -17588,7 +17588,7 @@
         <v>0.05959746317962959</v>
       </c>
       <c r="I234" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.04560536824611818</v>
       </c>
       <c r="J234" t="n">
         <v>0.0444513716651572</v>
@@ -17614,7 +17614,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D235" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E235" t="n">
         <v>0.05129391431417436</v>
@@ -17629,7 +17629,7 @@
         <v>0.05272083281274925</v>
       </c>
       <c r="I235" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.03386429608740361</v>
       </c>
       <c r="J235" t="n">
         <v>0.04084769337856156</v>
@@ -17655,7 +17655,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E236" t="n">
         <v>0.07887562308819616</v>
@@ -17670,7 +17670,7 @@
         <v>0.0458442024458689</v>
       </c>
       <c r="I236" t="n">
-        <v>0.0859569302513262</v>
+        <v>0.02212322392868903</v>
       </c>
       <c r="J236" t="n">
         <v>0.03724401509196592</v>
@@ -17696,7 +17696,7 @@
         <v>0.08406903079488819</v>
       </c>
       <c r="D237" t="n">
-        <v>1.555587211151465e-06</v>
+        <v>0.00997367739910698</v>
       </c>
       <c r="E237" t="n">
         <v>0.02509318636476321</v>
@@ -17711,7 +17711,7 @@
         <v>0.1070971507138215</v>
       </c>
       <c r="I237" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.1290974369303107</v>
       </c>
       <c r="J237" t="n">
         <v>0.06682120462919963</v>
@@ -17737,7 +17737,7 @@
         <v>0.07899964005386272</v>
       </c>
       <c r="D238" t="n">
-        <v>0.03191985286364276</v>
+        <v>0.03865770149724869</v>
       </c>
       <c r="E238" t="n">
         <v>0.03107902713837321</v>
@@ -17752,7 +17752,7 @@
         <v>0.1002205203469412</v>
       </c>
       <c r="I238" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.1173563647715961</v>
       </c>
       <c r="J238" t="n">
         <v>0.06321752634260398</v>
@@ -17778,7 +17778,7 @@
         <v>0.07899964005386272</v>
       </c>
       <c r="D239" t="n">
-        <v>0.03191985286364276</v>
+        <v>0.03865770149724869</v>
       </c>
       <c r="E239" t="n">
         <v>0.03107902713837321</v>
@@ -17793,7 +17793,7 @@
         <v>0.09334388998006087</v>
       </c>
       <c r="I239" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.1056152926128816</v>
       </c>
       <c r="J239" t="n">
         <v>0.05961384805600835</v>
@@ -17819,7 +17819,7 @@
         <v>0.0724366465985286</v>
       </c>
       <c r="D240" t="n">
-        <v>0.03935467784101839</v>
+        <v>0.04514430248234092</v>
       </c>
       <c r="E240" t="n">
         <v>0.03467813965507138</v>
@@ -17834,7 +17834,7 @@
         <v>0.08646725961318052</v>
       </c>
       <c r="I240" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.09387422045416698</v>
       </c>
       <c r="J240" t="n">
         <v>0.05601016976941271</v>
@@ -17860,7 +17860,7 @@
         <v>0.0724366465985286</v>
       </c>
       <c r="D241" t="n">
-        <v>0.03935467784101839</v>
+        <v>0.04514430248234092</v>
       </c>
       <c r="E241" t="n">
         <v>0.03467813965507138</v>
@@ -17875,7 +17875,7 @@
         <v>0.07959062924630018</v>
       </c>
       <c r="I241" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.08213314829545242</v>
       </c>
       <c r="J241" t="n">
         <v>0.05240649148281707</v>
@@ -17901,7 +17901,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D242" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E242" t="n">
         <v>0.04046317555784106</v>
@@ -17916,7 +17916,7 @@
         <v>0.07271399887941984</v>
       </c>
       <c r="I242" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.07039207613673783</v>
       </c>
       <c r="J242" t="n">
         <v>0.04880281319622143</v>
@@ -17942,7 +17942,7 @@
         <v>0.06587365314319447</v>
       </c>
       <c r="D243" t="n">
-        <v>0.05130493981413937</v>
+        <v>0.05557058208387429</v>
       </c>
       <c r="E243" t="n">
         <v>0.04046317555784106</v>
@@ -17957,7 +17957,7 @@
         <v>0.06583736851253952</v>
       </c>
       <c r="I243" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.05865100397802326</v>
       </c>
       <c r="J243" t="n">
         <v>0.0451991349096258</v>
@@ -17983,7 +17983,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D244" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E244" t="n">
         <v>0.05129391431417436</v>
@@ -17998,7 +17998,7 @@
         <v>0.05896073814565918</v>
       </c>
       <c r="I244" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.04690993181930869</v>
       </c>
       <c r="J244" t="n">
         <v>0.04159545662303016</v>
@@ -18024,7 +18024,7 @@
         <v>0.05931065968786036</v>
       </c>
       <c r="D245" t="n">
-        <v>0.07367756094073126</v>
+        <v>0.07509008704351496</v>
       </c>
       <c r="E245" t="n">
         <v>0.05129391431417436</v>
@@ -18039,7 +18039,7 @@
         <v>0.05208410777877884</v>
       </c>
       <c r="I245" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.03516885966059411</v>
       </c>
       <c r="J245" t="n">
         <v>0.03799177833643452</v>
@@ -18065,7 +18065,7 @@
         <v>0.05274766623252623</v>
       </c>
       <c r="D246" t="n">
-        <v>0.1306527902630661</v>
+        <v>0.1247987602828499</v>
       </c>
       <c r="E246" t="n">
         <v>0.07887562308819616</v>
@@ -18080,7 +18080,7 @@
         <v>0.0452074774118985</v>
       </c>
       <c r="I246" t="n">
-        <v>0.09670154653274196</v>
+        <v>0.02342778750187954</v>
       </c>
       <c r="J246" t="n">
         <v>0.03438810004983888</v>
@@ -18106,7 +18106,7 @@
         <v>0.03281496727667061</v>
       </c>
       <c r="D247" t="n">
-        <v>1.114891784445807e-06</v>
+        <v>0.01080954903830788</v>
       </c>
       <c r="E247" t="n">
         <v>0.01562699291885961</v>
@@ -18121,7 +18121,7 @@
         <v>0.1133370560467315</v>
       </c>
       <c r="I247" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.1421430726622158</v>
       </c>
       <c r="J247" t="n">
         <v>0.06756896787366821</v>
@@ -18147,7 +18147,7 @@
         <v>0.03430856999097927</v>
       </c>
       <c r="D248" t="n">
-        <v>0.02878212146849685</v>
+        <v>0.03669276472588283</v>
       </c>
       <c r="E248" t="n">
         <v>0.02081496900566412</v>
@@ -18162,7 +18162,7 @@
         <v>0.1064604256798511</v>
       </c>
       <c r="I248" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.1304020005035012</v>
       </c>
       <c r="J248" t="n">
         <v>0.06396528958707258</v>
@@ -18188,7 +18188,7 @@
         <v>0.02774557653564514</v>
       </c>
       <c r="D249" t="n">
-        <v>0.03469192480723841</v>
+        <v>0.04200733256691019</v>
       </c>
       <c r="E249" t="n">
         <v>0.0218802554135306</v>
@@ -18203,7 +18203,7 @@
         <v>0.0995837953129708</v>
       </c>
       <c r="I249" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.1186609283447866</v>
       </c>
       <c r="J249" t="n">
         <v>0.06036161130047694</v>
@@ -18229,7 +18229,7 @@
         <v>0.02774557653564514</v>
       </c>
       <c r="D250" t="n">
-        <v>0.03469192480723841</v>
+        <v>0.04200733256691019</v>
       </c>
       <c r="E250" t="n">
         <v>0.0218802554135306</v>
@@ -18244,7 +18244,7 @@
         <v>0.09270716494609045</v>
       </c>
       <c r="I250" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.1069198561860721</v>
       </c>
       <c r="J250" t="n">
         <v>0.0567579330138813</v>
@@ -18270,7 +18270,7 @@
         <v>0.02118253900823329</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0436556547541827</v>
+        <v>0.05006862838973374</v>
       </c>
       <c r="E251" t="n">
         <v>0.02349602551088486</v>
@@ -18285,7 +18285,7 @@
         <v>0.08583053457921012</v>
       </c>
       <c r="I251" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.09517878402735749</v>
       </c>
       <c r="J251" t="n">
         <v>0.05315425472728567</v>
@@ -18311,7 +18311,7 @@
         <v>0.02118253900823329</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0436556547541827</v>
+        <v>0.05006862838973374</v>
       </c>
       <c r="E252" t="n">
         <v>0.02349602551088486</v>
@@ -18326,7 +18326,7 @@
         <v>0.07895390421232978</v>
       </c>
       <c r="I252" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.08343771186864291</v>
       </c>
       <c r="J252" t="n">
         <v>0.04955057644069003</v>
@@ -18352,7 +18352,7 @@
         <v>0.01461954555289917</v>
       </c>
       <c r="D253" t="n">
-        <v>0.05886553460629967</v>
+        <v>0.06374714199541513</v>
       </c>
       <c r="E253" t="n">
         <v>0.0262377343652122</v>
@@ -18367,7 +18367,7 @@
         <v>0.07207727384544944</v>
       </c>
       <c r="I253" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.07169663970992833</v>
       </c>
       <c r="J253" t="n">
         <v>0.04594689815409439</v>
@@ -18393,7 +18393,7 @@
         <v>0.01461954555289917</v>
       </c>
       <c r="D254" t="n">
-        <v>0.05886553460629967</v>
+        <v>0.06374714199541513</v>
       </c>
       <c r="E254" t="n">
         <v>0.0262377343652122</v>
@@ -18408,7 +18408,7 @@
         <v>0.06520064347856912</v>
       </c>
       <c r="I254" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.05995556755121376</v>
       </c>
       <c r="J254" t="n">
         <v>0.04234321986749875</v>
@@ -18434,7 +18434,7 @@
         <v>0.008056552097565046</v>
       </c>
       <c r="D255" t="n">
-        <v>0.09034168559348096</v>
+        <v>0.09205395401342949</v>
       </c>
       <c r="E255" t="n">
         <v>0.03191140640495877</v>
@@ -18449,7 +18449,7 @@
         <v>0.05832401311168878</v>
       </c>
       <c r="I255" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.0482144953924992</v>
       </c>
       <c r="J255" t="n">
         <v>0.03873954158090311</v>
@@ -18475,7 +18475,7 @@
         <v>0.008056552097565046</v>
       </c>
       <c r="D256" t="n">
-        <v>0.09034168559348096</v>
+        <v>0.09205395401342949</v>
       </c>
       <c r="E256" t="n">
         <v>0.03191140640495877</v>
@@ -18490,7 +18490,7 @@
         <v>0.05144738274480844</v>
       </c>
       <c r="I256" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.03647342323378463</v>
       </c>
       <c r="J256" t="n">
         <v>0.03513586329430748</v>
@@ -18516,7 +18516,7 @@
         <v>0.001493549827815378</v>
       </c>
       <c r="D257" t="n">
-        <v>0.194166546729326</v>
+        <v>0.1854248383712962</v>
       </c>
       <c r="E257" t="n">
         <v>0.05062668545621388</v>
@@ -18531,7 +18531,7 @@
         <v>0.0445707523779281</v>
       </c>
       <c r="I257" t="n">
-        <v>0.1074461628141577</v>
+        <v>0.02473235107507005</v>
       </c>
       <c r="J257" t="n">
         <v>0.03153218500771184</v>
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7501334446939418</v>
+        <v>0.7589872950403317</v>
       </c>
     </row>
     <row r="3">
@@ -18705,7 +18705,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7417102541133376</v>
+        <v>0.7493688720347366</v>
       </c>
     </row>
     <row r="4">
@@ -18713,31 +18713,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.737129843364679</v>
+        <v>0.7457441092734332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7343628323805469</v>
+        <v>0.7281145215535068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7292325807785024</v>
+        <v>0.7252819047886224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7281483734140853</v>
+        <v>0.7121350122492</v>
       </c>
     </row>
     <row r="8">
@@ -18745,47 +18745,47 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7269724153463858</v>
+        <v>0.7033420700607693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7144108902790496</v>
+        <v>0.6885026942724553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7046156405058827</v>
+        <v>0.6861696237221159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6891961971777285</v>
+        <v>0.676798830512665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6875516021543341</v>
+        <v>0.6753879339541401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6854523248295538</v>
+        <v>0.6750709602344792</v>
       </c>
     </row>
     <row r="14">
@@ -18793,79 +18793,79 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6822871795423344</v>
+        <v>0.6740610793852282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6787496617819456</v>
+        <v>0.6736938182081188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6738015127490707</v>
+        <v>0.670874541267264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6734605233100353</v>
+        <v>0.670076039064724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6720333146539674</v>
+        <v>0.6681841503537235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>0.670401432921659</v>
+        <v>0.6681229694275592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6695031892810187</v>
+        <v>0.6668767640902721</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6688311138174718</v>
+        <v>0.656815812149784</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6680687008598748</v>
+        <v>0.6550398039555152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6672505309184418</v>
+        <v>0.6531812502175279</v>
       </c>
     </row>
     <row r="24">
@@ -18873,175 +18873,175 @@
         <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6650818730540693</v>
+        <v>0.6516558634641046</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6633145853396308</v>
+        <v>0.6514624165833993</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6618517595132714</v>
+        <v>0.6436836517858692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6599638751870088</v>
+        <v>0.6436141762979993</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6581817396291638</v>
+        <v>0.6424216853337816</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6554834709537098</v>
+        <v>0.641132377798922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6510343727446333</v>
+        <v>0.6364407506597103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6490463515607182</v>
+        <v>0.6289208667576205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6444751062159868</v>
+        <v>0.625679644827138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B33" t="n">
-        <v>0.644033357649002</v>
+        <v>0.623338207498644</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6438464387277217</v>
+        <v>0.6233296461367691</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6393498807664626</v>
+        <v>0.6230518283851615</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6370659818152822</v>
+        <v>0.6226837504892209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6349475772399689</v>
+        <v>0.6200739247964535</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6253131057784228</v>
+        <v>0.6173220146930681</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6249637588844582</v>
+        <v>0.615389995220231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6249343016266201</v>
+        <v>0.6152357542609996</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6248110712245233</v>
+        <v>0.6143005881975258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6233864222906085</v>
+        <v>0.614123296233736</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6220340768375044</v>
+        <v>0.6138171759259083</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6207202393055685</v>
+        <v>0.6132528002988116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6186357028449908</v>
+        <v>0.6131102769003444</v>
       </c>
     </row>
     <row r="46">
@@ -19049,55 +19049,55 @@
         <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6185354401919956</v>
+        <v>0.6110274003745052</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6182992664350002</v>
+        <v>0.6096083375048668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6182700042431721</v>
+        <v>0.6087886587469979</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6180940516189547</v>
+        <v>0.6084043964350545</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6169245034025962</v>
+        <v>0.6083735990898493</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6166940924124784</v>
+        <v>0.6079183034166991</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6157933977810067</v>
+        <v>0.6055577973324814</v>
       </c>
     </row>
     <row r="53">
@@ -19105,191 +19105,191 @@
         <v>32</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6157336956526785</v>
+        <v>0.6045493416441271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6156101043018782</v>
+        <v>0.6042333417789849</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6147677877449406</v>
+        <v>0.6016590262743685</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6147118412558186</v>
+        <v>0.6009482287177709</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6146760663120732</v>
+        <v>0.5994285380769289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6115170155874087</v>
+        <v>0.5986950323232971</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6114660701309856</v>
+        <v>0.5968825701003432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6109357938185055</v>
+        <v>0.5953156287693796</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6106922096327042</v>
+        <v>0.5946794671136012</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6105594696274887</v>
+        <v>0.594676222427368</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="B63" t="n">
-        <v>0.610443826063238</v>
+        <v>0.594650737435153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6097138234504522</v>
+        <v>0.5942736063447176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6095343834740669</v>
+        <v>0.5929461512426816</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6094012609314717</v>
+        <v>0.5926791169819802</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6093366034374057</v>
+        <v>0.5923842524146654</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B68" t="n">
-        <v>0.609229531350015</v>
+        <v>0.5909152517684566</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6084084423026405</v>
+        <v>0.5907555834192414</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6072461799919319</v>
+        <v>0.5868962029347468</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6053645164429282</v>
+        <v>0.5864540024607628</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6050259939081301</v>
+        <v>0.5856418309074518</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6049588821532044</v>
+        <v>0.5852723960410896</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6028373712302456</v>
+        <v>0.5849482150808232</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6027578088251254</v>
+        <v>0.5841983976216011</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6012157933058653</v>
+        <v>0.5840327729966659</v>
       </c>
     </row>
     <row r="77">
@@ -19297,335 +19297,335 @@
         <v>147</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6008328157273594</v>
+        <v>0.5840141146627786</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6003359971721136</v>
+        <v>0.5818976586186787</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5997355887088406</v>
+        <v>0.5809872483300568</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="B80" t="n">
-        <v>0.599582187465188</v>
+        <v>0.5801605835563858</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5995137745975067</v>
+        <v>0.5784329156822456</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5993281927757944</v>
+        <v>0.5783774611542358</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5988667250566556</v>
+        <v>0.5776062231846659</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5988606252592322</v>
+        <v>0.5769896820873648</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5973578847548973</v>
+        <v>0.5763575374759636</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5965432262028061</v>
+        <v>0.5748912968301766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5964166551287929</v>
+        <v>0.5736115505847521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5962913307254336</v>
+        <v>0.5723612982035318</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5920713940896997</v>
+        <v>0.5703465193540469</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5916625837598258</v>
+        <v>0.5703420509851437</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5910019847730954</v>
+        <v>0.5692041250167414</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5864526155592824</v>
+        <v>0.5683269963737345</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5861983259521213</v>
+        <v>0.5675180177728202</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5853341200243051</v>
+        <v>0.5615454731022969</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5841946476540661</v>
+        <v>0.5612053467463475</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="B96" t="n">
-        <v>0.577853638030821</v>
+        <v>0.5607069940027307</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5769287540452269</v>
+        <v>0.5603505760129331</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5766962654082906</v>
+        <v>0.5566333370135351</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5763361028819656</v>
+        <v>0.5527528958790014</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5707185056136299</v>
+        <v>0.5526295886019155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5697104380685623</v>
+        <v>0.5524005592077932</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5689781017417522</v>
+        <v>0.5523599993551015</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5654836840798557</v>
+        <v>0.5512159823928151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5613819418842549</v>
+        <v>0.5473208604436157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5599611116459918</v>
+        <v>0.5469173229932502</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5563865261186118</v>
+        <v>0.5463209843016745</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5554453472512338</v>
+        <v>0.5440130967274811</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5530130092236463</v>
+        <v>0.5436576695190275</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5526770712308583</v>
+        <v>0.5433927870984843</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5524016063048911</v>
+        <v>0.5407589498740734</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5508594974973121</v>
+        <v>0.5406607793521492</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5499510745035412</v>
+        <v>0.5401369130149742</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5487760327776342</v>
+        <v>0.5370418034602813</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5474924903786582</v>
+        <v>0.5369003693961029</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B115" t="n">
-        <v>0.546338683524012</v>
+        <v>0.535720150577826</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5461105053538976</v>
+        <v>0.5355401842270944</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5443996935226891</v>
+        <v>0.5340721620054513</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5443844233469091</v>
+        <v>0.5334613724367689</v>
       </c>
     </row>
     <row r="119">
@@ -19633,335 +19633,335 @@
         <v>198</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5441190575108881</v>
+        <v>0.5330191600401352</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5440929802302981</v>
+        <v>0.5321857283728044</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5428158090201617</v>
+        <v>0.5309693731686772</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5427852931209879</v>
+        <v>0.5306568137268698</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5419108578774101</v>
+        <v>0.5302313752970191</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5412927468311111</v>
+        <v>0.5300724295181756</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5412180304469466</v>
+        <v>0.5295810377954173</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5402912657234176</v>
+        <v>0.5283443105280593</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5386956224424452</v>
+        <v>0.5276054704665813</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5382987937969075</v>
+        <v>0.5271542832753069</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5374144109103732</v>
+        <v>0.5270518500981558</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5373499980884712</v>
+        <v>0.5262151156306104</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B131" t="n">
-        <v>0.537329027562634</v>
+        <v>0.5255869653869104</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5371829910945292</v>
+        <v>0.5255198720677151</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="B133" t="n">
-        <v>0.535245569533419</v>
+        <v>0.5249107877593726</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5345243576859233</v>
+        <v>0.524302988062744</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5337301052443731</v>
+        <v>0.5239587631686077</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5335553950685884</v>
+        <v>0.5238885020265315</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5330004702083876</v>
+        <v>0.523402621573662</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5327378240238058</v>
+        <v>0.5233705515285093</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5326211879186268</v>
+        <v>0.5220273346010738</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5325670676075402</v>
+        <v>0.5203599266358481</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5318113340496283</v>
+        <v>0.5200247785624447</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5301826427867783</v>
+        <v>0.5196973570071709</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5295636056735473</v>
+        <v>0.51946303517065</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5295220209393748</v>
+        <v>0.5193089051735842</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5291170352550013</v>
+        <v>0.5189681343845419</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5290701052186588</v>
+        <v>0.5167554836747046</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5289432591962557</v>
+        <v>0.5165516722258412</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5283809331057855</v>
+        <v>0.5155395257404167</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5272697149425613</v>
+        <v>0.5154415350159605</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5272237716778837</v>
+        <v>0.5140620250599751</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5264500815964995</v>
+        <v>0.5139638031533706</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5251849476862031</v>
+        <v>0.5128617657206167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B153" t="n">
-        <v>0.52437234045536</v>
+        <v>0.5128295195279177</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5240777453893365</v>
+        <v>0.5116325033632507</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5239301854408722</v>
+        <v>0.5111586809139942</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B156" t="n">
-        <v>0.523857878504032</v>
+        <v>0.5089749255712507</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5238242730325869</v>
+        <v>0.5088231614738111</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5235619273670452</v>
+        <v>0.5086844681792313</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5220204586363482</v>
+        <v>0.5073972982998899</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5201991049475617</v>
+        <v>0.5071102948659912</v>
       </c>
     </row>
     <row r="161">
@@ -19969,135 +19969,135 @@
         <v>158</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5197267552582415</v>
+        <v>0.5048614056609878</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="B162" t="n">
-        <v>0.51968300984982</v>
+        <v>0.5048443305734802</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5184195703693825</v>
+        <v>0.5032975124340948</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5183836803951557</v>
+        <v>0.5029592750014175</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5182502746491418</v>
+        <v>0.5008555344127366</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="B166" t="n">
-        <v>0.518249790513012</v>
+        <v>0.500644547050962</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5176334601179395</v>
+        <v>0.4987498358281856</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5156266424965209</v>
+        <v>0.4967433119105065</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="B169" t="n">
-        <v>0.514828371900251</v>
+        <v>0.4965297301712635</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5145653063238819</v>
+        <v>0.4935289041725809</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5130752777533514</v>
+        <v>0.4927504405164632</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5128527512951412</v>
+        <v>0.4923678636790801</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5127934494771312</v>
+        <v>0.4888784124783563</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5107364839718512</v>
+        <v>0.4882361532075979</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5093781201829234</v>
+        <v>0.4850092192417151</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5091722078805722</v>
+        <v>0.4843609818174297</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5041404324427202</v>
+        <v>0.481566793497487</v>
       </c>
     </row>
     <row r="178">
@@ -20105,31 +20105,31 @@
         <v>181</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5038515488814621</v>
+        <v>0.4803483961236537</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4919827796545825</v>
+        <v>0.4769564481028955</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4795854899677941</v>
+        <v>0.4751849119077833</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4781758835522625</v>
+        <v>0.4718851862127383</v>
       </c>
     </row>
     <row r="182">
@@ -20137,39 +20137,39 @@
         <v>136</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4709403415094777</v>
+        <v>0.4682744052270909</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4700682582404903</v>
+        <v>0.4673605105041312</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4672407704402434</v>
+        <v>0.4625271731214585</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4622992826408316</v>
+        <v>0.4548636456137204</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4608905894178772</v>
+        <v>0.4535309736129136</v>
       </c>
     </row>
     <row r="187">
@@ -20177,15 +20177,15 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4590305391915497</v>
+        <v>0.4515999912292277</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4559856425356057</v>
+        <v>0.4504280502215402</v>
       </c>
     </row>
     <row r="189">
@@ -20193,95 +20193,95 @@
         <v>61</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4539084701978784</v>
+        <v>0.4496366229672156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4494597264742093</v>
+        <v>0.4451981152939695</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="B191" t="n">
-        <v>0.446593086212351</v>
+        <v>0.443090427898187</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4447522928811696</v>
+        <v>0.4422783785006296</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4445390427122103</v>
+        <v>0.4391247165940959</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4441171292387829</v>
+        <v>0.437984533757694</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4407134487830057</v>
+        <v>0.4372686186357823</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4406841660130292</v>
+        <v>0.4366980627651211</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B197" t="n">
-        <v>0.440243103889187</v>
+        <v>0.4347148605133477</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4398291248953278</v>
+        <v>0.4336040722266107</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4397287914121339</v>
+        <v>0.43355649121455</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4383150687646045</v>
+        <v>0.4331787013113351</v>
       </c>
     </row>
     <row r="201">
@@ -20289,263 +20289,263 @@
         <v>208</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4378399135444996</v>
+        <v>0.4327394561019842</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="B202" t="n">
-        <v>0.4357988710274517</v>
+        <v>0.4322414926270317</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4354510826873431</v>
+        <v>0.4308037490502863</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4354142976569494</v>
+        <v>0.4290209725156884</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4349955023793463</v>
+        <v>0.4280946083964571</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B206" t="n">
-        <v>0.4347643206164366</v>
+        <v>0.4280204859492542</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4346395621433395</v>
+        <v>0.4272389281784072</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="B208" t="n">
-        <v>0.4322035096259269</v>
+        <v>0.4261464640847704</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4317116839718054</v>
+        <v>0.4259826496469821</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4316189862624723</v>
+        <v>0.4257873364044098</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B211" t="n">
-        <v>0.4304567388245525</v>
+        <v>0.4230304146250274</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4302440033623776</v>
+        <v>0.4230107201243183</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4301420292108027</v>
+        <v>0.4221614288129554</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4300167160554416</v>
+        <v>0.4221304582263083</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B215" t="n">
-        <v>0.4297377872649712</v>
+        <v>0.4210382798189014</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B216" t="n">
-        <v>0.427587282117785</v>
+        <v>0.4186418255368533</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B217" t="n">
-        <v>0.4273267717001381</v>
+        <v>0.4185903565524522</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4265510113560076</v>
+        <v>0.4166054663355586</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B219" t="n">
-        <v>0.4256740874854273</v>
+        <v>0.41479693294381</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B220" t="n">
-        <v>0.4229264173435436</v>
+        <v>0.4141918867022082</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4220498966555591</v>
+        <v>0.4113272484866979</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B222" t="n">
-        <v>0.4214465799872265</v>
+        <v>0.4101213527671759</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4209599855007634</v>
+        <v>0.4079915055473702</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4208719973468465</v>
+        <v>0.40666682505255</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="B225" t="n">
-        <v>0.417823163237815</v>
+        <v>0.4056054382205286</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B226" t="n">
-        <v>0.416447170140784</v>
+        <v>0.4031045426462693</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4141346405593411</v>
+        <v>0.400789433855055</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3925220873773694</v>
+        <v>0.3902505318261905</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3873431357626024</v>
+        <v>0.3880653593862811</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3871902622638588</v>
+        <v>0.3853145530351738</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3821740992849041</v>
+        <v>0.3848668887108169</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3817875314993371</v>
+        <v>0.3846640396360121</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3796191624113534</v>
+        <v>0.3841766417396714</v>
       </c>
     </row>
     <row r="234">
@@ -20553,7 +20553,7 @@
         <v>121</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3672328570271651</v>
+        <v>0.3673205549727511</v>
       </c>
     </row>
     <row r="235">
@@ -20561,15 +20561,15 @@
         <v>90</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3655184811846721</v>
+        <v>0.3672444193720384</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3632106122535265</v>
+        <v>0.3623341462028291</v>
       </c>
     </row>
     <row r="237">
@@ -20577,143 +20577,143 @@
         <v>214</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3629863675452126</v>
+        <v>0.3598571887364406</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3589938208042283</v>
+        <v>0.3594601988356362</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="B239" t="n">
-        <v>0.357604156790503</v>
+        <v>0.3578199206457473</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3556867087088774</v>
+        <v>0.3575311057003331</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3553970977533982</v>
+        <v>0.3560133578456313</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3548232706706828</v>
+        <v>0.3532753845372322</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3547215451902604</v>
+        <v>0.3510484890519753</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3542862696939056</v>
+        <v>0.3503468731842143</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3526408856249907</v>
+        <v>0.3487861281573674</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3522470107221434</v>
+        <v>0.3487340456341774</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3479376266396085</v>
+        <v>0.3476454843481095</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3478833536532929</v>
+        <v>0.3429516684732878</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3476003785870247</v>
+        <v>0.3422480439251866</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3472133337823546</v>
+        <v>0.3419290274295532</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3454693055525317</v>
+        <v>0.34086634628248</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3448889394752062</v>
+        <v>0.3383744544524378</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3410531798551416</v>
+        <v>0.3380636794999383</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3345833307604607</v>
+        <v>0.3367728863836651</v>
       </c>
     </row>
     <row r="255">
@@ -20721,23 +20721,23 @@
         <v>235</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3082036008260451</v>
+        <v>0.3160550236638678</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3053032548591206</v>
+        <v>0.3044684272597183</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3020270349591974</v>
+        <v>0.3008292580452567</v>
       </c>
     </row>
   </sheetData>
